--- a/DBDT.xlsx
+++ b/DBDT.xlsx
@@ -1,24 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Clement\Desktop\CCCCompanion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B5F97143-6E5F-43AA-A66E-E101707C5FFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20175" windowHeight="7560"/>
+    <workbookView xWindow="4095" yWindow="3690" windowWidth="15885" windowHeight="11430" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CPME Ethanol Water" sheetId="1" r:id="rId1"/>
     <sheet name="ButylAcetate Ethanol Water" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -108,13 +120,13 @@
     <t>ButylAcetate</t>
   </si>
   <si>
-    <t>Number</t>
+    <t>Composition</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -208,11 +220,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -222,10 +234,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Excel Built-in Good" xfId="1"/>
+    <cellStyle name="Excel Built-in Good" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -503,11 +514,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="W28" sqref="W28"/>
+    <sheetView topLeftCell="H1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="V2" sqref="V2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -576,7 +587,7 @@
       <c r="U1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="V1" s="7" t="s">
+      <c r="V1" s="1" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1367,11 +1378,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:V21"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="V2" sqref="V2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/DBDT.xlsx
+++ b/DBDT.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Clement\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B5F97143-6E5F-43AA-A66E-E101707C5FFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4095" yWindow="3690" windowWidth="15885" windowHeight="11430" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20175" windowHeight="7560" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="CPME Ethanol Water" sheetId="1" r:id="rId1"/>
-    <sheet name="ButylAcetate Ethanol Water" sheetId="2" r:id="rId2"/>
+    <sheet name="CPME Acetone Water" sheetId="5" r:id="rId1"/>
+    <sheet name="CPME Ethanol Water" sheetId="3" r:id="rId2"/>
+    <sheet name="ButylAcetate Ethanol Water" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="40">
   <si>
     <t>CPME</t>
   </si>
@@ -121,12 +121,48 @@
   </si>
   <si>
     <t>Composition</t>
+  </si>
+  <si>
+    <t>7 0 3</t>
+  </si>
+  <si>
+    <t>6,5 0,5 3</t>
+  </si>
+  <si>
+    <t>6 1 3</t>
+  </si>
+  <si>
+    <t>5,5 1,5 3</t>
+  </si>
+  <si>
+    <t>5 2 3</t>
+  </si>
+  <si>
+    <t>4,5 2,5 3</t>
+  </si>
+  <si>
+    <t>4 3 3</t>
+  </si>
+  <si>
+    <t>3,5 3,5 3</t>
+  </si>
+  <si>
+    <t>3 4 3</t>
+  </si>
+  <si>
+    <t>2,5 4,5 3</t>
+  </si>
+  <si>
+    <t>Acetone</t>
+  </si>
+  <si>
+    <t>MAX</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -220,7 +256,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -234,9 +270,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Excel Built-in Good" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Excel Built-in Good" xfId="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -514,14 +551,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V23"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="V2" sqref="V2"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="V12" sqref="V12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.28515625" customWidth="1"/>
+    <col min="22" max="22" width="14" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -534,40 +575,40 @@
         <v>9</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>18</v>
@@ -584,10 +625,10 @@
       <c r="T1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="U1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="3" t="s">
         <v>27</v>
       </c>
     </row>
@@ -596,79 +637,79 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="1">
-        <v>0.89310747978165994</v>
+        <v>0.92784104000000001</v>
       </c>
       <c r="E2" s="1">
-        <v>7.7839267522331126E-2</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>2.9053252696008988E-2</v>
+        <v>7.2158959999999994E-2</v>
       </c>
       <c r="G2" s="1">
-        <v>2.6869736300423483E-2</v>
+        <v>2.2430900000000001E-3</v>
       </c>
       <c r="H2" s="1">
-        <v>0.12923035552860385</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>0.84389990817097271</v>
+        <v>0.99775691</v>
       </c>
       <c r="J2" s="1">
-        <f>(P2/$A$4)/((P2/$A$4)+(Q2/$B$4)+(R2/$C$4))</f>
-        <v>0.72302920767036827</v>
+        <f>(P2/$A$6)/((P2/$A$6)+(Q2/$B$6)+(R2/$C$6))</f>
+        <v>0.98806401170738245</v>
       </c>
       <c r="K2" s="1">
-        <f>(Q2/$B$4)/((P2/$A$4)+(Q2/$B$4)+(R2/$C$4))</f>
-        <v>0.12554834518602154</v>
+        <f>(Q2/$B$6)/((P2/$A$6)+(Q2/$B$6)+(R2/$C$6))</f>
+        <v>0</v>
       </c>
       <c r="L2" s="1">
-        <f>(R2/$C$4)/((P2/$A$4)+(Q2/$B$4)+(R2/$C$4))</f>
-        <v>0.15142244714361014</v>
+        <f>(R2/$C$6)/((P2/$A$6)+(Q2/$B$6)+(R2/$C$6))</f>
+        <v>1.193598829261755E-2</v>
       </c>
       <c r="M2" s="1">
-        <f>(S2/$A$4)/((S2/$A$4)+(T2/$B$4)+(U2/$C$4))</f>
-        <v>4.6997483745358087E-3</v>
+        <f>(S2/$A$6)/((S2/$A$6)+(T2/$B$6)+(U2/$C$6))</f>
+        <v>1.4266740099013756E-2</v>
       </c>
       <c r="N2" s="1">
-        <f>(T2/$B$4)/((S2/$A$4)+(T2/$B$4)+(U2/$C$4))</f>
-        <v>4.5033518346522319E-2</v>
+        <f>(T2/$B$6)/((S2/$A$6)+(T2/$B$6)+(U2/$C$6))</f>
+        <v>0</v>
       </c>
       <c r="O2" s="1">
-        <f>(U2/$C$4)/((S2/$A$4)+(T2/$B$4)+(U2/$C$4))</f>
-        <v>0.95026673327894184</v>
+        <f>(U2/$C$6)/((S2/$A$6)+(T2/$B$6)+(U2/$C$6))</f>
+        <v>0.98573325990098615</v>
       </c>
       <c r="P2" s="1">
-        <f>(D2*$A$6)/((D2*$A$6)+(E2*$B$6)+(F2*$C$6))</f>
-        <v>0.89482561240191283</v>
+        <f>(D2*$A$4)/((D2*$A$4)+(E2*$B$4)+(F2*$C$4))</f>
+        <v>0.9862046615192448</v>
       </c>
       <c r="Q2" s="1">
-        <f>(E2*$B$6)/((D2*$A$6)+(E2*$B$6)+(F2*$C$6))</f>
-        <v>7.1467283052200126E-2</v>
+        <f>(E2*$B$4)/((D2*$A$4)+(E2*$B$4)+(F2*$C$4))</f>
+        <v>0</v>
       </c>
       <c r="R2" s="1">
-        <f>(F2*$C$6)/((D2*$A$6)+(E2*$B$6)+(F2*$C$6))</f>
-        <v>3.3707104545887039E-2</v>
+        <f>(F2*$C$4)/((D2*$A$4)+(E2*$B$4)+(F2*$C$4))</f>
+        <v>1.3795338480755207E-2</v>
       </c>
       <c r="S2" s="1">
-        <f>(G2*$A$6)/((G2*$A$6)+(H2*$B$6)+(I2*$C$6))</f>
-        <v>2.3937570174617073E-2</v>
+        <f>(G2*$A$4)/((G2*$A$4)+(H2*$B$4)+(I2*$C$4))</f>
+        <v>1.2344649207526013E-2</v>
       </c>
       <c r="T2" s="1">
-        <f>(H2*$B$6)/((G2*$A$6)+(H2*$B$6)+(I2*$C$6))</f>
-        <v>0.10550062952069839</v>
-      </c>
-      <c r="U2" s="2">
-        <f>(I2*$C$6)/((G2*$A$6)+(H2*$B$6)+(I2*$C$6))</f>
-        <v>0.87056180030468444</v>
-      </c>
-      <c r="V2" s="1">
-        <v>1</v>
+        <f>(H2*$B$4)/((G2*$A$4)+(H2*$B$4)+(I2*$C$4))</f>
+        <v>0</v>
+      </c>
+      <c r="U2" s="1">
+        <f>(I2*$C$4)/((G2*$A$4)+(H2*$B$4)+(I2*$C$4))</f>
+        <v>0.98765535079247402</v>
+      </c>
+      <c r="V2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
@@ -678,73 +719,73 @@
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="1">
-        <v>0.81037609200367289</v>
+        <v>0.86594227999999995</v>
       </c>
       <c r="E3" s="1">
-        <v>0.14179346231961315</v>
+        <v>4.8194769999999998E-2</v>
       </c>
       <c r="F3" s="1">
-        <v>4.7830445676713899E-2</v>
+        <v>8.5862949999999993E-2</v>
       </c>
       <c r="G3" s="1">
-        <v>4.099673503025697E-2</v>
+        <v>3.2285899999999999E-3</v>
       </c>
       <c r="H3" s="1">
-        <v>0.21313743191352225</v>
+        <v>2.227258E-2</v>
       </c>
       <c r="I3" s="1">
-        <v>0.74586583305622089</v>
+        <v>0.97449883000000004</v>
       </c>
       <c r="J3" s="1">
-        <f t="shared" ref="J3:J11" si="0">(P3/$A$4)/((P3/$A$4)+(Q3/$B$4)+(R3/$C$4))</f>
-        <v>0.5785087661101066</v>
+        <f t="shared" ref="J3:J20" si="0">(P3/$A$6)/((P3/$A$6)+(Q3/$B$6)+(R3/$C$6))</f>
+        <v>0.95161461422519067</v>
       </c>
       <c r="K3" s="1">
-        <f t="shared" ref="K3:K11" si="1">(Q3/$B$4)/((P3/$A$4)+(Q3/$B$4)+(R3/$C$4))</f>
-        <v>0.20166924340111536</v>
+        <f t="shared" ref="K3:K20" si="1">(Q3/$B$6)/((P3/$A$6)+(Q3/$B$6)+(R3/$C$6))</f>
+        <v>3.3728740414913097E-2</v>
       </c>
       <c r="L3" s="1">
-        <f t="shared" ref="L3:L11" si="2">(R3/$C$4)/((P3/$A$4)+(Q3/$B$4)+(R3/$C$4))</f>
-        <v>0.21982199048877807</v>
+        <f t="shared" ref="L3:L20" si="2">(R3/$C$6)/((P3/$A$6)+(Q3/$B$6)+(R3/$C$6))</f>
+        <v>1.4656645359896166E-2</v>
       </c>
       <c r="M3" s="1">
-        <f t="shared" ref="M3:M11" si="3">(S3/$A$4)/((S3/$A$4)+(T3/$B$4)+(U3/$C$4))</f>
-        <v>7.7830531956881678E-3</v>
+        <f t="shared" ref="M3:M20" si="3">(S3/$A$6)/((S3/$A$6)+(T3/$B$6)+(U3/$C$6))</f>
+        <v>1.912876545468413E-2</v>
       </c>
       <c r="N3" s="1">
-        <f t="shared" ref="N3:N11" si="4">(T3/$B$4)/((S3/$A$4)+(T3/$B$4)+(U3/$C$4))</f>
-        <v>8.0615879020922182E-2</v>
+        <f t="shared" ref="N3:N20" si="4">(T3/$B$6)/((S3/$A$6)+(T3/$B$6)+(U3/$C$6))</f>
+        <v>8.403740340824814E-2</v>
       </c>
       <c r="O3" s="1">
-        <f t="shared" ref="O3:O11" si="5">(U3/$C$4)/((S3/$A$4)+(T3/$B$4)+(U3/$C$4))</f>
-        <v>0.91160106778338956</v>
+        <f t="shared" ref="O3:O20" si="5">(U3/$C$6)/((S3/$A$6)+(T3/$B$6)+(U3/$C$6))</f>
+        <v>0.89683383113706783</v>
       </c>
       <c r="P3" s="1">
-        <f t="shared" ref="P3:P11" si="6">(D3*$A$6)/((D3*$A$6)+(E3*$B$6)+(F3*$C$6))</f>
-        <v>0.81387755078000157</v>
+        <f t="shared" ref="P3:P20" si="6">(D3*$A$4)/((D3*$A$4)+(E3*$B$4)+(F3*$C$4))</f>
+        <v>0.95228243877627328</v>
       </c>
       <c r="Q3" s="1">
-        <f t="shared" ref="Q3:Q11" si="7">(E3*$B$6)/((D3*$A$6)+(E3*$B$6)+(F3*$C$6))</f>
-        <v>0.13049759522009416</v>
+        <f t="shared" ref="Q3:Q20" si="7">(E3*$B$4)/((D3*$A$4)+(E3*$B$4)+(F3*$C$4))</f>
+        <v>3.0733902322401481E-2</v>
       </c>
       <c r="R3" s="1">
-        <f t="shared" ref="R3:R11" si="8">(F3*$C$6)/((D3*$A$6)+(E3*$B$6)+(F3*$C$6))</f>
-        <v>5.5624853999904265E-2</v>
+        <f t="shared" ref="R3:R20" si="8">(F3*$C$4)/((D3*$A$4)+(E3*$B$4)+(F3*$C$4))</f>
+        <v>1.6983658901325319E-2</v>
       </c>
       <c r="S3" s="1">
-        <f t="shared" ref="S3:S11" si="9">(G3*$A$6)/((G3*$A$6)+(H3*$B$6)+(I3*$C$6))</f>
-        <v>3.7270079512896126E-2</v>
+        <f t="shared" ref="S3:S20" si="9">(G3*$A$4)/((G3*$A$4)+(H3*$B$4)+(I3*$C$4))</f>
+        <v>1.6866248850111478E-2</v>
       </c>
       <c r="T3" s="1">
-        <f t="shared" ref="T3:T11" si="10">(H3*$B$6)/((G3*$A$6)+(H3*$B$6)+(I3*$C$6))</f>
-        <v>0.17755979245746492</v>
-      </c>
-      <c r="U3" s="2">
-        <f t="shared" ref="U3:U11" si="11">(I3*$C$6)/((G3*$A$6)+(H3*$B$6)+(I3*$C$6))</f>
-        <v>0.78517012802963893</v>
-      </c>
-      <c r="V3" s="1">
-        <v>2</v>
+        <f t="shared" ref="T3:T20" si="10">(H3*$B$4)/((G3*$A$4)+(H3*$B$4)+(I3*$C$4))</f>
+        <v>6.7470992384577114E-2</v>
+      </c>
+      <c r="U3" s="1">
+        <f t="shared" ref="U3:U20" si="11">(I3*$C$4)/((G3*$A$4)+(H3*$B$4)+(I3*$C$4))</f>
+        <v>0.91566275876531134</v>
+      </c>
+      <c r="V3" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
@@ -752,79 +793,79 @@
         <v>100.158</v>
       </c>
       <c r="B4" s="1">
-        <v>46.067999999999998</v>
+        <v>58.08</v>
       </c>
       <c r="C4" s="2">
         <v>18.015000000000001</v>
       </c>
       <c r="D4" s="1">
-        <v>0.74644075168828494</v>
+        <v>0.80124759999999995</v>
       </c>
       <c r="E4" s="1">
-        <v>0.19013710064662045</v>
+        <v>9.5710970000000006E-2</v>
       </c>
       <c r="F4" s="1">
-        <v>6.3422147665094575E-2</v>
+        <v>0.10304143</v>
       </c>
       <c r="G4" s="1">
-        <v>5.6180784411687938E-2</v>
+        <v>4.4360299999999997E-3</v>
       </c>
       <c r="H4" s="1">
-        <v>0.27258442897940427</v>
+        <v>4.429549E-2</v>
       </c>
       <c r="I4" s="1">
-        <v>0.6712347866089079</v>
+        <v>0.95126847999999997</v>
       </c>
       <c r="J4" s="1">
         <f t="shared" si="0"/>
-        <v>0.48673715024660036</v>
+        <v>0.91236932416524852</v>
       </c>
       <c r="K4" s="1">
         <f t="shared" si="1"/>
-        <v>0.24701661044548984</v>
+        <v>6.9405470657784823E-2</v>
       </c>
       <c r="L4" s="1">
         <f t="shared" si="2"/>
-        <v>0.26624623930790986</v>
+        <v>1.8225205176966675E-2</v>
       </c>
       <c r="M4" s="1">
         <f t="shared" si="3"/>
-        <v>1.14174858553485E-2</v>
+        <v>2.4589150554291717E-2</v>
       </c>
       <c r="N4" s="1">
         <f t="shared" si="4"/>
-        <v>0.11036817585601598</v>
+        <v>0.15636394337516177</v>
       </c>
       <c r="O4" s="1">
         <f t="shared" si="5"/>
-        <v>0.8782143382886356</v>
+        <v>0.81904690607054642</v>
       </c>
       <c r="P4" s="1">
         <f t="shared" si="6"/>
-        <v>0.75085734443971619</v>
+        <v>0.91541602574897274</v>
       </c>
       <c r="Q4" s="1">
         <f t="shared" si="7"/>
-        <v>0.17526807248087589</v>
+        <v>6.3409517871768323E-2</v>
       </c>
       <c r="R4" s="1">
         <f t="shared" si="8"/>
-        <v>7.3874583079407835E-2</v>
+        <v>2.1174456379258917E-2</v>
       </c>
       <c r="S4" s="1">
         <f t="shared" si="9"/>
-        <v>5.1864086935633075E-2</v>
+        <v>2.2045348870968092E-2</v>
       </c>
       <c r="T4" s="1">
         <f t="shared" si="10"/>
-        <v>0.23059709580945434</v>
-      </c>
-      <c r="U4" s="2">
+        <v>0.12765063384743683</v>
+      </c>
+      <c r="U4" s="1">
         <f t="shared" si="11"/>
-        <v>0.71753881725491253</v>
-      </c>
-      <c r="V4" s="1">
-        <v>3</v>
+        <v>0.8503040172815951</v>
+      </c>
+      <c r="V4" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
@@ -834,73 +875,73 @@
       <c r="B5" s="6"/>
       <c r="C5" s="4"/>
       <c r="D5" s="1">
-        <v>0.69549703040406974</v>
+        <v>0.73145291999999995</v>
       </c>
       <c r="E5" s="1">
-        <v>0.22811872439442338</v>
+        <v>0.14314835000000001</v>
       </c>
       <c r="F5" s="1">
-        <v>7.6384245201507078E-2</v>
+        <v>0.12539873000000001</v>
       </c>
       <c r="G5" s="1">
-        <v>7.2861058194506292E-2</v>
+        <v>5.8562099999999997E-3</v>
       </c>
       <c r="H5" s="1">
-        <v>0.31836317538226494</v>
+        <v>6.5718639999999995E-2</v>
       </c>
       <c r="I5" s="1">
-        <v>0.60877576642322884</v>
+        <v>0.92842515999999997</v>
       </c>
       <c r="J5" s="1">
         <f t="shared" si="0"/>
-        <v>0.42363491620075677</v>
+        <v>0.86861270464631224</v>
       </c>
       <c r="K5" s="1">
         <f t="shared" si="1"/>
-        <v>0.27683279621566864</v>
+        <v>0.10825655395677232</v>
       </c>
       <c r="L5" s="1">
         <f t="shared" si="2"/>
-        <v>0.29953228758357453</v>
+        <v>2.3130741396915389E-2</v>
       </c>
       <c r="M5" s="1">
         <f t="shared" si="3"/>
-        <v>1.5749064218025039E-2</v>
+        <v>3.051365649312161E-2</v>
       </c>
       <c r="N5" s="1">
         <f t="shared" si="4"/>
-        <v>0.13710151206421423</v>
+        <v>0.21806915019000206</v>
       </c>
       <c r="O5" s="1">
         <f t="shared" si="5"/>
-        <v>0.8471494237177607</v>
+        <v>0.7514171933168764</v>
       </c>
       <c r="P5" s="1">
         <f t="shared" si="6"/>
-        <v>0.70040744038659719</v>
+        <v>0.87388031902687213</v>
       </c>
       <c r="Q5" s="1">
         <f t="shared" si="7"/>
-        <v>0.21051849524409416</v>
+        <v>9.9172872140111626E-2</v>
       </c>
       <c r="R5" s="1">
         <f t="shared" si="8"/>
-        <v>8.9074064369308592E-2</v>
+        <v>2.6946808833016197E-2</v>
       </c>
       <c r="S5" s="1">
         <f t="shared" si="9"/>
-        <v>6.8123924936490568E-2</v>
+        <v>2.7760163773562455E-2</v>
       </c>
       <c r="T5" s="1">
         <f t="shared" si="10"/>
-        <v>0.27277267758132945</v>
-      </c>
-      <c r="U5" s="2">
+        <v>0.18064873030544243</v>
+      </c>
+      <c r="U5" s="1">
         <f t="shared" si="11"/>
-        <v>0.65910339748217994</v>
-      </c>
-      <c r="V5" s="1">
-        <v>4</v>
+        <v>0.79159110592099513</v>
+      </c>
+      <c r="V5" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
@@ -908,465 +949,587 @@
         <v>0.86099999999999999</v>
       </c>
       <c r="B6" s="1">
-        <v>0.78900000000000003</v>
+        <v>0.78400000000000003</v>
       </c>
       <c r="C6" s="2">
         <v>0.997</v>
       </c>
       <c r="D6" s="1">
-        <v>0.65189440910856944</v>
+        <v>0.65427932</v>
       </c>
       <c r="E6" s="1">
-        <v>0.26001878044199267</v>
+        <v>0.19056144999999999</v>
       </c>
       <c r="F6" s="1">
-        <v>8.8086810449437891E-2</v>
+        <v>0.15515923000000001</v>
       </c>
       <c r="G6" s="1">
-        <v>9.171938509224252E-2</v>
+        <v>7.4547499999999996E-3</v>
       </c>
       <c r="H6" s="1">
-        <v>0.35545754387359968</v>
+        <v>8.6217299999999997E-2</v>
       </c>
       <c r="I6" s="1">
-        <v>0.55282307103415773</v>
+        <v>0.90632794999999999</v>
       </c>
       <c r="J6" s="1">
         <f t="shared" si="0"/>
-        <v>0.37529270758310657</v>
+        <v>0.81811832084080205</v>
       </c>
       <c r="K6" s="1">
         <f t="shared" si="1"/>
-        <v>0.29823439151593584</v>
+        <v>0.1517455716734526</v>
       </c>
       <c r="L6" s="1">
         <f t="shared" si="2"/>
-        <v>0.3264729009009576</v>
+        <v>3.0136107485745276E-2</v>
       </c>
       <c r="M6" s="1">
         <f t="shared" si="3"/>
-        <v>2.1041773196651816E-2</v>
+        <v>3.6697341142917783E-2</v>
       </c>
       <c r="N6" s="1">
         <f t="shared" si="4"/>
-        <v>0.16246846367618681</v>
+        <v>0.27028627091942903</v>
       </c>
       <c r="O6" s="1">
         <f t="shared" si="5"/>
-        <v>0.81648976312716137</v>
+        <v>0.6930163879376533</v>
       </c>
       <c r="P6" s="1">
         <f t="shared" si="6"/>
-        <v>0.65703896004197693</v>
+        <v>0.82539047916358732</v>
       </c>
       <c r="Q6" s="1">
         <f t="shared" si="7"/>
-        <v>0.24015544335683642</v>
+        <v>0.13940304943292212</v>
       </c>
       <c r="R6" s="1">
         <f t="shared" si="8"/>
-        <v>0.10280559660118664</v>
+        <v>3.5206471403490591E-2</v>
       </c>
       <c r="S6" s="1">
         <f t="shared" si="9"/>
-        <v>8.6724326334493923E-2</v>
+        <v>3.3813270049172256E-2</v>
       </c>
       <c r="T6" s="1">
         <f t="shared" si="10"/>
-        <v>0.30799338430722017</v>
-      </c>
-      <c r="U6" s="2">
+        <v>0.22677202151903361</v>
+      </c>
+      <c r="U6" s="1">
         <f t="shared" si="11"/>
-        <v>0.60528228935828587</v>
-      </c>
-      <c r="V6" s="1">
-        <v>5</v>
+        <v>0.73941470843179413</v>
+      </c>
+      <c r="V6" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="D7" s="1">
-        <v>0.61173270182538231</v>
+        <v>0.56853924</v>
       </c>
       <c r="E7" s="1">
-        <v>0.28861254375505663</v>
+        <v>0.23722424</v>
       </c>
       <c r="F7" s="1">
-        <v>9.9654754419561023E-2</v>
+        <v>0.19423652</v>
       </c>
       <c r="G7" s="1">
-        <v>0.11367039189868479</v>
+        <v>9.1693799999999995E-3</v>
       </c>
       <c r="H7" s="1">
-        <v>0.38626857462814923</v>
+        <v>0.10547285000000001</v>
       </c>
       <c r="I7" s="1">
-        <v>0.50006103347316599</v>
+        <v>0.88535777000000004</v>
       </c>
       <c r="J7" s="1">
         <f t="shared" si="0"/>
-        <v>0.3345893904979661</v>
+        <v>0.75827153259019775</v>
       </c>
       <c r="K7" s="1">
         <f t="shared" si="1"/>
-        <v>0.31450373558264921</v>
+        <v>0.20148903821583339</v>
       </c>
       <c r="L7" s="1">
         <f t="shared" si="2"/>
-        <v>0.35090687391938474</v>
+        <v>4.0239429193968848E-2</v>
       </c>
       <c r="M7" s="1">
         <f t="shared" si="3"/>
-        <v>2.7707053838105778E-2</v>
+        <v>4.2875342352525658E-2</v>
       </c>
       <c r="N7" s="1">
         <f t="shared" si="4"/>
-        <v>0.18758258035502121</v>
+        <v>0.31407716604932523</v>
       </c>
       <c r="O7" s="1">
         <f t="shared" si="5"/>
-        <v>0.78471036580687303</v>
+        <v>0.64304749159814911</v>
       </c>
       <c r="P7" s="1">
         <f t="shared" si="6"/>
-        <v>0.6169109249853737</v>
+        <v>0.76721984087421335</v>
       </c>
       <c r="Q7" s="1">
         <f t="shared" si="7"/>
-        <v>0.26671645988496923</v>
+        <v>0.18563480610262537</v>
       </c>
       <c r="R7" s="1">
         <f t="shared" si="8"/>
-        <v>0.11637261512965709</v>
+        <v>4.7145353023161182E-2</v>
       </c>
       <c r="S7" s="1">
         <f t="shared" si="9"/>
-        <v>0.10860024103888896</v>
+        <v>3.9940330329358377E-2</v>
       </c>
       <c r="T7" s="1">
         <f t="shared" si="10"/>
-        <v>0.33817901949702178</v>
-      </c>
-      <c r="U7" s="2">
+        <v>0.26641171998306762</v>
+      </c>
+      <c r="U7" s="1">
         <f t="shared" si="11"/>
-        <v>0.55322073946408923</v>
-      </c>
-      <c r="V7" s="1">
-        <v>6</v>
+        <v>0.69364794968757393</v>
+      </c>
+      <c r="V7" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="D8" s="1">
-        <v>0.63776990765174146</v>
+        <v>0.47715423000000001</v>
       </c>
       <c r="E8" s="1">
-        <v>0.27017756279943522</v>
+        <v>0.28133485000000003</v>
       </c>
       <c r="F8" s="1">
-        <v>9.2052529548823217E-2</v>
+        <v>0.24151091999999999</v>
       </c>
       <c r="G8" s="1">
-        <v>9.8909840363204451E-2</v>
+        <v>1.0943029999999999E-2</v>
       </c>
       <c r="H8" s="1">
-        <v>0.36675663460327235</v>
+        <v>0.12347532999999999</v>
       </c>
       <c r="I8" s="1">
-        <v>0.53433352503352316</v>
+        <v>0.86558164000000004</v>
       </c>
       <c r="J8" s="1">
         <f t="shared" si="0"/>
-        <v>0.36059187710925872</v>
+        <v>0.68770802416101084</v>
       </c>
       <c r="K8" s="1">
         <f t="shared" si="1"/>
-        <v>0.30434160921959841</v>
+        <v>0.25822417546771781</v>
       </c>
       <c r="L8" s="1">
         <f t="shared" si="2"/>
-        <v>0.33506651367114287</v>
+        <v>5.4067800371271249E-2</v>
       </c>
       <c r="M8" s="1">
         <f t="shared" si="3"/>
-        <v>2.3166136062578547E-2</v>
+        <v>4.8846742292356422E-2</v>
       </c>
       <c r="N8" s="1">
         <f t="shared" si="4"/>
-        <v>0.17114027209910962</v>
+        <v>0.35099931043773164</v>
       </c>
       <c r="O8" s="1">
         <f t="shared" si="5"/>
-        <v>0.80569359183831191</v>
+        <v>0.60015394726991178</v>
       </c>
       <c r="P8" s="1">
         <f t="shared" si="6"/>
-        <v>0.64294757003601011</v>
+        <v>0.6978639635793169</v>
       </c>
       <c r="Q8" s="1">
         <f t="shared" si="7"/>
-        <v>0.24959430222059117</v>
+        <v>0.23860332512454935</v>
       </c>
       <c r="R8" s="1">
         <f t="shared" si="8"/>
-        <v>0.10745812774339869</v>
+        <v>6.3532711296133762E-2</v>
       </c>
       <c r="S8" s="1">
         <f t="shared" si="9"/>
-        <v>9.386625890823895E-2</v>
+        <v>4.5934164680530305E-2</v>
       </c>
       <c r="T8" s="1">
         <f t="shared" si="10"/>
-        <v>0.31894943630404243</v>
-      </c>
-      <c r="U8" s="2">
+        <v>0.300551841112153</v>
+      </c>
+      <c r="U8" s="1">
         <f t="shared" si="11"/>
-        <v>0.58718430478771855</v>
-      </c>
-      <c r="V8" s="1">
-        <v>7</v>
+        <v>0.6535139942073166</v>
+      </c>
+      <c r="V8" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="D9" s="1">
-        <v>0.77042805446614204</v>
+        <v>0.38671313000000002</v>
       </c>
       <c r="E9" s="1">
-        <v>0.17207628093904995</v>
+        <v>0.32067572</v>
       </c>
       <c r="F9" s="1">
-        <v>5.7495664594808073E-2</v>
+        <v>0.29261114999999999</v>
       </c>
       <c r="G9" s="1">
-        <v>4.9872385877600039E-2</v>
+        <v>1.277593E-2</v>
       </c>
       <c r="H9" s="1">
-        <v>0.25053514052341447</v>
+        <v>0.140821</v>
       </c>
       <c r="I9" s="1">
-        <v>0.69959247359898546</v>
+        <v>0.84640307000000004</v>
       </c>
       <c r="J9" s="1">
         <f t="shared" si="0"/>
-        <v>0.51936267593694252</v>
+        <v>0.6076739468672171</v>
       </c>
       <c r="K9" s="1">
         <f t="shared" si="1"/>
-        <v>0.23111056293839133</v>
+        <v>0.32090451712893703</v>
       </c>
       <c r="L9" s="1">
         <f t="shared" si="2"/>
-        <v>0.24952676112466615</v>
+        <v>7.1421536003845945E-2</v>
       </c>
       <c r="M9" s="1">
         <f t="shared" si="3"/>
-        <v>9.8700180259047744E-3</v>
+        <v>5.4614777553050761E-2</v>
       </c>
       <c r="N9" s="1">
         <f t="shared" si="4"/>
-        <v>9.8783995360299262E-2</v>
+        <v>0.38336558396544168</v>
       </c>
       <c r="O9" s="1">
         <f t="shared" si="5"/>
-        <v>0.89134598661379594</v>
+        <v>0.5620196384815076</v>
       </c>
       <c r="P9" s="1">
         <f t="shared" si="6"/>
-        <v>0.77453921311227114</v>
+        <v>0.61844561667419706</v>
       </c>
       <c r="Q9" s="1">
         <f t="shared" si="7"/>
-        <v>0.15852807425624843</v>
+        <v>0.29738539802643132</v>
       </c>
       <c r="R9" s="1">
         <f t="shared" si="8"/>
-        <v>6.6932712631480387E-2</v>
+        <v>8.4168985299371668E-2</v>
       </c>
       <c r="S9" s="1">
         <f t="shared" si="9"/>
-        <v>4.577320912742322E-2</v>
+        <v>5.1792619899495872E-2</v>
       </c>
       <c r="T9" s="1">
         <f t="shared" si="10"/>
-        <v>0.21071415822800557</v>
-      </c>
-      <c r="U9" s="2">
+        <v>0.33104249340457692</v>
+      </c>
+      <c r="U9" s="1">
         <f t="shared" si="11"/>
-        <v>0.74351263264457124</v>
-      </c>
-      <c r="V9" s="1">
-        <v>8</v>
+        <v>0.61716488669592717</v>
+      </c>
+      <c r="V9" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="D10" s="1">
-        <v>0.88781219777602394</v>
+        <v>0.30204013000000002</v>
       </c>
       <c r="E10" s="1">
-        <v>8.2014277038477787E-2</v>
+        <v>0.35333653999999998</v>
       </c>
       <c r="F10" s="1">
-        <v>3.01735251854983E-2</v>
+        <v>0.34462333000000001</v>
       </c>
       <c r="G10" s="1">
-        <v>2.7661271846380769E-2</v>
+        <v>1.4726400000000001E-2</v>
       </c>
       <c r="H10" s="1">
-        <v>0.13509647816928039</v>
+        <v>0.15850444</v>
       </c>
       <c r="I10" s="1">
-        <v>0.83724224998433872</v>
+        <v>0.82676916</v>
       </c>
       <c r="J10" s="1">
         <f t="shared" si="0"/>
-        <v>0.71283590662620455</v>
+        <v>0.52023117870878055</v>
       </c>
       <c r="K10" s="1">
         <f t="shared" si="1"/>
-        <v>0.13119523396387209</v>
+        <v>0.38756837593028998</v>
       </c>
       <c r="L10" s="1">
         <f t="shared" si="2"/>
-        <v>0.15596885940992344</v>
+        <v>9.2200445360929403E-2</v>
       </c>
       <c r="M10" s="1">
         <f t="shared" si="3"/>
-        <v>4.8640430668200427E-3</v>
+        <v>6.033177865984491E-2</v>
       </c>
       <c r="N10" s="1">
         <f t="shared" si="4"/>
-        <v>4.7329229204488531E-2</v>
+        <v>0.41354142623625306</v>
       </c>
       <c r="O10" s="1">
         <f t="shared" si="5"/>
-        <v>0.94780672772869146</v>
+        <v>0.52612679510390192</v>
       </c>
       <c r="P10" s="1">
         <f t="shared" si="6"/>
-        <v>0.88967361871867645</v>
+        <v>0.5309006819304124</v>
       </c>
       <c r="Q10" s="1">
         <f t="shared" si="7"/>
-        <v>7.5313515095830702E-2</v>
+        <v>0.36014563092996288</v>
       </c>
       <c r="R10" s="1">
         <f t="shared" si="8"/>
-        <v>3.5012866185492805E-2</v>
+        <v>0.10895368713962472</v>
       </c>
       <c r="S10" s="1">
         <f t="shared" si="9"/>
-        <v>2.4676631808459148E-2</v>
+        <v>5.7671869367282906E-2</v>
       </c>
       <c r="T10" s="1">
         <f t="shared" si="10"/>
-        <v>0.11044132686008337</v>
-      </c>
-      <c r="U10" s="2">
+        <v>0.35995634404014998</v>
+      </c>
+      <c r="U10" s="1">
         <f t="shared" si="11"/>
-        <v>0.86488204133145741</v>
-      </c>
-      <c r="V10" s="1">
-        <v>9</v>
+        <v>0.58237178659256716</v>
+      </c>
+      <c r="V10" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="D11" s="1">
-        <v>0.98809356441739271</v>
-      </c>
-      <c r="E11" s="1">
-        <v>0</v>
-      </c>
-      <c r="F11" s="1">
-        <v>1.1906435582607292E-2</v>
-      </c>
-      <c r="G11" s="1">
-        <v>1.4304855827192016E-2</v>
-      </c>
-      <c r="H11" s="1">
-        <v>0</v>
-      </c>
-      <c r="I11" s="1">
-        <v>0.98569514417280801</v>
-      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
       <c r="J11" s="1">
-        <f t="shared" si="0"/>
-        <v>0.92800883663001044</v>
+        <v>0.53899129000000001</v>
       </c>
       <c r="K11" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.44561475</v>
       </c>
       <c r="L11" s="1">
-        <f t="shared" si="2"/>
-        <v>7.1991163369989494E-2</v>
+        <v>1.539396E-2</v>
       </c>
       <c r="M11" s="1">
-        <f t="shared" si="3"/>
-        <v>2.2491560454144452E-3</v>
+        <v>0.37742616000000001</v>
       </c>
       <c r="N11" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.55303179999999996</v>
       </c>
       <c r="O11" s="1">
-        <f t="shared" si="5"/>
-        <v>0.99775084395458546</v>
-      </c>
-      <c r="P11" s="1">
-        <f t="shared" si="6"/>
-        <v>0.98623875373922376</v>
-      </c>
-      <c r="Q11" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="R11" s="1">
-        <f t="shared" si="8"/>
-        <v>1.3761246260776291E-2</v>
-      </c>
-      <c r="S11" s="1">
-        <f t="shared" si="9"/>
-        <v>1.2377694263945116E-2</v>
-      </c>
-      <c r="T11" s="1">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="U11" s="2">
-        <f t="shared" si="11"/>
-        <v>0.98762230573605481</v>
-      </c>
-      <c r="V11" s="1">
-        <v>10</v>
+        <v>0.38001184999999998</v>
+      </c>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="V12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="V13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="V14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="V15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="V16" s="1"/>
-    </row>
-    <row r="17" spans="22:22" x14ac:dyDescent="0.25">
-      <c r="V17" s="1"/>
-    </row>
-    <row r="18" spans="22:22" x14ac:dyDescent="0.25">
-      <c r="V18" s="1"/>
-    </row>
-    <row r="19" spans="22:22" x14ac:dyDescent="0.25">
-      <c r="V19" s="1"/>
-    </row>
-    <row r="20" spans="22:22" x14ac:dyDescent="0.25">
-      <c r="V20" s="1"/>
-    </row>
-    <row r="21" spans="22:22" x14ac:dyDescent="0.25">
-      <c r="V21" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+    </row>
+    <row r="17" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+    </row>
+    <row r="18" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+    </row>
+    <row r="19" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+    </row>
+    <row r="20" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+    </row>
+    <row r="23" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1378,16 +1541,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:V21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="V2" sqref="V2"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10:U20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.28515625" customWidth="1"/>
+    <col min="22" max="22" width="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
@@ -1401,40 +1565,40 @@
         <v>9</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>18</v>
@@ -1460,7 +1624,7 @@
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
@@ -1469,73 +1633,73 @@
         <v>2</v>
       </c>
       <c r="D2" s="1">
-        <v>0.91630332059816577</v>
+        <v>0.92784104000000001</v>
       </c>
       <c r="E2" s="1">
-        <v>5.7578580797605049E-2</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>2.6118098604229222E-2</v>
+        <v>7.2158959999999994E-2</v>
       </c>
       <c r="G2" s="1">
-        <v>1.5565063376383383E-2</v>
+        <v>2.2430900000000001E-3</v>
       </c>
       <c r="H2" s="1">
-        <v>0.13394287759734266</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>0.85049205902627401</v>
+        <v>0.99775691</v>
       </c>
       <c r="J2" s="1">
-        <f>(P2/$A$4)/((P2/$A$4)+(Q2/$B$4)+(R2/$C$4))</f>
-        <v>0.74101891781971763</v>
+        <f>(P2/$A$6)/((P2/$A$6)+(Q2/$B$6)+(R2/$C$6))</f>
+        <v>0.98806401170738245</v>
       </c>
       <c r="K2" s="1">
-        <f>(Q2/$B$4)/((P2/$A$4)+(Q2/$B$4)+(R2/$C$4))</f>
-        <v>0.10503079540279081</v>
+        <f>(Q2/$B$6)/((P2/$A$6)+(Q2/$B$6)+(R2/$C$6))</f>
+        <v>0</v>
       </c>
       <c r="L2" s="1">
-        <f>(R2/$C$4)/((P2/$A$4)+(Q2/$B$4)+(R2/$C$4))</f>
-        <v>0.15395028677749156</v>
+        <f>(R2/$C$6)/((P2/$A$6)+(Q2/$B$6)+(R2/$C$6))</f>
+        <v>1.193598829261755E-2</v>
       </c>
       <c r="M2" s="1">
-        <f>(S2/$A$4)/((S2/$A$4)+(T2/$B$4)+(U2/$C$4))</f>
-        <v>2.3885054360388296E-3</v>
+        <f>(S2/$A$6)/((S2/$A$6)+(T2/$B$6)+(U2/$C$6))</f>
+        <v>1.4266740099013756E-2</v>
       </c>
       <c r="N2" s="1">
-        <f>(T2/$B$4)/((S2/$A$4)+(T2/$B$4)+(U2/$C$4))</f>
-        <v>4.6361836275902089E-2</v>
+        <f>(T2/$B$6)/((S2/$A$6)+(T2/$B$6)+(U2/$C$6))</f>
+        <v>0</v>
       </c>
       <c r="O2" s="1">
-        <f>(U2/$C$4)/((S2/$A$4)+(T2/$B$4)+(U2/$C$4))</f>
-        <v>0.95124965828805907</v>
+        <f>(U2/$C$6)/((S2/$A$6)+(T2/$B$6)+(U2/$C$6))</f>
+        <v>0.98573325990098615</v>
       </c>
       <c r="P2" s="1">
-        <f>(D2*$A$6)/((D2*$A$6)+(E2*$B$6)+(F2*$C$6))</f>
-        <v>0.9187525217734871</v>
+        <f>(D2*$A$4)/((D2*$A$4)+(E2*$B$4)+(F2*$C$4))</f>
+        <v>0.9862046615192448</v>
       </c>
       <c r="Q2" s="1">
-        <f>(E2*$B$6)/((D2*$A$6)+(E2*$B$6)+(F2*$C$6))</f>
-        <v>5.1645044734814606E-2</v>
+        <f>(E2*$B$4)/((D2*$A$4)+(E2*$B$4)+(F2*$C$4))</f>
+        <v>0</v>
       </c>
       <c r="R2" s="1">
-        <f>(F2*$C$6)/((D2*$A$6)+(E2*$B$6)+(F2*$C$6))</f>
-        <v>2.9602433491698391E-2</v>
+        <f>(F2*$C$4)/((D2*$A$4)+(E2*$B$4)+(F2*$C$4))</f>
+        <v>1.3795338480755207E-2</v>
       </c>
       <c r="S2" s="1">
-        <f>(G2*$A$6)/((G2*$A$6)+(H2*$B$6)+(I2*$C$6))</f>
-        <v>1.4191747897765278E-2</v>
+        <f>(G2*$A$4)/((G2*$A$4)+(H2*$B$4)+(I2*$C$4))</f>
+        <v>1.2344649207526013E-2</v>
       </c>
       <c r="T2" s="1">
-        <f>(H2*$B$6)/((G2*$A$6)+(H2*$B$6)+(I2*$C$6))</f>
-        <v>0.10924788488097086</v>
+        <f>(H2*$B$4)/((G2*$A$4)+(H2*$B$4)+(I2*$C$4))</f>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <f>(I2*$C$6)/((G2*$A$6)+(H2*$B$6)+(I2*$C$6))</f>
-        <v>0.87656036722126396</v>
-      </c>
-      <c r="V2">
-        <v>1</v>
+        <f>(I2*$C$4)/((G2*$A$4)+(H2*$B$4)+(I2*$C$4))</f>
+        <v>0.98765535079247402</v>
+      </c>
+      <c r="V2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
@@ -1545,78 +1709,78 @@
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="1">
-        <v>0.86313194340329968</v>
+        <v>0.81921520000000003</v>
       </c>
       <c r="E3" s="1">
-        <v>0.10370454955587931</v>
+        <v>6.9397929999999997E-2</v>
       </c>
       <c r="F3" s="1">
-        <v>3.3163507040821008E-2</v>
+        <v>0.11138687</v>
       </c>
       <c r="G3" s="1">
-        <v>2.4796076405863055E-2</v>
+        <v>3.36754E-3</v>
       </c>
       <c r="H3" s="1">
-        <v>0.23082382655010653</v>
+        <v>2.379206E-2</v>
       </c>
       <c r="I3" s="1">
-        <v>0.7443800970440303</v>
+        <v>0.97284040000000005</v>
       </c>
       <c r="J3" s="1">
-        <f t="shared" ref="J3:J20" si="0">(P3/$A$4)/((P3/$A$4)+(Q3/$B$4)+(R3/$C$4))</f>
-        <v>0.64472104677415021</v>
+        <f t="shared" ref="J3:J20" si="0">(P3/$A$6)/((P3/$A$6)+(Q3/$B$6)+(R3/$C$6))</f>
+        <v>0.94016820396046119</v>
       </c>
       <c r="K3" s="1">
-        <f t="shared" ref="K3:K20" si="1">(Q3/$B$4)/((P3/$A$4)+(Q3/$B$4)+(R3/$C$4))</f>
-        <v>0.17472623990611727</v>
+        <f t="shared" ref="K3:K20" si="1">(Q3/$B$6)/((P3/$A$6)+(Q3/$B$6)+(R3/$C$6))</f>
+        <v>3.9975502983995534E-2</v>
       </c>
       <c r="L3" s="1">
-        <f t="shared" ref="L3:L20" si="2">(R3/$C$4)/((P3/$A$4)+(Q3/$B$4)+(R3/$C$4))</f>
-        <v>0.18055271331973255</v>
+        <f t="shared" ref="L3:L20" si="2">(R3/$C$6)/((P3/$A$6)+(Q3/$B$6)+(R3/$C$6))</f>
+        <v>1.9856293055543268E-2</v>
       </c>
       <c r="M3" s="1">
-        <f t="shared" ref="M3:M20" si="3">(S3/$A$4)/((S3/$A$4)+(T3/$B$4)+(U3/$C$4))</f>
-        <v>4.1527543374378336E-3</v>
+        <f t="shared" ref="M3:M20" si="3">(S3/$A$6)/((S3/$A$6)+(T3/$B$6)+(U3/$C$6))</f>
+        <v>2.0235049386669063E-2</v>
       </c>
       <c r="N3" s="1">
-        <f t="shared" ref="N3:N20" si="4">(T3/$B$4)/((S3/$A$4)+(T3/$B$4)+(U3/$C$4))</f>
-        <v>8.7196604652222093E-2</v>
+        <f t="shared" ref="N3:N20" si="4">(T3/$B$6)/((S3/$A$6)+(T3/$B$6)+(U3/$C$6))</f>
+        <v>7.175685810082659E-2</v>
       </c>
       <c r="O3" s="1">
-        <f t="shared" ref="O3:O20" si="5">(U3/$C$4)/((S3/$A$4)+(T3/$B$4)+(U3/$C$4))</f>
-        <v>0.9086506410103401</v>
+        <f t="shared" ref="O3:O20" si="5">(U3/$C$6)/((S3/$A$6)+(T3/$B$6)+(U3/$C$6))</f>
+        <v>0.90800809251250425</v>
       </c>
       <c r="P3" s="1">
-        <f t="shared" ref="P3:P20" si="6">(D3*$A$6)/((D3*$A$6)+(E3*$B$6)+(F3*$C$6))</f>
-        <v>0.86887590250489988</v>
+        <f t="shared" ref="P3:P20" si="6">(D3*$A$4)/((D3*$A$4)+(E3*$B$4)+(F3*$C$4))</f>
+        <v>0.9403623711616359</v>
       </c>
       <c r="Q3" s="1">
-        <f t="shared" ref="Q3:Q20" si="7">(E3*$B$6)/((D3*$A$6)+(E3*$B$6)+(F3*$C$6))</f>
-        <v>9.3387078785526698E-2</v>
+        <f t="shared" ref="Q3:Q20" si="7">(E3*$B$4)/((D3*$A$4)+(E3*$B$4)+(F3*$C$4))</f>
+        <v>3.6640169287843263E-2</v>
       </c>
       <c r="R3" s="1">
-        <f t="shared" ref="R3:R20" si="8">(F3*$C$6)/((D3*$A$6)+(E3*$B$6)+(F3*$C$6))</f>
-        <v>3.7737018709573446E-2</v>
+        <f t="shared" ref="R3:R20" si="8">(F3*$C$4)/((D3*$A$4)+(E3*$B$4)+(F3*$C$4))</f>
+        <v>2.2997459550520755E-2</v>
       </c>
       <c r="S3" s="1">
-        <f t="shared" ref="S3:S20" si="9">(G3*$A$6)/((G3*$A$6)+(H3*$B$6)+(I3*$C$6))</f>
-        <v>2.3115190704204369E-2</v>
+        <f t="shared" ref="S3:S20" si="9">(G3*$A$4)/((G3*$A$4)+(H3*$B$4)+(I3*$C$4))</f>
+        <v>1.7790233168290218E-2</v>
       </c>
       <c r="T3" s="1">
-        <f t="shared" ref="T3:T20" si="10">(H3*$B$6)/((G3*$A$6)+(H3*$B$6)+(I3*$C$6))</f>
-        <v>0.19248795978350119</v>
+        <f t="shared" ref="T3:T20" si="10">(H3*$B$4)/((G3*$A$4)+(H3*$B$4)+(I3*$C$4))</f>
+        <v>5.7811553259900013E-2</v>
       </c>
       <c r="U3" s="1">
-        <f t="shared" ref="U3:U20" si="11">(I3*$C$6)/((G3*$A$6)+(H3*$B$6)+(I3*$C$6))</f>
-        <v>0.78439684951229438</v>
-      </c>
-      <c r="V3">
-        <v>2</v>
+        <f t="shared" ref="U3:U20" si="11">(I3*$C$4)/((G3*$A$4)+(H3*$B$4)+(I3*$C$4))</f>
+        <v>0.92439821357180985</v>
+      </c>
+      <c r="V3" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>116.16</v>
+        <v>100.158</v>
       </c>
       <c r="B4" s="1">
         <v>46.067999999999998</v>
@@ -1625,73 +1789,73 @@
         <v>18.015000000000001</v>
       </c>
       <c r="D4" s="1">
-        <v>0.81723590245405886</v>
+        <v>0.71180259000000001</v>
       </c>
       <c r="E4" s="1">
-        <v>0.14303885389116888</v>
+        <v>0.13155117</v>
       </c>
       <c r="F4" s="1">
-        <v>3.9725243654772188E-2</v>
+        <v>0.15664623999999999</v>
       </c>
       <c r="G4" s="1">
-        <v>3.5840370818798546E-2</v>
+        <v>4.8643899999999997E-3</v>
       </c>
       <c r="H4" s="1">
-        <v>0.30574079422777967</v>
+        <v>4.7379940000000002E-2</v>
       </c>
       <c r="I4" s="1">
-        <v>0.65841883495342168</v>
+        <v>0.94775567000000005</v>
       </c>
       <c r="J4" s="1">
         <f t="shared" si="0"/>
-        <v>0.57172488458043302</v>
+        <v>0.88735350068656471</v>
       </c>
       <c r="K4" s="1">
         <f t="shared" si="1"/>
-        <v>0.22571443947488487</v>
+        <v>8.2313616044087157E-2</v>
       </c>
       <c r="L4" s="1">
         <f t="shared" si="2"/>
-        <v>0.20256067594468216</v>
+        <v>3.0332883269348215E-2</v>
       </c>
       <c r="M4" s="1">
         <f t="shared" si="3"/>
-        <v>6.4875561553110464E-3</v>
+        <v>2.7660433960894189E-2</v>
       </c>
       <c r="N4" s="1">
         <f t="shared" si="4"/>
-        <v>0.12483250580734696</v>
+        <v>0.13522748515535316</v>
       </c>
       <c r="O4" s="1">
         <f t="shared" si="5"/>
-        <v>0.868679938037342</v>
+        <v>0.83711208088375255</v>
       </c>
       <c r="P4" s="1">
         <f t="shared" si="6"/>
-        <v>0.82540971436393251</v>
+        <v>0.8892138354141419</v>
       </c>
       <c r="Q4" s="1">
         <f t="shared" si="7"/>
-        <v>0.12923631849902031</v>
+        <v>7.558838680845098E-2</v>
       </c>
       <c r="R4" s="1">
         <f t="shared" si="8"/>
-        <v>4.5353967137047216E-2</v>
+        <v>3.5197777777407006E-2</v>
       </c>
       <c r="S4" s="1">
         <f t="shared" si="9"/>
-        <v>3.4016724493598306E-2</v>
+        <v>2.4676578128983835E-2</v>
       </c>
       <c r="T4" s="1">
         <f t="shared" si="10"/>
-        <v>0.2595863223703665</v>
+        <v>0.11055153325882057</v>
       </c>
       <c r="U4" s="1">
         <f t="shared" si="11"/>
-        <v>0.70639695313603523</v>
-      </c>
-      <c r="V4">
-        <v>3</v>
+        <v>0.86477188861219556</v>
+      </c>
+      <c r="V4" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
@@ -1701,78 +1865,78 @@
       <c r="B5" s="6"/>
       <c r="C5" s="4"/>
       <c r="D5" s="1">
-        <v>0.77504035575049912</v>
+        <v>0.61074123999999996</v>
       </c>
       <c r="E5" s="1">
-        <v>0.17878721310888132</v>
+        <v>0.18504191</v>
       </c>
       <c r="F5" s="1">
-        <v>4.6172431140619502E-2</v>
+        <v>0.20421684000000001</v>
       </c>
       <c r="G5" s="1">
-        <v>4.8686625928361302E-2</v>
+        <v>6.8893000000000001E-3</v>
       </c>
       <c r="H5" s="1">
-        <v>0.36580034748727813</v>
+        <v>7.1631040000000007E-2</v>
       </c>
       <c r="I5" s="1">
-        <v>0.58551302658436066</v>
+        <v>0.92147966000000003</v>
       </c>
       <c r="J5" s="1">
         <f t="shared" si="0"/>
-        <v>0.51162770195431584</v>
+        <v>0.83055657956448314</v>
       </c>
       <c r="K5" s="1">
         <f t="shared" si="1"/>
-        <v>0.26621458956169486</v>
+        <v>0.12630540673094218</v>
       </c>
       <c r="L5" s="1">
         <f t="shared" si="2"/>
-        <v>0.22215770848398922</v>
+        <v>4.3138013704574638E-2</v>
       </c>
       <c r="M5" s="1">
         <f t="shared" si="3"/>
-        <v>9.4695084826480445E-3</v>
+        <v>3.7043897562205788E-2</v>
       </c>
       <c r="N5" s="1">
         <f t="shared" si="4"/>
-        <v>0.16048244642232115</v>
+        <v>0.19332263101486835</v>
       </c>
       <c r="O5" s="1">
         <f t="shared" si="5"/>
-        <v>0.83004804509503072</v>
+        <v>0.76963347142292582</v>
       </c>
       <c r="P5" s="1">
         <f t="shared" si="6"/>
-        <v>0.7851145515502268</v>
+        <v>0.83368140280944381</v>
       </c>
       <c r="Q5" s="1">
         <f t="shared" si="7"/>
-        <v>0.16201438745093344</v>
+        <v>0.11617874589518137</v>
       </c>
       <c r="R5" s="1">
         <f t="shared" si="8"/>
-        <v>5.2871060998839758E-2</v>
+        <v>5.0139851295374745E-2</v>
       </c>
       <c r="S5" s="1">
         <f t="shared" si="9"/>
-        <v>4.6914586171865807E-2</v>
+        <v>3.3511704628804373E-2</v>
       </c>
       <c r="T5" s="1">
         <f t="shared" si="10"/>
-        <v>0.31531943767752357</v>
+        <v>0.16026415339966416</v>
       </c>
       <c r="U5" s="1">
         <f t="shared" si="11"/>
-        <v>0.63776597615061059</v>
-      </c>
-      <c r="V5">
-        <v>4</v>
+        <v>0.80622414197153136</v>
+      </c>
+      <c r="V5" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>0.88200000000000001</v>
+        <v>0.86099999999999999</v>
       </c>
       <c r="B6" s="1">
         <v>0.78900000000000003</v>
@@ -1781,713 +1945,407 @@
         <v>0.997</v>
       </c>
       <c r="D6" s="1">
-        <v>0.73425915929782293</v>
+        <v>0.52147770000000004</v>
       </c>
       <c r="E6" s="1">
-        <v>0.21292920297963969</v>
+        <v>0.22975391000000001</v>
       </c>
       <c r="F6" s="1">
-        <v>5.2811637722537288E-2</v>
+        <v>0.2487684</v>
       </c>
       <c r="G6" s="1">
-        <v>6.3323823991524794E-2</v>
+        <v>9.7469400000000008E-3</v>
       </c>
       <c r="H6" s="1">
-        <v>0.41456458241568983</v>
+        <v>9.7743029999999995E-2</v>
       </c>
       <c r="I6" s="1">
-        <v>0.52211159359278536</v>
+        <v>0.89251002999999995</v>
       </c>
       <c r="J6" s="1">
         <f t="shared" si="0"/>
-        <v>0.45906307032119381</v>
+        <v>0.77205798666959058</v>
       </c>
       <c r="K6" s="1">
         <f t="shared" si="1"/>
-        <v>0.30027824992947616</v>
+        <v>0.17073279586369783</v>
       </c>
       <c r="L6" s="1">
         <f t="shared" si="2"/>
-        <v>0.24065867974933003</v>
+        <v>5.7209217466711627E-2</v>
       </c>
       <c r="M6" s="1">
         <f t="shared" si="3"/>
-        <v>1.3181676432436744E-2</v>
+        <v>4.9366413169605473E-2</v>
       </c>
       <c r="N6" s="1">
         <f t="shared" si="4"/>
-        <v>0.19465312180935435</v>
+        <v>0.24847857146137961</v>
       </c>
       <c r="O6" s="1">
         <f t="shared" si="5"/>
-        <v>0.79216520175820893</v>
+        <v>0.70215501536901492</v>
       </c>
       <c r="P6" s="1">
         <f t="shared" si="6"/>
-        <v>0.74586924627754048</v>
+        <v>0.77612548612130294</v>
       </c>
       <c r="Q6" s="1">
         <f t="shared" si="7"/>
-        <v>0.19348930939062362</v>
+        <v>0.15727975679243636</v>
       </c>
       <c r="R6" s="1">
         <f t="shared" si="8"/>
-        <v>6.064144433183595E-2</v>
+        <v>6.659475708626067E-2</v>
       </c>
       <c r="S6" s="1">
         <f t="shared" si="9"/>
-        <v>6.1817746931925918E-2</v>
+        <v>4.5284852832712344E-2</v>
       </c>
       <c r="T6" s="1">
         <f t="shared" si="10"/>
-        <v>0.36203174486648915</v>
+        <v>0.20887390219532315</v>
       </c>
       <c r="U6" s="1">
         <f t="shared" si="11"/>
-        <v>0.57615050820158487</v>
-      </c>
-      <c r="V6">
-        <v>5</v>
+        <v>0.74584124497196458</v>
+      </c>
+      <c r="V6" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="D7" s="1">
-        <v>0.69349185527896717</v>
+        <v>0.44495261000000003</v>
       </c>
       <c r="E7" s="1">
-        <v>0.24661227519925408</v>
+        <v>0.26654158999999999</v>
       </c>
       <c r="F7" s="1">
-        <v>5.9895869521778826E-2</v>
+        <v>0.28850579999999998</v>
       </c>
       <c r="G7" s="1">
-        <v>7.9698387700414361E-2</v>
+        <v>1.396858E-2</v>
       </c>
       <c r="H7" s="1">
-        <v>0.45396069198328282</v>
+        <v>0.12685300999999999</v>
       </c>
       <c r="I7" s="1">
-        <v>0.46634092031630275</v>
+        <v>0.85917840999999995</v>
       </c>
       <c r="J7" s="1">
         <f t="shared" si="0"/>
-        <v>0.41124645051652575</v>
+        <v>0.71357904719535425</v>
       </c>
       <c r="K7" s="1">
         <f t="shared" si="1"/>
-        <v>0.32986873187895555</v>
+        <v>0.21455230147395279</v>
       </c>
       <c r="L7" s="1">
         <f t="shared" si="2"/>
-        <v>0.25888481760451865</v>
+        <v>7.1868651330692909E-2</v>
       </c>
       <c r="M7" s="1">
         <f t="shared" si="3"/>
-        <v>1.7700248684339091E-2</v>
+        <v>6.6171693588617492E-2</v>
       </c>
       <c r="N7" s="1">
         <f t="shared" si="4"/>
-        <v>0.22741219237985502</v>
+        <v>0.30162034337024485</v>
       </c>
       <c r="O7" s="1">
         <f t="shared" si="5"/>
-        <v>0.75488755893580584</v>
+        <v>0.63220796304113769</v>
       </c>
       <c r="P7" s="1">
         <f t="shared" si="6"/>
-        <v>0.70634290480662298</v>
+        <v>0.71831242500659098</v>
       </c>
       <c r="Q7" s="1">
         <f t="shared" si="7"/>
-        <v>0.22469702904447245</v>
+        <v>0.19791482132113272</v>
       </c>
       <c r="R7" s="1">
         <f t="shared" si="8"/>
-        <v>6.8960066148904528E-2</v>
+        <v>8.3772753672276296E-2</v>
       </c>
       <c r="S7" s="1">
         <f t="shared" si="9"/>
-        <v>7.8680460449256875E-2</v>
+        <v>6.1575779114172412E-2</v>
       </c>
       <c r="T7" s="1">
         <f t="shared" si="10"/>
-        <v>0.40090735563780111</v>
+        <v>0.257200700670565</v>
       </c>
       <c r="U7" s="1">
         <f t="shared" si="11"/>
-        <v>0.52041218391294197</v>
-      </c>
-      <c r="V7">
-        <v>6</v>
+        <v>0.68122352021526267</v>
+      </c>
+      <c r="V7" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="D8" s="1">
-        <v>0.65198138357245661</v>
+        <v>0.37876819</v>
       </c>
       <c r="E8" s="1">
-        <v>0.28038003042237963</v>
+        <v>0.29631084000000002</v>
       </c>
       <c r="F8" s="1">
-        <v>6.7638586005163856E-2</v>
+        <v>0.32492098000000003</v>
       </c>
       <c r="G8" s="1">
-        <v>9.7771820173435525E-2</v>
+        <v>2.0463930000000002E-2</v>
       </c>
       <c r="H8" s="1">
-        <v>0.48521263371485984</v>
+        <v>0.15983748</v>
       </c>
       <c r="I8" s="1">
-        <v>0.41701554611170455</v>
+        <v>0.81969859</v>
       </c>
       <c r="J8" s="1">
         <f t="shared" si="0"/>
-        <v>0.36681586128321081</v>
+        <v>0.65534855300337369</v>
       </c>
       <c r="K8" s="1">
         <f t="shared" si="1"/>
-        <v>0.35581614741494649</v>
+        <v>0.25732752831865674</v>
       </c>
       <c r="L8" s="1">
         <f t="shared" si="2"/>
-        <v>0.27736799130184275</v>
+        <v>8.7323918677969459E-2</v>
       </c>
       <c r="M8" s="1">
         <f t="shared" si="3"/>
-        <v>2.3104513420003171E-2</v>
+        <v>8.9748291085025314E-2</v>
       </c>
       <c r="N8" s="1">
         <f t="shared" si="4"/>
-        <v>0.25863118516524458</v>
+        <v>0.35184844238006163</v>
       </c>
       <c r="O8" s="1">
         <f t="shared" si="5"/>
-        <v>0.71826430141475228</v>
+        <v>0.55840326653491301</v>
       </c>
       <c r="P8" s="1">
         <f t="shared" si="6"/>
-        <v>0.66579312258106682</v>
+        <v>0.66045076845595163</v>
       </c>
       <c r="Q8" s="1">
         <f t="shared" si="7"/>
-        <v>0.25612950259905959</v>
+        <v>0.23764473953964052</v>
       </c>
       <c r="R8" s="1">
         <f t="shared" si="8"/>
-        <v>7.8077374819873618E-2</v>
+        <v>0.10190449200440782</v>
       </c>
       <c r="S8" s="1">
         <f t="shared" si="9"/>
-        <v>9.745888952810379E-2</v>
+        <v>8.4765743325943818E-2</v>
       </c>
       <c r="T8" s="1">
         <f t="shared" si="10"/>
-        <v>0.43266152493785393</v>
+        <v>0.30452550457002253</v>
       </c>
       <c r="U8" s="1">
         <f t="shared" si="11"/>
-        <v>0.46987958553404241</v>
-      </c>
-      <c r="V8">
-        <v>7</v>
+        <v>0.61070875210403364</v>
+      </c>
+      <c r="V8" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="D9" s="1">
-        <v>0.70722994569794817</v>
+        <v>0.31902512</v>
       </c>
       <c r="E9" s="1">
-        <v>0.23531531436580308</v>
+        <v>0.31964988999999999</v>
       </c>
       <c r="F9" s="1">
-        <v>5.7454739936248785E-2</v>
+        <v>0.36132499000000001</v>
       </c>
       <c r="G9" s="1">
-        <v>7.4011977961443889E-2</v>
+        <v>3.0806070000000001E-2</v>
       </c>
       <c r="H9" s="1">
-        <v>0.44169876177304834</v>
+        <v>0.19729917</v>
       </c>
       <c r="I9" s="1">
-        <v>0.48428926026550767</v>
+        <v>0.77189476000000001</v>
       </c>
       <c r="J9" s="1">
         <f t="shared" si="0"/>
-        <v>0.42686996014789164</v>
+        <v>0.59565113833697081</v>
       </c>
       <c r="K9" s="1">
         <f t="shared" si="1"/>
-        <v>0.32036923742748913</v>
+        <v>0.29955841040509779</v>
       </c>
       <c r="L9" s="1">
         <f t="shared" si="2"/>
-        <v>0.25276080242461924</v>
+        <v>0.10479045125793157</v>
       </c>
       <c r="M9" s="1">
         <f t="shared" si="3"/>
-        <v>1.6089051267004634E-2</v>
+        <v>0.12335530475728838</v>
       </c>
       <c r="N9" s="1">
         <f t="shared" si="4"/>
-        <v>0.21658095768933586</v>
+        <v>0.39653968162021019</v>
       </c>
       <c r="O9" s="1">
         <f t="shared" si="5"/>
-        <v>0.76732999104365962</v>
+        <v>0.48010501362250146</v>
       </c>
       <c r="P9" s="1">
         <f t="shared" si="6"/>
-        <v>0.71969571948585109</v>
+        <v>0.60075631398452412</v>
       </c>
       <c r="Q9" s="1">
         <f t="shared" si="7"/>
-        <v>0.21421352528722395</v>
+        <v>0.27686097053365305</v>
       </c>
       <c r="R9" s="1">
         <f t="shared" si="8"/>
-        <v>6.6090755226924994E-2</v>
+        <v>0.12238271548182279</v>
       </c>
       <c r="S9" s="1">
         <f t="shared" si="9"/>
-        <v>7.2805545490768855E-2</v>
+        <v>0.11830653888946652</v>
       </c>
       <c r="T9" s="1">
         <f t="shared" si="10"/>
-        <v>0.3886843452028258</v>
+        <v>0.34850693434642493</v>
       </c>
       <c r="U9" s="1">
         <f t="shared" si="11"/>
-        <v>0.53851010930640542</v>
-      </c>
-      <c r="V9">
-        <v>8</v>
+        <v>0.5331865267641086</v>
+      </c>
+      <c r="V9" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="D10" s="1">
-        <v>0.81233905405587492</v>
-      </c>
-      <c r="E10" s="1">
-        <v>0.14720941644095578</v>
-      </c>
-      <c r="F10" s="1">
-        <v>4.0451529503169263E-2</v>
-      </c>
-      <c r="G10" s="1">
-        <v>3.720354245473613E-2</v>
-      </c>
-      <c r="H10" s="1">
-        <v>0.31319043282892861</v>
-      </c>
-      <c r="I10" s="1">
-        <v>0.64960602471633522</v>
-      </c>
-      <c r="J10" s="1">
-        <f t="shared" si="0"/>
-        <v>0.56442787163120056</v>
-      </c>
-      <c r="K10" s="1">
-        <f t="shared" si="1"/>
-        <v>0.23071316269191691</v>
-      </c>
-      <c r="L10" s="1">
-        <f t="shared" si="2"/>
-        <v>0.20485896567688255</v>
-      </c>
-      <c r="M10" s="1">
-        <f t="shared" si="3"/>
-        <v>6.7909349504585437E-3</v>
-      </c>
-      <c r="N10" s="1">
-        <f t="shared" si="4"/>
-        <v>0.12894942980811847</v>
-      </c>
-      <c r="O10" s="1">
-        <f t="shared" si="5"/>
-        <v>0.86425963524142302</v>
-      </c>
-      <c r="P10" s="1">
-        <f t="shared" si="6"/>
-        <v>0.82074992606236774</v>
-      </c>
-      <c r="Q10" s="1">
-        <f t="shared" si="7"/>
-        <v>0.13305081175132419</v>
-      </c>
-      <c r="R10" s="1">
-        <f t="shared" si="8"/>
-        <v>4.6199262186308168E-2</v>
-      </c>
-      <c r="S10" s="1">
-        <f t="shared" si="9"/>
-        <v>3.5375488703903828E-2</v>
-      </c>
-      <c r="T10" s="1">
-        <f t="shared" si="10"/>
-        <v>0.26640051417805</v>
-      </c>
-      <c r="U10" s="1">
-        <f t="shared" si="11"/>
-        <v>0.69822399711804617</v>
-      </c>
-      <c r="V10">
-        <v>9</v>
-      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="D11" s="1">
-        <v>0.90152950891582251</v>
-      </c>
-      <c r="E11" s="1">
-        <v>7.0453784219269899E-2</v>
-      </c>
-      <c r="F11" s="1">
-        <v>2.8016706864907547E-2</v>
-      </c>
-      <c r="G11" s="1">
-        <v>1.7786953279794428E-2</v>
-      </c>
-      <c r="H11" s="1">
-        <v>0.16186120635986129</v>
-      </c>
-      <c r="I11" s="1">
-        <v>0.82035184036034436</v>
-      </c>
-      <c r="J11" s="1">
-        <f t="shared" si="0"/>
-        <v>0.71286811018121821</v>
-      </c>
-      <c r="K11" s="1">
-        <f t="shared" si="1"/>
-        <v>0.12566062884944659</v>
-      </c>
-      <c r="L11" s="1">
-        <f t="shared" si="2"/>
-        <v>0.16147126096933534</v>
-      </c>
-      <c r="M11" s="1">
-        <f t="shared" si="3"/>
-        <v>2.7957384072322031E-3</v>
-      </c>
-      <c r="N11" s="1">
-        <f t="shared" si="4"/>
-        <v>5.7385663129476468E-2</v>
-      </c>
-      <c r="O11" s="1">
-        <f t="shared" si="5"/>
-        <v>0.93981859846329141</v>
-      </c>
-      <c r="P11" s="1">
-        <f t="shared" si="6"/>
-        <v>0.90494643134575148</v>
-      </c>
-      <c r="Q11" s="1">
-        <f t="shared" si="7"/>
-        <v>6.3263857311115765E-2</v>
-      </c>
-      <c r="R11" s="1">
-        <f t="shared" si="8"/>
-        <v>3.1789711343132791E-2</v>
-      </c>
-      <c r="S11" s="1">
-        <f t="shared" si="9"/>
-        <v>1.6319878208485218E-2</v>
-      </c>
-      <c r="T11" s="1">
-        <f t="shared" si="10"/>
-        <v>0.13285152377587417</v>
-      </c>
-      <c r="U11" s="1">
-        <f t="shared" si="11"/>
-        <v>0.85082859801564059</v>
-      </c>
-      <c r="V11">
-        <v>10</v>
-      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="D12" s="1">
-        <v>0.98176420536731823</v>
-      </c>
-      <c r="E12" s="1">
-        <v>0</v>
-      </c>
-      <c r="F12" s="1">
-        <v>1.8235794632681795E-2</v>
-      </c>
-      <c r="G12" s="1">
-        <v>8.2366883683943123E-3</v>
-      </c>
-      <c r="H12" s="1">
-        <v>0</v>
-      </c>
-      <c r="I12" s="1">
-        <v>0.99176331163160569</v>
-      </c>
-      <c r="J12" s="1">
-        <f t="shared" si="0"/>
-        <v>0.8807595104929179</v>
-      </c>
-      <c r="K12" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L12" s="1">
-        <f t="shared" si="2"/>
-        <v>0.11924048950708215</v>
-      </c>
-      <c r="M12" s="1">
-        <f t="shared" si="3"/>
-        <v>1.138154214536952E-3</v>
-      </c>
-      <c r="N12" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="O12" s="1">
-        <f t="shared" si="5"/>
-        <v>0.998861845785463</v>
-      </c>
-      <c r="P12" s="1">
-        <f t="shared" si="6"/>
-        <v>0.979435418449083</v>
-      </c>
-      <c r="Q12" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="R12" s="1">
-        <f t="shared" si="8"/>
-        <v>2.0564581550916949E-2</v>
-      </c>
-      <c r="S12" s="1">
-        <f t="shared" si="9"/>
-        <v>7.2935483748305533E-3</v>
-      </c>
-      <c r="T12" s="1">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="U12" s="1">
-        <f t="shared" si="11"/>
-        <v>0.99270645162516935</v>
-      </c>
-      <c r="V12">
-        <v>11</v>
-      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="D13" s="1">
-        <v>0.71986722235299105</v>
-      </c>
-      <c r="E13" s="1">
-        <v>0.22487469643782554</v>
-      </c>
-      <c r="F13" s="1">
-        <v>5.5258081209183338E-2</v>
-      </c>
-      <c r="G13" s="1">
-        <v>6.8928145752320077E-2</v>
-      </c>
-      <c r="H13" s="1">
-        <v>0.4295204953670278</v>
-      </c>
-      <c r="I13" s="1">
-        <v>0.50155135888065216</v>
-      </c>
-      <c r="J13" s="1">
-        <f t="shared" si="0"/>
-        <v>0.44167500998226678</v>
-      </c>
-      <c r="K13" s="1">
-        <f t="shared" si="1"/>
-        <v>0.31121224865408292</v>
-      </c>
-      <c r="L13" s="1">
-        <f t="shared" si="2"/>
-        <v>0.24711274136365027</v>
-      </c>
-      <c r="M13" s="1">
-        <f t="shared" si="3"/>
-        <v>1.4686154359445727E-2</v>
-      </c>
-      <c r="N13" s="1">
-        <f t="shared" si="4"/>
-        <v>0.206424408130638</v>
-      </c>
-      <c r="O13" s="1">
-        <f t="shared" si="5"/>
-        <v>0.77888943750991624</v>
-      </c>
-      <c r="P13" s="1">
-        <f t="shared" si="6"/>
-        <v>0.73194908551795812</v>
-      </c>
-      <c r="Q13" s="1">
-        <f t="shared" si="7"/>
-        <v>0.20453963723829979</v>
-      </c>
-      <c r="R13" s="1">
-        <f t="shared" si="8"/>
-        <v>6.3511277243742031E-2</v>
-      </c>
-      <c r="S13" s="1">
-        <f t="shared" si="9"/>
-        <v>6.7569628478546057E-2</v>
-      </c>
-      <c r="T13" s="1">
-        <f t="shared" si="10"/>
-        <v>0.37665804273984249</v>
-      </c>
-      <c r="U13" s="1">
-        <f t="shared" si="11"/>
-        <v>0.55577232878161142</v>
-      </c>
-      <c r="V13">
-        <v>12</v>
-      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="D14" s="1">
-        <v>0.63469779808762639</v>
-      </c>
-      <c r="E14" s="1">
-        <v>0.29426143633465873</v>
-      </c>
-      <c r="F14" s="1">
-        <v>7.1040765577714757E-2</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0.10565811567306758</v>
-      </c>
-      <c r="H14" s="1">
-        <v>0.49586796856036347</v>
-      </c>
-      <c r="I14" s="1">
-        <v>0.39847391576656904</v>
-      </c>
-      <c r="J14" s="1">
-        <f t="shared" si="0"/>
-        <v>0.34945839434409653</v>
-      </c>
-      <c r="K14" s="1">
-        <f t="shared" si="1"/>
-        <v>0.36544960705009566</v>
-      </c>
-      <c r="L14" s="1">
-        <f t="shared" si="2"/>
-        <v>0.28509199860580775</v>
-      </c>
-      <c r="M14" s="1">
-        <f t="shared" si="3"/>
-        <v>2.5592397730948648E-2</v>
-      </c>
-      <c r="N14" s="1">
-        <f t="shared" si="4"/>
-        <v>0.27091923077151592</v>
-      </c>
-      <c r="O14" s="1">
-        <f t="shared" si="5"/>
-        <v>0.70348837149753551</v>
-      </c>
-      <c r="P14" s="1">
-        <f t="shared" si="6"/>
-        <v>0.64881927271337758</v>
-      </c>
-      <c r="Q14" s="1">
-        <f t="shared" si="7"/>
-        <v>0.26909059484466208</v>
-      </c>
-      <c r="R14" s="1">
-        <f t="shared" si="8"/>
-        <v>8.2090132441960298E-2</v>
-      </c>
-      <c r="S14" s="1">
-        <f t="shared" si="9"/>
-        <v>0.10569301363232991</v>
-      </c>
-      <c r="T14" s="1">
-        <f t="shared" si="10"/>
-        <v>0.44372908199085143</v>
-      </c>
-      <c r="U14" s="1">
-        <f t="shared" si="11"/>
-        <v>0.45057790437681872</v>
-      </c>
-      <c r="V14">
-        <v>13</v>
-      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="D15" s="1">
-        <v>0.51063830012425393</v>
-      </c>
-      <c r="E15" s="1">
-        <v>0.38985243292603733</v>
-      </c>
-      <c r="F15" s="1">
-        <v>9.9509266949708783E-2</v>
-      </c>
-      <c r="G15" s="1">
-        <v>0.16879771617945485</v>
-      </c>
-      <c r="H15" s="1">
-        <v>0.53989125382944458</v>
-      </c>
-      <c r="I15" s="1">
-        <v>0.29131102999110059</v>
-      </c>
-      <c r="J15" s="1">
-        <f t="shared" si="0"/>
-        <v>0.24140368344686658</v>
-      </c>
-      <c r="K15" s="1">
-        <f t="shared" si="1"/>
-        <v>0.41571569274749504</v>
-      </c>
-      <c r="L15" s="1">
-        <f t="shared" si="2"/>
-        <v>0.34288062380563838</v>
-      </c>
-      <c r="M15" s="1">
-        <f t="shared" si="3"/>
-        <v>4.8092442945417022E-2</v>
-      </c>
-      <c r="N15" s="1">
-        <f t="shared" si="4"/>
-        <v>0.34696225149373233</v>
-      </c>
-      <c r="O15" s="1">
-        <f t="shared" si="5"/>
-        <v>0.60494530556085069</v>
-      </c>
-      <c r="P15" s="1">
-        <f t="shared" si="6"/>
-        <v>0.52541957429787978</v>
-      </c>
-      <c r="Q15" s="1">
-        <f t="shared" si="7"/>
-        <v>0.35884056304735523</v>
-      </c>
-      <c r="R15" s="1">
-        <f t="shared" si="8"/>
-        <v>0.11573986265476496</v>
-      </c>
-      <c r="S15" s="1">
-        <f t="shared" si="9"/>
-        <v>0.17205726859527914</v>
-      </c>
-      <c r="T15" s="1">
-        <f t="shared" si="10"/>
-        <v>0.49229017456444313</v>
-      </c>
-      <c r="U15" s="1">
-        <f t="shared" si="11"/>
-        <v>0.33565255684027767</v>
-      </c>
-      <c r="V15">
-        <v>14</v>
-      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="D16" s="1"/>
@@ -2496,298 +2354,1183 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
-      <c r="J16" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K16" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L16" s="1" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M16" s="1" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N16" s="1" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O16" s="1" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P16" s="1" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q16" s="1" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R16" s="1" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S16" s="1" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T16" s="1" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U16" s="1" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V16">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+    </row>
+    <row r="17" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
-      <c r="J17" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K17" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L17" s="1" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M17" s="1" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N17" s="1" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O17" s="1" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P17" s="1" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q17" s="1" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R17" s="1" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S17" s="1" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T17" s="1" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U17" s="1" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V17">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+    </row>
+    <row r="18" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
-      <c r="J18" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K18" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L18" s="1" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M18" s="1" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N18" s="1" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O18" s="1" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P18" s="1" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q18" s="1" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R18" s="1" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S18" s="1" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T18" s="1" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U18" s="1" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V18">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+    </row>
+    <row r="19" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
-      <c r="J19" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K19" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L19" s="1" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M19" s="1" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N19" s="1" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O19" s="1" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P19" s="1" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q19" s="1" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R19" s="1" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S19" s="1" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T19" s="1" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U19" s="1" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V19">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+    </row>
+    <row r="20" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
-      <c r="J20" s="1" t="e">
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+    </row>
+    <row r="23" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A5:C5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.28515625" customWidth="1"/>
+    <col min="22" max="22" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.88095469000000004</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0.11904531</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1.1402300000000001E-3</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0.99885977000000004</v>
+      </c>
+      <c r="J2" s="1">
+        <f>(P2/$A$6)/((P2/$A$6)+(Q2/$B$6)+(R2/$C$6))</f>
+        <v>0.98179747159048147</v>
+      </c>
+      <c r="K2" s="1">
+        <f>(Q2/$B$6)/((P2/$A$6)+(Q2/$B$6)+(R2/$C$6))</f>
+        <v>0</v>
+      </c>
+      <c r="L2" s="1">
+        <f>(R2/$C$6)/((P2/$A$6)+(Q2/$B$6)+(R2/$C$6))</f>
+        <v>1.8202528409518498E-2</v>
+      </c>
+      <c r="M2" s="1">
+        <f>(S2/$A$6)/((S2/$A$6)+(T2/$B$6)+(U2/$C$6))</f>
+        <v>8.2516036334424198E-3</v>
+      </c>
+      <c r="N2" s="1">
+        <f>(T2/$B$6)/((S2/$A$6)+(T2/$B$6)+(U2/$C$6))</f>
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <f>(U2/$C$6)/((S2/$A$6)+(T2/$B$6)+(U2/$C$6))</f>
+        <v>0.99174839636655754</v>
+      </c>
+      <c r="P2" s="1">
+        <f>(D2*$A$4)/((D2*$A$4)+(E2*$B$4)+(F2*$C$4))</f>
+        <v>0.97947284408352009</v>
+      </c>
+      <c r="Q2" s="1">
+        <f>(E2*$B$4)/((D2*$A$4)+(E2*$B$4)+(F2*$C$4))</f>
+        <v>0</v>
+      </c>
+      <c r="R2" s="1">
+        <f>(F2*$C$4)/((D2*$A$4)+(E2*$B$4)+(F2*$C$4))</f>
+        <v>2.0527155916479887E-2</v>
+      </c>
+      <c r="S2" s="1">
+        <f>(G2*$A$4)/((G2*$A$4)+(H2*$B$4)+(I2*$C$4))</f>
+        <v>7.306768353731492E-3</v>
+      </c>
+      <c r="T2" s="1">
+        <f>(H2*$B$4)/((G2*$A$4)+(H2*$B$4)+(I2*$C$4))</f>
+        <v>0</v>
+      </c>
+      <c r="U2" s="1">
+        <f>(I2*$C$4)/((G2*$A$4)+(H2*$B$4)+(I2*$C$4))</f>
+        <v>0.99269323164626855</v>
+      </c>
+      <c r="V2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="1">
+        <v>0.79347201999999994</v>
+      </c>
+      <c r="E3" s="1">
+        <v>6.6161800000000007E-2</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.14036618000000001</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1.80411E-3</v>
+      </c>
+      <c r="H3" s="1">
+        <v>2.758824E-2</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0.97060765000000004</v>
+      </c>
+      <c r="J3" s="1">
+        <f t="shared" ref="J3:J20" si="0">(P3/$A$6)/((P3/$A$6)+(Q3/$B$6)+(R3/$C$6))</f>
+        <v>0.94229629540224735</v>
+      </c>
+      <c r="K3" s="1">
+        <f t="shared" ref="K3:K20" si="1">(Q3/$B$6)/((P3/$A$6)+(Q3/$B$6)+(R3/$C$6))</f>
+        <v>3.4833532238821165E-2</v>
+      </c>
+      <c r="L3" s="1">
+        <f t="shared" ref="L3:L20" si="2">(R3/$C$6)/((P3/$A$6)+(Q3/$B$6)+(R3/$C$6))</f>
+        <v>2.2870172358931594E-2</v>
+      </c>
+      <c r="M3" s="1">
+        <f t="shared" ref="M3:M20" si="3">(S3/$A$6)/((S3/$A$6)+(T3/$B$6)+(U3/$C$6))</f>
+        <v>1.2256061271845434E-2</v>
+      </c>
+      <c r="N3" s="1">
+        <f t="shared" ref="N3:N20" si="4">(T3/$B$6)/((S3/$A$6)+(T3/$B$6)+(U3/$C$6))</f>
+        <v>8.3089518420818922E-2</v>
+      </c>
+      <c r="O3" s="1">
+        <f t="shared" ref="O3:O20" si="5">(U3/$C$6)/((S3/$A$6)+(T3/$B$6)+(U3/$C$6))</f>
+        <v>0.90465442030733567</v>
+      </c>
+      <c r="P3" s="1">
+        <f t="shared" ref="P3:P10" si="6">(D3*$A$4)/((D3*$A$4)+(E3*$B$4)+(F3*$C$4))</f>
+        <v>0.94294785812849824</v>
+      </c>
+      <c r="Q3" s="1">
+        <f t="shared" ref="Q3:Q10" si="7">(E3*$B$4)/((D3*$A$4)+(E3*$B$4)+(F3*$C$4))</f>
+        <v>3.11821551696621E-2</v>
+      </c>
+      <c r="R3" s="1">
+        <f t="shared" ref="R3:R10" si="8">(F3*$C$4)/((D3*$A$4)+(E3*$B$4)+(F3*$C$4))</f>
+        <v>2.5869986701839584E-2</v>
+      </c>
+      <c r="S3" s="1">
+        <f t="shared" ref="S3:S10" si="9">(G3*$A$4)/((G3*$A$4)+(H3*$B$4)+(I3*$C$4))</f>
+        <v>1.1049533256127992E-2</v>
+      </c>
+      <c r="T3" s="1">
+        <f t="shared" ref="T3:T10" si="10">(H3*$B$4)/((G3*$A$4)+(H3*$B$4)+(I3*$C$4))</f>
+        <v>6.7011242385414505E-2</v>
+      </c>
+      <c r="U3" s="1">
+        <f t="shared" ref="U3:U10" si="11">(I3*$C$4)/((G3*$A$4)+(H3*$B$4)+(I3*$C$4))</f>
+        <v>0.92193922435845743</v>
+      </c>
+      <c r="V3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>116.16</v>
+      </c>
+      <c r="B4" s="1">
+        <v>46.067999999999998</v>
+      </c>
+      <c r="C4" s="2">
+        <v>18.015000000000001</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.71568531000000002</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.12359821999999999</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.16071647999999999</v>
+      </c>
+      <c r="G4" s="1">
+        <v>2.7669700000000001E-3</v>
+      </c>
+      <c r="H4" s="1">
+        <v>5.6356360000000001E-2</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0.94087666999999997</v>
+      </c>
+      <c r="J4" s="1">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K20" s="1" t="e">
+        <v>0.90303743227047484</v>
+      </c>
+      <c r="K4" s="1">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L20" s="1" t="e">
+        <v>6.9140131756137702E-2</v>
+      </c>
+      <c r="L4" s="1">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M20" s="1" t="e">
+        <v>2.7822435973387353E-2</v>
+      </c>
+      <c r="M4" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N20" s="1" t="e">
+        <v>1.7642078311923281E-2</v>
+      </c>
+      <c r="N4" s="1">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O20" s="1" t="e">
+        <v>0.15930249086677711</v>
+      </c>
+      <c r="O4" s="1">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P20" s="1" t="e">
+        <v>0.82305543082129951</v>
+      </c>
+      <c r="P4" s="1">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q20" s="1" t="e">
+        <v>0.90635709576049373</v>
+      </c>
+      <c r="Q4" s="1">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R20" s="1" t="e">
+        <v>6.2077212492139384E-2</v>
+      </c>
+      <c r="R4" s="1">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S20" s="1" t="e">
+        <v>3.1565691747366793E-2</v>
+      </c>
+      <c r="S4" s="1">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T20" s="1" t="e">
+        <v>1.6177715475038275E-2</v>
+      </c>
+      <c r="T4" s="1">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U20" s="1" t="e">
+        <v>0.13067678227192767</v>
+      </c>
+      <c r="U4" s="1">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V20">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="4:22" x14ac:dyDescent="0.25">
-      <c r="V21">
-        <v>20</v>
-      </c>
+        <v>0.85314550225303409</v>
+      </c>
+      <c r="V4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="1">
+        <v>0.64661712000000005</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.17328149000000001</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.18010139</v>
+      </c>
+      <c r="G5" s="1">
+        <v>4.1308200000000003E-3</v>
+      </c>
+      <c r="H5" s="1">
+        <v>8.6403530000000006E-2</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0.90946565000000001</v>
+      </c>
+      <c r="J5" s="1">
+        <f t="shared" si="0"/>
+        <v>0.8642892048289037</v>
+      </c>
+      <c r="K5" s="1">
+        <f t="shared" si="1"/>
+        <v>0.10268296488803821</v>
+      </c>
+      <c r="L5" s="1">
+        <f t="shared" si="2"/>
+        <v>3.3027830283058092E-2</v>
+      </c>
+      <c r="M5" s="1">
+        <f t="shared" si="3"/>
+        <v>2.470371112161969E-2</v>
+      </c>
+      <c r="N5" s="1">
+        <f t="shared" si="4"/>
+        <v>0.22908241440790861</v>
+      </c>
+      <c r="O5" s="1">
+        <f t="shared" si="5"/>
+        <v>0.74621387447047183</v>
+      </c>
+      <c r="P5" s="1">
+        <f t="shared" si="6"/>
+        <v>0.86996202325639393</v>
+      </c>
+      <c r="Q5" s="1">
+        <f t="shared" si="7"/>
+        <v>9.2458751387415855E-2</v>
+      </c>
+      <c r="R5" s="1">
+        <f t="shared" si="8"/>
+        <v>3.7579225356190092E-2</v>
+      </c>
+      <c r="S5" s="1">
+        <f t="shared" si="9"/>
+        <v>2.3020015422016947E-2</v>
+      </c>
+      <c r="T5" s="1">
+        <f t="shared" si="10"/>
+        <v>0.19096051614827125</v>
+      </c>
+      <c r="U5" s="1">
+        <f t="shared" si="11"/>
+        <v>0.78601946842971171</v>
+      </c>
+      <c r="V5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>0.88200000000000001</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.78900000000000003</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.997</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.58502768999999999</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.21639027</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.19858203999999999</v>
+      </c>
+      <c r="G6" s="1">
+        <v>6.0117E-3</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0.11761472000000001</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0.87637357999999999</v>
+      </c>
+      <c r="J6" s="1">
+        <f t="shared" si="0"/>
+        <v>0.82606895300477357</v>
+      </c>
+      <c r="K6" s="1">
+        <f t="shared" si="1"/>
+        <v>0.13546027198231259</v>
+      </c>
+      <c r="L6" s="1">
+        <f t="shared" si="2"/>
+        <v>3.8470775012913835E-2</v>
+      </c>
+      <c r="M6" s="1">
+        <f t="shared" si="3"/>
+        <v>3.3699320907900177E-2</v>
+      </c>
+      <c r="N6" s="1">
+        <f t="shared" si="4"/>
+        <v>0.29229397607523988</v>
+      </c>
+      <c r="O6" s="1">
+        <f t="shared" si="5"/>
+        <v>0.67400670301685983</v>
+      </c>
+      <c r="P6" s="1">
+        <f t="shared" si="6"/>
+        <v>0.83379590239057677</v>
+      </c>
+      <c r="Q6" s="1">
+        <f t="shared" si="7"/>
+        <v>0.12231052150297968</v>
+      </c>
+      <c r="R6" s="1">
+        <f t="shared" si="8"/>
+        <v>4.389357610644349E-2</v>
+      </c>
+      <c r="S6" s="1">
+        <f t="shared" si="9"/>
+        <v>3.1880217239338572E-2</v>
+      </c>
+      <c r="T6" s="1">
+        <f t="shared" si="10"/>
+        <v>0.24735939267410534</v>
+      </c>
+      <c r="U6" s="1">
+        <f t="shared" si="11"/>
+        <v>0.72076039008655601</v>
+      </c>
+      <c r="V6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="D7" s="1">
+        <v>0.52931423</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.25421883000000001</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.21646694999999999</v>
+      </c>
+      <c r="G7" s="1">
+        <v>8.5268099999999993E-3</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0.14967929999999999</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0.84179389000000004</v>
+      </c>
+      <c r="J7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.78800066935043678</v>
+      </c>
+      <c r="K7" s="1">
+        <f t="shared" si="1"/>
+        <v>0.16778574828083867</v>
+      </c>
+      <c r="L7" s="1">
+        <f t="shared" si="2"/>
+        <v>4.421358236872433E-2</v>
+      </c>
+      <c r="M7" s="1">
+        <f t="shared" si="3"/>
+        <v>4.4788710620250687E-2</v>
+      </c>
+      <c r="N7" s="1">
+        <f t="shared" si="4"/>
+        <v>0.3485604073362838</v>
+      </c>
+      <c r="O7" s="1">
+        <f t="shared" si="5"/>
+        <v>0.60665088204346551</v>
+      </c>
+      <c r="P7" s="1">
+        <f t="shared" si="6"/>
+        <v>0.79751250937900586</v>
+      </c>
+      <c r="Q7" s="1">
+        <f t="shared" si="7"/>
+        <v>0.15190581695205574</v>
+      </c>
+      <c r="R7" s="1">
+        <f t="shared" si="8"/>
+        <v>5.0581673668938426E-2</v>
+      </c>
+      <c r="S7" s="1">
+        <f t="shared" si="9"/>
+        <v>4.2969159933906181E-2</v>
+      </c>
+      <c r="T7" s="1">
+        <f t="shared" si="10"/>
+        <v>0.2991401971323388</v>
+      </c>
+      <c r="U7" s="1">
+        <f t="shared" si="11"/>
+        <v>0.65789064293375499</v>
+      </c>
+      <c r="V7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="D8" s="1">
+        <v>0.47786123000000003</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.28796047000000002</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.23417829000000001</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1.179682E-2</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0.18223149</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0.80597169000000002</v>
+      </c>
+      <c r="J8" s="1">
+        <f t="shared" si="0"/>
+        <v>0.74940532298666895</v>
+      </c>
+      <c r="K8" s="1">
+        <f t="shared" si="1"/>
+        <v>0.20020835043175728</v>
+      </c>
+      <c r="L8" s="1">
+        <f t="shared" si="2"/>
+        <v>5.038632658157377E-2</v>
+      </c>
+      <c r="M8" s="1">
+        <f t="shared" si="3"/>
+        <v>5.8065104935983186E-2</v>
+      </c>
+      <c r="N8" s="1">
+        <f t="shared" si="4"/>
+        <v>0.39765644465354733</v>
+      </c>
+      <c r="O8" s="1">
+        <f t="shared" si="5"/>
+        <v>0.54427845041046941</v>
+      </c>
+      <c r="P8" s="1">
+        <f t="shared" si="6"/>
+        <v>0.76046303231907253</v>
+      </c>
+      <c r="Q8" s="1">
+        <f t="shared" si="7"/>
+        <v>0.18174059220287428</v>
+      </c>
+      <c r="R8" s="1">
+        <f t="shared" si="8"/>
+        <v>5.779637547805324E-2</v>
+      </c>
+      <c r="S8" s="1">
+        <f t="shared" si="9"/>
+        <v>5.6426685590073924E-2</v>
+      </c>
+      <c r="T8" s="1">
+        <f t="shared" si="10"/>
+        <v>0.34568916644518344</v>
+      </c>
+      <c r="U8" s="1">
+        <f t="shared" si="11"/>
+        <v>0.59788414796474265</v>
+      </c>
+      <c r="V8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="D9" s="1">
+        <v>0.42918279999999998</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.31857431000000003</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.25224289</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1.5962440000000001E-2</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0.21497646000000001</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0.76906110999999999</v>
+      </c>
+      <c r="J9" s="1">
+        <f t="shared" si="0"/>
+        <v>0.70936236271408459</v>
+      </c>
+      <c r="K9" s="1">
+        <f t="shared" si="1"/>
+        <v>0.23343765995227836</v>
+      </c>
+      <c r="L9" s="1">
+        <f t="shared" si="2"/>
+        <v>5.719997733363727E-2</v>
+      </c>
+      <c r="M9" s="1">
+        <f t="shared" si="3"/>
+        <v>7.3632929099620339E-2</v>
+      </c>
+      <c r="N9" s="1">
+        <f t="shared" si="4"/>
+        <v>0.43964085414798731</v>
+      </c>
+      <c r="O9" s="1">
+        <f t="shared" si="5"/>
+        <v>0.48672621675239242</v>
+      </c>
+      <c r="P9" s="1">
+        <f t="shared" si="6"/>
+        <v>0.72174470736753704</v>
+      </c>
+      <c r="Q9" s="1">
+        <f t="shared" si="7"/>
+        <v>0.21246862385082876</v>
+      </c>
+      <c r="R9" s="1">
+        <f t="shared" si="8"/>
+        <v>6.5786668781634139E-2</v>
+      </c>
+      <c r="S9" s="1">
+        <f t="shared" si="9"/>
+        <v>7.23945944862395E-2</v>
+      </c>
+      <c r="T9" s="1">
+        <f t="shared" si="10"/>
+        <v>0.38667004047539688</v>
+      </c>
+      <c r="U9" s="1">
+        <f t="shared" si="11"/>
+        <v>0.5409353650383637</v>
+      </c>
+      <c r="V9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="D10" s="1">
+        <v>0.38202545999999998</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.34668338999999998</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.27129114999999998</v>
+      </c>
+      <c r="G10" s="1">
+        <v>2.123077E-2</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0.24779477999999999</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0.73097445000000005</v>
+      </c>
+      <c r="J10" s="1">
+        <f t="shared" si="0"/>
+        <v>0.6667762087115483</v>
+      </c>
+      <c r="K10" s="1">
+        <f t="shared" si="1"/>
+        <v>0.26825952999511626</v>
+      </c>
+      <c r="L10" s="1">
+        <f t="shared" si="2"/>
+        <v>6.4964261293335407E-2</v>
+      </c>
+      <c r="M10" s="1">
+        <f t="shared" si="3"/>
+        <v>9.1758559808543139E-2</v>
+      </c>
+      <c r="N10" s="1">
+        <f t="shared" si="4"/>
+        <v>0.47479630785794175</v>
+      </c>
+      <c r="O10" s="1">
+        <f t="shared" si="5"/>
+        <v>0.43344513233351512</v>
+      </c>
+      <c r="P10" s="1">
+        <f t="shared" si="6"/>
+        <v>0.68025579838862116</v>
+      </c>
+      <c r="Q10" s="1">
+        <f t="shared" si="7"/>
+        <v>0.24482498377955197</v>
+      </c>
+      <c r="R10" s="1">
+        <f t="shared" si="8"/>
+        <v>7.4919217831826854E-2</v>
+      </c>
+      <c r="S10" s="1">
+        <f t="shared" si="9"/>
+        <v>9.1170383322900422E-2</v>
+      </c>
+      <c r="T10" s="1">
+        <f t="shared" si="10"/>
+        <v>0.42201019559148051</v>
+      </c>
+      <c r="U10" s="1">
+        <f t="shared" si="11"/>
+        <v>0.48681942108561904</v>
+      </c>
+      <c r="V10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="D11" s="1">
+        <v>0.33523107000000002</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.37257424</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.29219469999999997</v>
+      </c>
+      <c r="G11" s="1">
+        <v>2.795802E-2</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0.28078727999999997</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0.6912547</v>
+      </c>
+      <c r="J11" s="1">
+        <f t="shared" si="0"/>
+        <v>0.62022860222028908</v>
+      </c>
+      <c r="K11" s="1">
+        <f t="shared" si="1"/>
+        <v>0.30560094145426869</v>
+      </c>
+      <c r="L11" s="1">
+        <f t="shared" si="2"/>
+        <v>7.417045632544228E-2</v>
+      </c>
+      <c r="M11" s="1">
+        <f t="shared" si="3"/>
+        <v>0.11306174031836665</v>
+      </c>
+      <c r="N11" s="1">
+        <f t="shared" si="4"/>
+        <v>0.50340905310906947</v>
+      </c>
+      <c r="O11" s="1">
+        <f t="shared" si="5"/>
+        <v>0.3835292065725639</v>
+      </c>
+      <c r="P11" s="1">
+        <f t="shared" ref="P11:P20" si="12">(D11*$A$4)/((D11*$A$4)+(E11*$B$4)+(F11*$C$4))</f>
+        <v>0.63453902934698381</v>
+      </c>
+      <c r="Q11" s="1">
+        <f t="shared" ref="Q11:Q20" si="13">(E11*$B$4)/((D11*$A$4)+(E11*$B$4)+(F11*$C$4))</f>
+        <v>0.27968530956004017</v>
+      </c>
+      <c r="R11" s="1">
+        <f t="shared" ref="R11:R20" si="14">(F11*$C$4)/((D11*$A$4)+(E11*$B$4)+(F11*$C$4))</f>
+        <v>8.5775661092976088E-2</v>
+      </c>
+      <c r="S11" s="1">
+        <f t="shared" ref="S11:S20" si="15">(G11*$A$4)/((G11*$A$4)+(H11*$B$4)+(I11*$C$4))</f>
+        <v>0.11341035283698753</v>
+      </c>
+      <c r="T11" s="1">
+        <f t="shared" ref="T11:T20" si="16">(H11*$B$4)/((G11*$A$4)+(H11*$B$4)+(I11*$C$4))</f>
+        <v>0.45171704143924635</v>
+      </c>
+      <c r="U11" s="1">
+        <f t="shared" ref="U11:U20" si="17">(I11*$C$4)/((G11*$A$4)+(H11*$B$4)+(I11*$C$4))</f>
+        <v>0.43487260572376613</v>
+      </c>
+      <c r="V11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="D12" s="1">
+        <v>0.24140368344686658</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.41571569274749504</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.34288062380563838</v>
+      </c>
+      <c r="G12" s="1">
+        <v>4.8092442945417022E-2</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0.34696225149373233</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0.60494530556085069</v>
+      </c>
+      <c r="J12" s="1">
+        <f t="shared" si="0"/>
+        <v>0.51063830012425393</v>
+      </c>
+      <c r="K12" s="1">
+        <f t="shared" si="1"/>
+        <v>0.38985243292603727</v>
+      </c>
+      <c r="L12" s="1">
+        <f t="shared" si="2"/>
+        <v>9.9509266949708769E-2</v>
+      </c>
+      <c r="M12" s="1">
+        <f t="shared" si="3"/>
+        <v>0.16879771617945485</v>
+      </c>
+      <c r="N12" s="1">
+        <f t="shared" si="4"/>
+        <v>0.5398912538294447</v>
+      </c>
+      <c r="O12" s="1">
+        <f t="shared" si="5"/>
+        <v>0.29131102999110059</v>
+      </c>
+      <c r="P12" s="1">
+        <f t="shared" si="12"/>
+        <v>0.52541957429787978</v>
+      </c>
+      <c r="Q12" s="1">
+        <f t="shared" si="13"/>
+        <v>0.35884056304735523</v>
+      </c>
+      <c r="R12" s="1">
+        <f t="shared" si="14"/>
+        <v>0.11573986265476496</v>
+      </c>
+      <c r="S12" s="1">
+        <f t="shared" si="15"/>
+        <v>0.17205726859527914</v>
+      </c>
+      <c r="T12" s="1">
+        <f t="shared" si="16"/>
+        <v>0.49229017456444318</v>
+      </c>
+      <c r="U12" s="1">
+        <f t="shared" si="17"/>
+        <v>0.33565255684027773</v>
+      </c>
+      <c r="V12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+    </row>
+    <row r="17" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+    </row>
+    <row r="18" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+    </row>
+    <row r="19" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+    </row>
+    <row r="20" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+    </row>
+    <row r="23" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/DBDT.xlsx
+++ b/DBDT.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Clement\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Clement\Desktop\CCCCompanion\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20175" windowHeight="7560" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9630"/>
   </bookViews>
   <sheets>
     <sheet name="CPME Acetone Water" sheetId="5" r:id="rId1"/>
@@ -261,6 +261,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -270,7 +271,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Excel Built-in Good" xfId="1"/>
@@ -554,8 +554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V23"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="V12" sqref="V12"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -713,11 +713,11 @@
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
       <c r="D3" s="1">
         <v>0.86594227999999995</v>
       </c>
@@ -737,51 +737,51 @@
         <v>0.97449883000000004</v>
       </c>
       <c r="J3" s="1">
-        <f t="shared" ref="J3:J20" si="0">(P3/$A$6)/((P3/$A$6)+(Q3/$B$6)+(R3/$C$6))</f>
+        <f t="shared" ref="J3:J10" si="0">(P3/$A$6)/((P3/$A$6)+(Q3/$B$6)+(R3/$C$6))</f>
         <v>0.95161461422519067</v>
       </c>
       <c r="K3" s="1">
-        <f t="shared" ref="K3:K20" si="1">(Q3/$B$6)/((P3/$A$6)+(Q3/$B$6)+(R3/$C$6))</f>
+        <f t="shared" ref="K3:K10" si="1">(Q3/$B$6)/((P3/$A$6)+(Q3/$B$6)+(R3/$C$6))</f>
         <v>3.3728740414913097E-2</v>
       </c>
       <c r="L3" s="1">
-        <f t="shared" ref="L3:L20" si="2">(R3/$C$6)/((P3/$A$6)+(Q3/$B$6)+(R3/$C$6))</f>
+        <f t="shared" ref="L3:L10" si="2">(R3/$C$6)/((P3/$A$6)+(Q3/$B$6)+(R3/$C$6))</f>
         <v>1.4656645359896166E-2</v>
       </c>
       <c r="M3" s="1">
-        <f t="shared" ref="M3:M20" si="3">(S3/$A$6)/((S3/$A$6)+(T3/$B$6)+(U3/$C$6))</f>
+        <f t="shared" ref="M3:M10" si="3">(S3/$A$6)/((S3/$A$6)+(T3/$B$6)+(U3/$C$6))</f>
         <v>1.912876545468413E-2</v>
       </c>
       <c r="N3" s="1">
-        <f t="shared" ref="N3:N20" si="4">(T3/$B$6)/((S3/$A$6)+(T3/$B$6)+(U3/$C$6))</f>
+        <f t="shared" ref="N3:N10" si="4">(T3/$B$6)/((S3/$A$6)+(T3/$B$6)+(U3/$C$6))</f>
         <v>8.403740340824814E-2</v>
       </c>
       <c r="O3" s="1">
-        <f t="shared" ref="O3:O20" si="5">(U3/$C$6)/((S3/$A$6)+(T3/$B$6)+(U3/$C$6))</f>
+        <f t="shared" ref="O3:O10" si="5">(U3/$C$6)/((S3/$A$6)+(T3/$B$6)+(U3/$C$6))</f>
         <v>0.89683383113706783</v>
       </c>
       <c r="P3" s="1">
-        <f t="shared" ref="P3:P20" si="6">(D3*$A$4)/((D3*$A$4)+(E3*$B$4)+(F3*$C$4))</f>
+        <f t="shared" ref="P3:P10" si="6">(D3*$A$4)/((D3*$A$4)+(E3*$B$4)+(F3*$C$4))</f>
         <v>0.95228243877627328</v>
       </c>
       <c r="Q3" s="1">
-        <f t="shared" ref="Q3:Q20" si="7">(E3*$B$4)/((D3*$A$4)+(E3*$B$4)+(F3*$C$4))</f>
+        <f t="shared" ref="Q3:Q10" si="7">(E3*$B$4)/((D3*$A$4)+(E3*$B$4)+(F3*$C$4))</f>
         <v>3.0733902322401481E-2</v>
       </c>
       <c r="R3" s="1">
-        <f t="shared" ref="R3:R20" si="8">(F3*$C$4)/((D3*$A$4)+(E3*$B$4)+(F3*$C$4))</f>
+        <f t="shared" ref="R3:R10" si="8">(F3*$C$4)/((D3*$A$4)+(E3*$B$4)+(F3*$C$4))</f>
         <v>1.6983658901325319E-2</v>
       </c>
       <c r="S3" s="1">
-        <f t="shared" ref="S3:S20" si="9">(G3*$A$4)/((G3*$A$4)+(H3*$B$4)+(I3*$C$4))</f>
+        <f t="shared" ref="S3:S10" si="9">(G3*$A$4)/((G3*$A$4)+(H3*$B$4)+(I3*$C$4))</f>
         <v>1.6866248850111478E-2</v>
       </c>
       <c r="T3" s="1">
-        <f t="shared" ref="T3:T20" si="10">(H3*$B$4)/((G3*$A$4)+(H3*$B$4)+(I3*$C$4))</f>
+        <f t="shared" ref="T3:T10" si="10">(H3*$B$4)/((G3*$A$4)+(H3*$B$4)+(I3*$C$4))</f>
         <v>6.7470992384577114E-2</v>
       </c>
       <c r="U3" s="1">
-        <f t="shared" ref="U3:U20" si="11">(I3*$C$4)/((G3*$A$4)+(H3*$B$4)+(I3*$C$4))</f>
+        <f t="shared" ref="U3:U10" si="11">(I3*$C$4)/((G3*$A$4)+(H3*$B$4)+(I3*$C$4))</f>
         <v>0.91566275876531134</v>
       </c>
       <c r="V3" t="s">
@@ -869,11 +869,11 @@
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="4"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="5"/>
       <c r="D5" s="1">
         <v>0.73145291999999995</v>
       </c>
@@ -1316,22 +1316,22 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1">
+        <v>0.37742616000000001</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0.55303179999999996</v>
+      </c>
+      <c r="L11" s="1">
+        <v>0.38001184999999998</v>
+      </c>
+      <c r="M11" s="1">
         <v>0.53899129000000001</v>
       </c>
-      <c r="K11" s="1">
+      <c r="N11" s="1">
         <v>0.44561475</v>
       </c>
-      <c r="L11" s="1">
+      <c r="O11" s="1">
         <v>1.539396E-2</v>
-      </c>
-      <c r="M11" s="1">
-        <v>0.37742616000000001</v>
-      </c>
-      <c r="N11" s="1">
-        <v>0.55303179999999996</v>
-      </c>
-      <c r="O11" s="1">
-        <v>0.38001184999999998</v>
       </c>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
@@ -1545,7 +1545,7 @@
   <dimension ref="A1:V23"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10:U20"/>
+      <selection activeCell="T17" sqref="T17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1703,11 +1703,11 @@
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
       <c r="D3" s="1">
         <v>0.81921520000000003</v>
       </c>
@@ -1727,51 +1727,51 @@
         <v>0.97284040000000005</v>
       </c>
       <c r="J3" s="1">
-        <f t="shared" ref="J3:J20" si="0">(P3/$A$6)/((P3/$A$6)+(Q3/$B$6)+(R3/$C$6))</f>
+        <f t="shared" ref="J3:J9" si="0">(P3/$A$6)/((P3/$A$6)+(Q3/$B$6)+(R3/$C$6))</f>
         <v>0.94016820396046119</v>
       </c>
       <c r="K3" s="1">
-        <f t="shared" ref="K3:K20" si="1">(Q3/$B$6)/((P3/$A$6)+(Q3/$B$6)+(R3/$C$6))</f>
+        <f t="shared" ref="K3:K9" si="1">(Q3/$B$6)/((P3/$A$6)+(Q3/$B$6)+(R3/$C$6))</f>
         <v>3.9975502983995534E-2</v>
       </c>
       <c r="L3" s="1">
-        <f t="shared" ref="L3:L20" si="2">(R3/$C$6)/((P3/$A$6)+(Q3/$B$6)+(R3/$C$6))</f>
+        <f t="shared" ref="L3:L9" si="2">(R3/$C$6)/((P3/$A$6)+(Q3/$B$6)+(R3/$C$6))</f>
         <v>1.9856293055543268E-2</v>
       </c>
       <c r="M3" s="1">
-        <f t="shared" ref="M3:M20" si="3">(S3/$A$6)/((S3/$A$6)+(T3/$B$6)+(U3/$C$6))</f>
+        <f t="shared" ref="M3:M9" si="3">(S3/$A$6)/((S3/$A$6)+(T3/$B$6)+(U3/$C$6))</f>
         <v>2.0235049386669063E-2</v>
       </c>
       <c r="N3" s="1">
-        <f t="shared" ref="N3:N20" si="4">(T3/$B$6)/((S3/$A$6)+(T3/$B$6)+(U3/$C$6))</f>
+        <f t="shared" ref="N3:N9" si="4">(T3/$B$6)/((S3/$A$6)+(T3/$B$6)+(U3/$C$6))</f>
         <v>7.175685810082659E-2</v>
       </c>
       <c r="O3" s="1">
-        <f t="shared" ref="O3:O20" si="5">(U3/$C$6)/((S3/$A$6)+(T3/$B$6)+(U3/$C$6))</f>
+        <f t="shared" ref="O3:O9" si="5">(U3/$C$6)/((S3/$A$6)+(T3/$B$6)+(U3/$C$6))</f>
         <v>0.90800809251250425</v>
       </c>
       <c r="P3" s="1">
-        <f t="shared" ref="P3:P20" si="6">(D3*$A$4)/((D3*$A$4)+(E3*$B$4)+(F3*$C$4))</f>
+        <f t="shared" ref="P3:P9" si="6">(D3*$A$4)/((D3*$A$4)+(E3*$B$4)+(F3*$C$4))</f>
         <v>0.9403623711616359</v>
       </c>
       <c r="Q3" s="1">
-        <f t="shared" ref="Q3:Q20" si="7">(E3*$B$4)/((D3*$A$4)+(E3*$B$4)+(F3*$C$4))</f>
+        <f t="shared" ref="Q3:Q9" si="7">(E3*$B$4)/((D3*$A$4)+(E3*$B$4)+(F3*$C$4))</f>
         <v>3.6640169287843263E-2</v>
       </c>
       <c r="R3" s="1">
-        <f t="shared" ref="R3:R20" si="8">(F3*$C$4)/((D3*$A$4)+(E3*$B$4)+(F3*$C$4))</f>
+        <f t="shared" ref="R3:R9" si="8">(F3*$C$4)/((D3*$A$4)+(E3*$B$4)+(F3*$C$4))</f>
         <v>2.2997459550520755E-2</v>
       </c>
       <c r="S3" s="1">
-        <f t="shared" ref="S3:S20" si="9">(G3*$A$4)/((G3*$A$4)+(H3*$B$4)+(I3*$C$4))</f>
+        <f t="shared" ref="S3:S9" si="9">(G3*$A$4)/((G3*$A$4)+(H3*$B$4)+(I3*$C$4))</f>
         <v>1.7790233168290218E-2</v>
       </c>
       <c r="T3" s="1">
-        <f t="shared" ref="T3:T20" si="10">(H3*$B$4)/((G3*$A$4)+(H3*$B$4)+(I3*$C$4))</f>
+        <f t="shared" ref="T3:T9" si="10">(H3*$B$4)/((G3*$A$4)+(H3*$B$4)+(I3*$C$4))</f>
         <v>5.7811553259900013E-2</v>
       </c>
       <c r="U3" s="1">
-        <f t="shared" ref="U3:U20" si="11">(I3*$C$4)/((G3*$A$4)+(H3*$B$4)+(I3*$C$4))</f>
+        <f t="shared" ref="U3:U9" si="11">(I3*$C$4)/((G3*$A$4)+(H3*$B$4)+(I3*$C$4))</f>
         <v>0.92439821357180985</v>
       </c>
       <c r="V3" t="s">
@@ -1859,11 +1859,11 @@
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="4"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="5"/>
       <c r="D5" s="1">
         <v>0.61074123999999996</v>
       </c>
@@ -2468,8 +2468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2627,11 +2627,11 @@
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
       <c r="D3" s="1">
         <v>0.79347201999999994</v>
       </c>
@@ -2651,27 +2651,27 @@
         <v>0.97060765000000004</v>
       </c>
       <c r="J3" s="1">
-        <f t="shared" ref="J3:J20" si="0">(P3/$A$6)/((P3/$A$6)+(Q3/$B$6)+(R3/$C$6))</f>
+        <f t="shared" ref="J3:J12" si="0">(P3/$A$6)/((P3/$A$6)+(Q3/$B$6)+(R3/$C$6))</f>
         <v>0.94229629540224735</v>
       </c>
       <c r="K3" s="1">
-        <f t="shared" ref="K3:K20" si="1">(Q3/$B$6)/((P3/$A$6)+(Q3/$B$6)+(R3/$C$6))</f>
+        <f t="shared" ref="K3:K12" si="1">(Q3/$B$6)/((P3/$A$6)+(Q3/$B$6)+(R3/$C$6))</f>
         <v>3.4833532238821165E-2</v>
       </c>
       <c r="L3" s="1">
-        <f t="shared" ref="L3:L20" si="2">(R3/$C$6)/((P3/$A$6)+(Q3/$B$6)+(R3/$C$6))</f>
+        <f t="shared" ref="L3:L12" si="2">(R3/$C$6)/((P3/$A$6)+(Q3/$B$6)+(R3/$C$6))</f>
         <v>2.2870172358931594E-2</v>
       </c>
       <c r="M3" s="1">
-        <f t="shared" ref="M3:M20" si="3">(S3/$A$6)/((S3/$A$6)+(T3/$B$6)+(U3/$C$6))</f>
+        <f t="shared" ref="M3:M12" si="3">(S3/$A$6)/((S3/$A$6)+(T3/$B$6)+(U3/$C$6))</f>
         <v>1.2256061271845434E-2</v>
       </c>
       <c r="N3" s="1">
-        <f t="shared" ref="N3:N20" si="4">(T3/$B$6)/((S3/$A$6)+(T3/$B$6)+(U3/$C$6))</f>
+        <f t="shared" ref="N3:N12" si="4">(T3/$B$6)/((S3/$A$6)+(T3/$B$6)+(U3/$C$6))</f>
         <v>8.3089518420818922E-2</v>
       </c>
       <c r="O3" s="1">
-        <f t="shared" ref="O3:O20" si="5">(U3/$C$6)/((S3/$A$6)+(T3/$B$6)+(U3/$C$6))</f>
+        <f t="shared" ref="O3:O12" si="5">(U3/$C$6)/((S3/$A$6)+(T3/$B$6)+(U3/$C$6))</f>
         <v>0.90465442030733567</v>
       </c>
       <c r="P3" s="1">
@@ -2783,11 +2783,11 @@
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="4"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="5"/>
       <c r="D5" s="1">
         <v>0.64661712000000005</v>
       </c>
@@ -3266,27 +3266,27 @@
         <v>0.3835292065725639</v>
       </c>
       <c r="P11" s="1">
-        <f t="shared" ref="P11:P20" si="12">(D11*$A$4)/((D11*$A$4)+(E11*$B$4)+(F11*$C$4))</f>
+        <f t="shared" ref="P11:P12" si="12">(D11*$A$4)/((D11*$A$4)+(E11*$B$4)+(F11*$C$4))</f>
         <v>0.63453902934698381</v>
       </c>
       <c r="Q11" s="1">
-        <f t="shared" ref="Q11:Q20" si="13">(E11*$B$4)/((D11*$A$4)+(E11*$B$4)+(F11*$C$4))</f>
+        <f t="shared" ref="Q11:Q12" si="13">(E11*$B$4)/((D11*$A$4)+(E11*$B$4)+(F11*$C$4))</f>
         <v>0.27968530956004017</v>
       </c>
       <c r="R11" s="1">
-        <f t="shared" ref="R11:R20" si="14">(F11*$C$4)/((D11*$A$4)+(E11*$B$4)+(F11*$C$4))</f>
+        <f t="shared" ref="R11:R12" si="14">(F11*$C$4)/((D11*$A$4)+(E11*$B$4)+(F11*$C$4))</f>
         <v>8.5775661092976088E-2</v>
       </c>
       <c r="S11" s="1">
-        <f t="shared" ref="S11:S20" si="15">(G11*$A$4)/((G11*$A$4)+(H11*$B$4)+(I11*$C$4))</f>
+        <f t="shared" ref="S11:S12" si="15">(G11*$A$4)/((G11*$A$4)+(H11*$B$4)+(I11*$C$4))</f>
         <v>0.11341035283698753</v>
       </c>
       <c r="T11" s="1">
-        <f t="shared" ref="T11:T20" si="16">(H11*$B$4)/((G11*$A$4)+(H11*$B$4)+(I11*$C$4))</f>
+        <f t="shared" ref="T11:T12" si="16">(H11*$B$4)/((G11*$A$4)+(H11*$B$4)+(I11*$C$4))</f>
         <v>0.45171704143924635</v>
       </c>
       <c r="U11" s="1">
-        <f t="shared" ref="U11:U20" si="17">(I11*$C$4)/((G11*$A$4)+(H11*$B$4)+(I11*$C$4))</f>
+        <f t="shared" ref="U11:U12" si="17">(I11*$C$4)/((G11*$A$4)+(H11*$B$4)+(I11*$C$4))</f>
         <v>0.43487260572376613</v>
       </c>
       <c r="V11" t="s">
@@ -3525,12 +3525,12 @@
       <c r="U20" s="1"/>
     </row>
     <row r="23" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/DBDT.xlsx
+++ b/DBDT.xlsx
@@ -555,7 +555,7 @@
   <dimension ref="A1:V23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/DBDT.xlsx
+++ b/DBDT.xlsx
@@ -555,7 +555,7 @@
   <dimension ref="A1:V23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="L15" sqref="L14:L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1316,22 +1316,22 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1">
-        <v>0.37742616000000001</v>
+        <v>0.38001184999999998</v>
       </c>
       <c r="K11" s="1">
         <v>0.55303179999999996</v>
       </c>
       <c r="L11" s="1">
-        <v>0.38001184999999998</v>
+        <v>0.37742616000000001</v>
       </c>
       <c r="M11" s="1">
-        <v>0.53899129000000001</v>
+        <v>1.539396E-2</v>
       </c>
       <c r="N11" s="1">
         <v>0.44561475</v>
       </c>
       <c r="O11" s="1">
-        <v>1.539396E-2</v>
+        <v>0.53899129000000001</v>
       </c>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>

--- a/DBDT.xlsx
+++ b/DBDT.xlsx
@@ -555,7 +555,7 @@
   <dimension ref="A1:V23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L15" sqref="L14:L15"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1309,36 +1309,72 @@
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
+      <c r="D11" s="1">
+        <v>0.22484456</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.37722371999999998</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.39793171999999999</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1.691051E-2</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0.17791449000000001</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0.80517499000000003</v>
+      </c>
       <c r="J11" s="1">
-        <v>0.38001184999999998</v>
+        <f t="shared" ref="J11" si="12">(P11/$A$6)/((P11/$A$6)+(Q11/$B$6)+(R11/$C$6))</f>
+        <v>0.42674284368348075</v>
       </c>
       <c r="K11" s="1">
-        <v>0.55303179999999996</v>
+        <f t="shared" ref="K11" si="13">(Q11/$B$6)/((P11/$A$6)+(Q11/$B$6)+(R11/$C$6))</f>
+        <v>0.45594337394650514</v>
       </c>
       <c r="L11" s="1">
-        <v>0.37742616000000001</v>
+        <f t="shared" ref="L11" si="14">(R11/$C$6)/((P11/$A$6)+(Q11/$B$6)+(R11/$C$6))</f>
+        <v>0.11731378237001396</v>
       </c>
       <c r="M11" s="1">
-        <v>1.539396E-2</v>
+        <f t="shared" ref="M11" si="15">(S11/$A$6)/((S11/$A$6)+(T11/$B$6)+(U11/$C$6))</f>
+        <v>6.6242682751183279E-2</v>
       </c>
       <c r="N11" s="1">
-        <v>0.44561475</v>
+        <f t="shared" ref="N11" si="16">(T11/$B$6)/((S11/$A$6)+(T11/$B$6)+(U11/$C$6))</f>
+        <v>0.44383401156339886</v>
       </c>
       <c r="O11" s="1">
-        <v>0.53899129000000001</v>
-      </c>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
-      <c r="S11" s="1"/>
-      <c r="T11" s="1"/>
-      <c r="U11" s="1"/>
+        <f t="shared" ref="O11" si="17">(U11/$C$6)/((S11/$A$6)+(T11/$B$6)+(U11/$C$6))</f>
+        <v>0.48992330568541781</v>
+      </c>
+      <c r="P11" s="1">
+        <f t="shared" ref="P11" si="18">(D11*$A$4)/((D11*$A$4)+(E11*$B$4)+(F11*$C$4))</f>
+        <v>0.4364517225892155</v>
+      </c>
+      <c r="Q11" s="1">
+        <f t="shared" ref="Q11" si="19">(E11*$B$4)/((D11*$A$4)+(E11*$B$4)+(F11*$C$4))</f>
+        <v>0.4246134873425329</v>
+      </c>
+      <c r="R11" s="1">
+        <f t="shared" ref="R11" si="20">(F11*$C$4)/((D11*$A$4)+(E11*$B$4)+(F11*$C$4))</f>
+        <v>0.13893479006825166</v>
+      </c>
+      <c r="S11" s="1">
+        <f t="shared" ref="S11" si="21">(G11*$A$4)/((G11*$A$4)+(H11*$B$4)+(I11*$C$4))</f>
+        <v>6.3836445370912404E-2</v>
+      </c>
+      <c r="T11" s="1">
+        <f t="shared" ref="T11" si="22">(H11*$B$4)/((G11*$A$4)+(H11*$B$4)+(I11*$C$4))</f>
+        <v>0.38946126883792881</v>
+      </c>
+      <c r="U11" s="1">
+        <f t="shared" ref="U11" si="23">(I11*$C$4)/((G11*$A$4)+(H11*$B$4)+(I11*$C$4))</f>
+        <v>0.54670228579115887</v>
+      </c>
       <c r="V11" t="s">
         <v>39</v>
       </c>

--- a/DBDT.xlsx
+++ b/DBDT.xlsx
@@ -555,7 +555,7 @@
   <dimension ref="A1:V23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1380,24 +1380,72 @@
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
-      <c r="S12" s="1"/>
-      <c r="T12" s="1"/>
-      <c r="U12" s="1"/>
+      <c r="D12" s="1">
+        <v>0.15581490000000001</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.38922275000000001</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.45496236000000001</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1.9652340000000001E-2</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0.20190653</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0.77844111999999999</v>
+      </c>
+      <c r="J12" s="1">
+        <f t="shared" ref="J12" si="24">(P12/$A$6)/((P12/$A$6)+(Q12/$B$6)+(R12/$C$6))</f>
+        <v>0.32847690421180842</v>
+      </c>
+      <c r="K12" s="1">
+        <f t="shared" ref="K12" si="25">(Q12/$B$6)/((P12/$A$6)+(Q12/$B$6)+(R12/$C$6))</f>
+        <v>0.5225431068996319</v>
+      </c>
+      <c r="L12" s="1">
+        <f t="shared" ref="L12" si="26">(R12/$C$6)/((P12/$A$6)+(Q12/$B$6)+(R12/$C$6))</f>
+        <v>0.14897998888855954</v>
+      </c>
+      <c r="M12" s="1">
+        <f t="shared" ref="M12" si="27">(S12/$A$6)/((S12/$A$6)+(T12/$B$6)+(U12/$C$6))</f>
+        <v>7.3016464428022093E-2</v>
+      </c>
+      <c r="N12" s="1">
+        <f t="shared" ref="N12" si="28">(T12/$B$6)/((S12/$A$6)+(T12/$B$6)+(U12/$C$6))</f>
+        <v>0.47773267735943864</v>
+      </c>
+      <c r="O12" s="1">
+        <f t="shared" ref="O12" si="29">(U12/$C$6)/((S12/$A$6)+(T12/$B$6)+(U12/$C$6))</f>
+        <v>0.44925085821253929</v>
+      </c>
+      <c r="P12" s="1">
+        <f t="shared" ref="P12" si="30">(D12*$A$4)/((D12*$A$4)+(E12*$B$4)+(F12*$C$4))</f>
+        <v>0.33627830336554781</v>
+      </c>
+      <c r="Q12" s="1">
+        <f t="shared" ref="Q12" si="31">(E12*$B$4)/((D12*$A$4)+(E12*$B$4)+(F12*$C$4))</f>
+        <v>0.48711224053901658</v>
+      </c>
+      <c r="R12" s="1">
+        <f t="shared" ref="R12" si="32">(F12*$C$4)/((D12*$A$4)+(E12*$B$4)+(F12*$C$4))</f>
+        <v>0.17660945609543571</v>
+      </c>
+      <c r="S12" s="1">
+        <f t="shared" ref="S12" si="33">(G12*$A$4)/((G12*$A$4)+(H12*$B$4)+(I12*$C$4))</f>
+        <v>7.1011266225757833E-2</v>
+      </c>
+      <c r="T12" s="1">
+        <f t="shared" ref="T12" si="34">(H12*$B$4)/((G12*$A$4)+(H12*$B$4)+(I12*$C$4))</f>
+        <v>0.42306229066045065</v>
+      </c>
+      <c r="U12" s="1">
+        <f t="shared" ref="U12" si="35">(I12*$C$4)/((G12*$A$4)+(H12*$B$4)+(I12*$C$4))</f>
+        <v>0.50592644311379154</v>
+      </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="D13" s="1"/>

--- a/DBDT.xlsx
+++ b/DBDT.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="41">
   <si>
     <t>CPME</t>
   </si>
@@ -157,6 +157,9 @@
   </si>
   <si>
     <t>MAX</t>
+  </si>
+  <si>
+    <t>Max</t>
   </si>
 </sst>
 </file>
@@ -555,7 +558,7 @@
   <dimension ref="A1:V23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="Q20" sqref="Q20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1376,7 +1379,7 @@
         <v>0.54670228579115887</v>
       </c>
       <c r="V11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
@@ -1445,6 +1448,9 @@
       <c r="U12" s="1">
         <f t="shared" ref="U12" si="35">(I12*$C$4)/((G12*$A$4)+(H12*$B$4)+(I12*$C$4))</f>
         <v>0.50592644311379154</v>
+      </c>
+      <c r="V12" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">

--- a/DBDT.xlsx
+++ b/DBDT.xlsx
@@ -12,9 +12,10 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9630"/>
   </bookViews>
   <sheets>
-    <sheet name="CPME Acetone Water" sheetId="5" r:id="rId1"/>
-    <sheet name="CPME Ethanol Water" sheetId="3" r:id="rId2"/>
-    <sheet name="ButylAcetate Ethanol Water" sheetId="2" r:id="rId3"/>
+    <sheet name="MtBE Acetonitrile Water" sheetId="7" r:id="rId1"/>
+    <sheet name="CPME Acetone Water" sheetId="5" r:id="rId2"/>
+    <sheet name="CPME Ethanol Water" sheetId="3" r:id="rId3"/>
+    <sheet name="ButylAcetate Ethanol Water" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="43">
   <si>
     <t>CPME</t>
   </si>
@@ -160,6 +161,12 @@
   </si>
   <si>
     <t>Max</t>
+  </si>
+  <si>
+    <t>MtBE</t>
+  </si>
+  <si>
+    <t>Acetonitrile</t>
   </si>
 </sst>
 </file>
@@ -558,7 +565,7 @@
   <dimension ref="A1:V23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="Q20" sqref="Q20"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -637,35 +644,35 @@
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="1">
-        <v>0.92784104000000001</v>
+        <v>0.97154300999999998</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>7.2158959999999994E-2</v>
+        <v>2.8456990000000001E-2</v>
       </c>
       <c r="G2" s="1">
-        <v>2.2430900000000001E-3</v>
+        <v>6.7155699999999997E-3</v>
       </c>
       <c r="H2" s="1">
         <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>0.99775691</v>
+        <v>0.99328443</v>
       </c>
       <c r="J2" s="1">
         <f>(P2/$A$6)/((P2/$A$6)+(Q2/$B$6)+(R2/$C$6))</f>
-        <v>0.98806401170738245</v>
+        <v>0.99557666177542514</v>
       </c>
       <c r="K2" s="1">
         <f>(Q2/$B$6)/((P2/$A$6)+(Q2/$B$6)+(R2/$C$6))</f>
@@ -673,11 +680,11 @@
       </c>
       <c r="L2" s="1">
         <f>(R2/$C$6)/((P2/$A$6)+(Q2/$B$6)+(R2/$C$6))</f>
-        <v>1.193598829261755E-2</v>
+        <v>4.4233382245748949E-3</v>
       </c>
       <c r="M2" s="1">
         <f>(S2/$A$6)/((S2/$A$6)+(T2/$B$6)+(U2/$C$6))</f>
-        <v>1.4266740099013756E-2</v>
+        <v>4.2669978092172829E-2</v>
       </c>
       <c r="N2" s="1">
         <f>(T2/$B$6)/((S2/$A$6)+(T2/$B$6)+(U2/$C$6))</f>
@@ -685,11 +692,11 @@
       </c>
       <c r="O2" s="1">
         <f>(U2/$C$6)/((S2/$A$6)+(T2/$B$6)+(U2/$C$6))</f>
-        <v>0.98573325990098615</v>
+        <v>0.95733002190782723</v>
       </c>
       <c r="P2" s="1">
         <f>(D2*$A$4)/((D2*$A$4)+(E2*$B$4)+(F2*$C$4))</f>
-        <v>0.9862046615192448</v>
+        <v>0.99404958946545907</v>
       </c>
       <c r="Q2" s="1">
         <f>(E2*$B$4)/((D2*$A$4)+(E2*$B$4)+(F2*$C$4))</f>
@@ -697,11 +704,11 @@
       </c>
       <c r="R2" s="1">
         <f>(F2*$C$4)/((D2*$A$4)+(E2*$B$4)+(F2*$C$4))</f>
-        <v>1.3795338480755207E-2</v>
+        <v>5.9504105345408748E-3</v>
       </c>
       <c r="S2" s="1">
         <f>(G2*$A$4)/((G2*$A$4)+(H2*$B$4)+(I2*$C$4))</f>
-        <v>1.2344649207526013E-2</v>
+        <v>3.2023023234779638E-2</v>
       </c>
       <c r="T2" s="1">
         <f>(H2*$B$4)/((G2*$A$4)+(H2*$B$4)+(I2*$C$4))</f>
@@ -709,7 +716,7 @@
       </c>
       <c r="U2" s="1">
         <f>(I2*$C$4)/((G2*$A$4)+(H2*$B$4)+(I2*$C$4))</f>
-        <v>0.98765535079247402</v>
+        <v>0.96797697676522032</v>
       </c>
       <c r="V2" t="s">
         <v>28</v>
@@ -722,70 +729,70 @@
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
       <c r="D3" s="1">
-        <v>0.86594227999999995</v>
+        <v>0.90261424999999995</v>
       </c>
       <c r="E3" s="1">
-        <v>4.8194769999999998E-2</v>
+        <v>6.4583260000000003E-2</v>
       </c>
       <c r="F3" s="1">
-        <v>8.5862949999999993E-2</v>
+        <v>3.2802489999999997E-2</v>
       </c>
       <c r="G3" s="1">
-        <v>3.2285899999999999E-3</v>
+        <v>8.5552600000000003E-3</v>
       </c>
       <c r="H3" s="1">
-        <v>2.227258E-2</v>
+        <v>2.472599E-2</v>
       </c>
       <c r="I3" s="1">
-        <v>0.97449883000000004</v>
+        <v>0.96671874999999996</v>
       </c>
       <c r="J3" s="1">
-        <f t="shared" ref="J3:J10" si="0">(P3/$A$6)/((P3/$A$6)+(Q3/$B$6)+(R3/$C$6))</f>
-        <v>0.95161461422519067</v>
+        <f t="shared" ref="J3:J12" si="0">(P3/$A$6)/((P3/$A$6)+(Q3/$B$6)+(R3/$C$6))</f>
+        <v>0.96442915775549776</v>
       </c>
       <c r="K3" s="1">
-        <f t="shared" ref="K3:K10" si="1">(Q3/$B$6)/((P3/$A$6)+(Q3/$B$6)+(R3/$C$6))</f>
-        <v>3.3728740414913097E-2</v>
+        <f t="shared" ref="K3:K12" si="1">(Q3/$B$6)/((P3/$A$6)+(Q3/$B$6)+(R3/$C$6))</f>
+        <v>3.0254370998327444E-2</v>
       </c>
       <c r="L3" s="1">
-        <f t="shared" ref="L3:L10" si="2">(R3/$C$6)/((P3/$A$6)+(Q3/$B$6)+(R3/$C$6))</f>
-        <v>1.4656645359896166E-2</v>
+        <f t="shared" ref="L3:L12" si="2">(R3/$C$6)/((P3/$A$6)+(Q3/$B$6)+(R3/$C$6))</f>
+        <v>5.3164712461747652E-3</v>
       </c>
       <c r="M3" s="1">
-        <f t="shared" ref="M3:M10" si="3">(S3/$A$6)/((S3/$A$6)+(T3/$B$6)+(U3/$C$6))</f>
-        <v>1.912876545468413E-2</v>
+        <f t="shared" ref="M3:M12" si="3">(S3/$A$6)/((S3/$A$6)+(T3/$B$6)+(U3/$C$6))</f>
+        <v>5.1526974900546044E-2</v>
       </c>
       <c r="N3" s="1">
-        <f t="shared" ref="N3:N10" si="4">(T3/$B$6)/((S3/$A$6)+(T3/$B$6)+(U3/$C$6))</f>
-        <v>8.403740340824814E-2</v>
+        <f t="shared" ref="N3:N12" si="4">(T3/$B$6)/((S3/$A$6)+(T3/$B$6)+(U3/$C$6))</f>
+        <v>6.5291273776580325E-2</v>
       </c>
       <c r="O3" s="1">
-        <f t="shared" ref="O3:O10" si="5">(U3/$C$6)/((S3/$A$6)+(T3/$B$6)+(U3/$C$6))</f>
-        <v>0.89683383113706783</v>
+        <f t="shared" ref="O3:O12" si="5">(U3/$C$6)/((S3/$A$6)+(T3/$B$6)+(U3/$C$6))</f>
+        <v>0.88318175132287369</v>
       </c>
       <c r="P3" s="1">
-        <f t="shared" ref="P3:P10" si="6">(D3*$A$4)/((D3*$A$4)+(E3*$B$4)+(F3*$C$4))</f>
-        <v>0.95228243877627328</v>
+        <f t="shared" ref="P3:P12" si="6">(D3*$A$4)/((D3*$A$4)+(E3*$B$4)+(F3*$C$4))</f>
+        <v>0.96084800688911376</v>
       </c>
       <c r="Q3" s="1">
-        <f t="shared" ref="Q3:Q10" si="7">(E3*$B$4)/((D3*$A$4)+(E3*$B$4)+(F3*$C$4))</f>
-        <v>3.0733902322401481E-2</v>
+        <f t="shared" ref="Q3:Q12" si="7">(E3*$B$4)/((D3*$A$4)+(E3*$B$4)+(F3*$C$4))</f>
+        <v>3.2015723170278794E-2</v>
       </c>
       <c r="R3" s="1">
-        <f t="shared" ref="R3:R10" si="8">(F3*$C$4)/((D3*$A$4)+(E3*$B$4)+(F3*$C$4))</f>
-        <v>1.6983658901325319E-2</v>
+        <f t="shared" ref="R3:R12" si="8">(F3*$C$4)/((D3*$A$4)+(E3*$B$4)+(F3*$C$4))</f>
+        <v>7.1362699406074702E-3</v>
       </c>
       <c r="S3" s="1">
-        <f t="shared" ref="S3:S10" si="9">(G3*$A$4)/((G3*$A$4)+(H3*$B$4)+(I3*$C$4))</f>
-        <v>1.6866248850111478E-2</v>
+        <f t="shared" ref="S3:S12" si="9">(G3*$A$4)/((G3*$A$4)+(H3*$B$4)+(I3*$C$4))</f>
+        <v>3.9310004169202613E-2</v>
       </c>
       <c r="T3" s="1">
-        <f t="shared" ref="T3:T10" si="10">(H3*$B$4)/((G3*$A$4)+(H3*$B$4)+(I3*$C$4))</f>
-        <v>6.7470992384577114E-2</v>
+        <f t="shared" ref="T3:T12" si="10">(H3*$B$4)/((G3*$A$4)+(H3*$B$4)+(I3*$C$4))</f>
+        <v>5.290715533422477E-2</v>
       </c>
       <c r="U3" s="1">
-        <f t="shared" ref="U3:U10" si="11">(I3*$C$4)/((G3*$A$4)+(H3*$B$4)+(I3*$C$4))</f>
-        <v>0.91566275876531134</v>
+        <f t="shared" ref="U3:U12" si="11">(I3*$C$4)/((G3*$A$4)+(H3*$B$4)+(I3*$C$4))</f>
+        <v>0.90778284049657254</v>
       </c>
       <c r="V3" t="s">
         <v>29</v>
@@ -793,79 +800,79 @@
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>100.158</v>
+        <v>88.15</v>
       </c>
       <c r="B4" s="1">
-        <v>58.08</v>
+        <v>41.05</v>
       </c>
       <c r="C4" s="2">
         <v>18.015000000000001</v>
       </c>
       <c r="D4" s="1">
-        <v>0.80124759999999995</v>
+        <v>0.83053767999999994</v>
       </c>
       <c r="E4" s="1">
-        <v>9.5710970000000006E-2</v>
+        <v>0.13031069000000001</v>
       </c>
       <c r="F4" s="1">
-        <v>0.10304143</v>
+        <v>3.915163E-2</v>
       </c>
       <c r="G4" s="1">
-        <v>4.4360299999999997E-3</v>
+        <v>1.077201E-2</v>
       </c>
       <c r="H4" s="1">
-        <v>4.429549E-2</v>
+        <v>4.9086680000000001E-2</v>
       </c>
       <c r="I4" s="1">
-        <v>0.95126847999999997</v>
+        <v>0.94014129999999996</v>
       </c>
       <c r="J4" s="1">
         <f t="shared" si="0"/>
-        <v>0.91236932416524852</v>
+        <v>0.92942001473136604</v>
       </c>
       <c r="K4" s="1">
         <f t="shared" si="1"/>
-        <v>6.9405470657784823E-2</v>
+        <v>6.3934127549898953E-2</v>
       </c>
       <c r="L4" s="1">
         <f t="shared" si="2"/>
-        <v>1.8225205176966675E-2</v>
+        <v>6.6458577187350132E-3</v>
       </c>
       <c r="M4" s="1">
         <f t="shared" si="3"/>
-        <v>2.4589150554291717E-2</v>
+        <v>6.158941950693967E-2</v>
       </c>
       <c r="N4" s="1">
         <f t="shared" si="4"/>
-        <v>0.15636394337516177</v>
+        <v>0.1230475698039151</v>
       </c>
       <c r="O4" s="1">
         <f t="shared" si="5"/>
-        <v>0.81904690607054642</v>
+        <v>0.81536301068914518</v>
       </c>
       <c r="P4" s="1">
         <f t="shared" si="6"/>
-        <v>0.91541602574897274</v>
+        <v>0.92361750594707082</v>
       </c>
       <c r="Q4" s="1">
         <f t="shared" si="7"/>
-        <v>6.3409517871768323E-2</v>
+        <v>6.7484448741228775E-2</v>
       </c>
       <c r="R4" s="1">
         <f t="shared" si="8"/>
-        <v>2.1174456379258917E-2</v>
+        <v>8.8980453117004712E-3</v>
       </c>
       <c r="S4" s="1">
         <f t="shared" si="9"/>
-        <v>2.2045348870968092E-2</v>
+        <v>4.771332258451931E-2</v>
       </c>
       <c r="T4" s="1">
         <f t="shared" si="10"/>
-        <v>0.12765063384743683</v>
+        <v>0.10125055597037783</v>
       </c>
       <c r="U4" s="1">
         <f t="shared" si="11"/>
-        <v>0.8503040172815951</v>
+        <v>0.85103612144510288</v>
       </c>
       <c r="V4" t="s">
         <v>30</v>
@@ -878,70 +885,70 @@
       <c r="B5" s="7"/>
       <c r="C5" s="5"/>
       <c r="D5" s="1">
-        <v>0.73145291999999995</v>
+        <v>0.75097910000000001</v>
       </c>
       <c r="E5" s="1">
-        <v>0.14314835000000001</v>
+        <v>0.19929532</v>
       </c>
       <c r="F5" s="1">
-        <v>0.12539873000000001</v>
+        <v>4.972559E-2</v>
       </c>
       <c r="G5" s="1">
-        <v>5.8562099999999997E-3</v>
+        <v>1.3396379999999999E-2</v>
       </c>
       <c r="H5" s="1">
-        <v>6.5718639999999995E-2</v>
+        <v>7.3050970000000007E-2</v>
       </c>
       <c r="I5" s="1">
-        <v>0.92842515999999997</v>
+        <v>0.91355264999999997</v>
       </c>
       <c r="J5" s="1">
         <f t="shared" si="0"/>
-        <v>0.86861270464631224</v>
+        <v>0.88778832279304798</v>
       </c>
       <c r="K5" s="1">
         <f t="shared" si="1"/>
-        <v>0.10825655395677232</v>
+        <v>0.10329485650911895</v>
       </c>
       <c r="L5" s="1">
         <f t="shared" si="2"/>
-        <v>2.3130741396915389E-2</v>
+        <v>8.9168206978331548E-3</v>
       </c>
       <c r="M5" s="1">
         <f t="shared" si="3"/>
-        <v>3.051365649312161E-2</v>
+        <v>7.2807122474511737E-2</v>
       </c>
       <c r="N5" s="1">
         <f t="shared" si="4"/>
-        <v>0.21806915019000206</v>
+        <v>0.17406538472445299</v>
       </c>
       <c r="O5" s="1">
         <f t="shared" si="5"/>
-        <v>0.7514171933168764</v>
+        <v>0.7531274928010353</v>
       </c>
       <c r="P5" s="1">
         <f t="shared" si="6"/>
-        <v>0.87388031902687213</v>
+        <v>0.87941817942842448</v>
       </c>
       <c r="Q5" s="1">
         <f t="shared" si="7"/>
-        <v>9.9172872140111626E-2</v>
+        <v>0.10868147746082769</v>
       </c>
       <c r="R5" s="1">
         <f t="shared" si="8"/>
-        <v>2.6946808833016197E-2</v>
+        <v>1.1900343110747913E-2</v>
       </c>
       <c r="S5" s="1">
         <f t="shared" si="9"/>
-        <v>2.7760163773562455E-2</v>
+        <v>5.722123537454548E-2</v>
       </c>
       <c r="T5" s="1">
         <f t="shared" si="10"/>
-        <v>0.18064873030544243</v>
+        <v>0.14530702241030038</v>
       </c>
       <c r="U5" s="1">
         <f t="shared" si="11"/>
-        <v>0.79159110592099513</v>
+        <v>0.79747174221515404</v>
       </c>
       <c r="V5" t="s">
         <v>31</v>
@@ -949,79 +956,79 @@
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>0.86099999999999999</v>
+        <v>0.74</v>
       </c>
       <c r="B6" s="1">
-        <v>0.78400000000000003</v>
+        <v>0.78600000000000003</v>
       </c>
       <c r="C6" s="2">
         <v>0.997</v>
       </c>
       <c r="D6" s="1">
-        <v>0.65427932</v>
+        <v>0.64553413999999998</v>
       </c>
       <c r="E6" s="1">
-        <v>0.19056144999999999</v>
+        <v>0.27814052</v>
       </c>
       <c r="F6" s="1">
-        <v>0.15515923000000001</v>
+        <v>7.6325340000000005E-2</v>
       </c>
       <c r="G6" s="1">
-        <v>7.4547499999999996E-3</v>
+        <v>1.632163E-2</v>
       </c>
       <c r="H6" s="1">
-        <v>8.6217299999999997E-2</v>
+        <v>9.5844170000000006E-2</v>
       </c>
       <c r="I6" s="1">
-        <v>0.90632794999999999</v>
+        <v>0.88783420000000002</v>
       </c>
       <c r="J6" s="1">
         <f t="shared" si="0"/>
-        <v>0.81811832084080205</v>
+        <v>0.82860986805186931</v>
       </c>
       <c r="K6" s="1">
         <f t="shared" si="1"/>
-        <v>0.1517455716734526</v>
+        <v>0.15652912817610878</v>
       </c>
       <c r="L6" s="1">
         <f t="shared" si="2"/>
-        <v>3.0136107485745276E-2</v>
+        <v>1.4861003772021838E-2</v>
       </c>
       <c r="M6" s="1">
         <f t="shared" si="3"/>
-        <v>3.6697341142917783E-2</v>
+        <v>8.4561231891074354E-2</v>
       </c>
       <c r="N6" s="1">
         <f t="shared" si="4"/>
-        <v>0.27028627091942903</v>
+        <v>0.21770755077787377</v>
       </c>
       <c r="O6" s="1">
         <f t="shared" si="5"/>
-        <v>0.6930163879376533</v>
+        <v>0.69773121733105192</v>
       </c>
       <c r="P6" s="1">
         <f t="shared" si="6"/>
-        <v>0.82539047916358732</v>
+        <v>0.81645177805220448</v>
       </c>
       <c r="Q6" s="1">
         <f t="shared" si="7"/>
-        <v>0.13940304943292212</v>
+        <v>0.16381981484863628</v>
       </c>
       <c r="R6" s="1">
         <f t="shared" si="8"/>
-        <v>3.5206471403490591E-2</v>
+        <v>1.9728407099159205E-2</v>
       </c>
       <c r="S6" s="1">
         <f t="shared" si="9"/>
-        <v>3.3813270049172256E-2</v>
+        <v>6.7333684058510229E-2</v>
       </c>
       <c r="T6" s="1">
         <f t="shared" si="10"/>
-        <v>0.22677202151903361</v>
+        <v>0.18413035649857992</v>
       </c>
       <c r="U6" s="1">
         <f t="shared" si="11"/>
-        <v>0.73941470843179413</v>
+        <v>0.74853595944290996</v>
       </c>
       <c r="V6" t="s">
         <v>32</v>
@@ -1029,70 +1036,70 @@
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="D7" s="1">
-        <v>0.56853924</v>
+        <v>0.35668304000000001</v>
       </c>
       <c r="E7" s="1">
-        <v>0.23722424</v>
+        <v>0.35481575999999998</v>
       </c>
       <c r="F7" s="1">
-        <v>0.19423652</v>
+        <v>0.28850120000000001</v>
       </c>
       <c r="G7" s="1">
-        <v>9.1693799999999995E-3</v>
+        <v>1.7234630000000001E-2</v>
       </c>
       <c r="H7" s="1">
-        <v>0.10547285000000001</v>
+        <v>0.10672426</v>
       </c>
       <c r="I7" s="1">
-        <v>0.88535777000000004</v>
+        <v>0.87604110999999996</v>
       </c>
       <c r="J7" s="1">
         <f t="shared" si="0"/>
-        <v>0.75827153259019775</v>
+        <v>0.64150850268502524</v>
       </c>
       <c r="K7" s="1">
         <f t="shared" si="1"/>
-        <v>0.20148903821583339</v>
+        <v>0.27978400191428915</v>
       </c>
       <c r="L7" s="1">
         <f t="shared" si="2"/>
-        <v>4.0239429193968848E-2</v>
+        <v>7.8707495400685612E-2</v>
       </c>
       <c r="M7" s="1">
         <f t="shared" si="3"/>
-        <v>4.2875342352525658E-2</v>
+        <v>8.7525500205166723E-2</v>
       </c>
       <c r="N7" s="1">
         <f t="shared" si="4"/>
-        <v>0.31407716604932523</v>
+        <v>0.23762701244362117</v>
       </c>
       <c r="O7" s="1">
         <f t="shared" si="5"/>
-        <v>0.64304749159814911</v>
+        <v>0.67484748735121214</v>
       </c>
       <c r="P7" s="1">
         <f t="shared" si="6"/>
-        <v>0.76721984087421335</v>
+        <v>0.61404422114979018</v>
       </c>
       <c r="Q7" s="1">
         <f t="shared" si="7"/>
-        <v>0.18563480610262537</v>
+        <v>0.28445327329652098</v>
       </c>
       <c r="R7" s="1">
         <f t="shared" si="8"/>
-        <v>4.7145353023161182E-2</v>
+        <v>0.10150250555368885</v>
       </c>
       <c r="S7" s="1">
         <f t="shared" si="9"/>
-        <v>3.9940330329358377E-2</v>
+        <v>7.0068376411593747E-2</v>
       </c>
       <c r="T7" s="1">
         <f t="shared" si="10"/>
-        <v>0.26641171998306762</v>
+        <v>0.20205708678790041</v>
       </c>
       <c r="U7" s="1">
         <f t="shared" si="11"/>
-        <v>0.69364794968757393</v>
+        <v>0.72787453680050584</v>
       </c>
       <c r="V7" t="s">
         <v>33</v>
@@ -1100,70 +1107,70 @@
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="D8" s="1">
-        <v>0.47715423000000001</v>
+        <v>0.26492953000000002</v>
       </c>
       <c r="E8" s="1">
-        <v>0.28133485000000003</v>
+        <v>0.41199217999999999</v>
       </c>
       <c r="F8" s="1">
-        <v>0.24151091999999999</v>
+        <v>0.32307828999999999</v>
       </c>
       <c r="G8" s="1">
-        <v>1.0943029999999999E-2</v>
+        <v>1.8717000000000001E-2</v>
       </c>
       <c r="H8" s="1">
-        <v>0.12347532999999999</v>
+        <v>0.13035738999999999</v>
       </c>
       <c r="I8" s="1">
-        <v>0.86558164000000004</v>
+        <v>0.85092561</v>
       </c>
       <c r="J8" s="1">
         <f t="shared" si="0"/>
-        <v>0.68770802416101084</v>
+        <v>0.53568089029360766</v>
       </c>
       <c r="K8" s="1">
         <f t="shared" si="1"/>
-        <v>0.25822417546771781</v>
+        <v>0.365228597902365</v>
       </c>
       <c r="L8" s="1">
         <f t="shared" si="2"/>
-        <v>5.4067800371271249E-2</v>
+        <v>9.909051180402742E-2</v>
       </c>
       <c r="M8" s="1">
         <f t="shared" si="3"/>
-        <v>4.8846742292356422E-2</v>
+        <v>9.1327406789625781E-2</v>
       </c>
       <c r="N8" s="1">
         <f t="shared" si="4"/>
-        <v>0.35099931043773164</v>
+        <v>0.27886920643594454</v>
       </c>
       <c r="O8" s="1">
         <f t="shared" si="5"/>
-        <v>0.60015394726991178</v>
+        <v>0.6298033867744296</v>
       </c>
       <c r="P8" s="1">
         <f t="shared" si="6"/>
-        <v>0.6978639635793169</v>
+        <v>0.5067374333838639</v>
       </c>
       <c r="Q8" s="1">
         <f t="shared" si="7"/>
-        <v>0.23860332512454935</v>
+        <v>0.36697158357989185</v>
       </c>
       <c r="R8" s="1">
         <f t="shared" si="8"/>
-        <v>6.3532711296133762E-2</v>
+        <v>0.12629098303624417</v>
       </c>
       <c r="S8" s="1">
         <f t="shared" si="9"/>
-        <v>4.5934164680530305E-2</v>
+        <v>7.388565431436131E-2</v>
       </c>
       <c r="T8" s="1">
         <f t="shared" si="10"/>
-        <v>0.300551841112153</v>
+        <v>0.23963507460911918</v>
       </c>
       <c r="U8" s="1">
         <f t="shared" si="11"/>
-        <v>0.6535139942073166</v>
+        <v>0.68647927107651963</v>
       </c>
       <c r="V8" t="s">
         <v>34</v>
@@ -1171,287 +1178,149 @@
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="D9" s="1">
-        <v>0.38671313000000002</v>
+        <v>0.19046214</v>
       </c>
       <c r="E9" s="1">
-        <v>0.32067572</v>
+        <v>0.46506388999999998</v>
       </c>
       <c r="F9" s="1">
-        <v>0.29261114999999999</v>
+        <v>0.34447398000000001</v>
       </c>
       <c r="G9" s="1">
-        <v>1.277593E-2</v>
+        <v>1.9720939999999999E-2</v>
       </c>
       <c r="H9" s="1">
-        <v>0.140821</v>
+        <v>0.16017997</v>
       </c>
       <c r="I9" s="1">
-        <v>0.84640307000000004</v>
+        <v>0.82009909000000003</v>
       </c>
       <c r="J9" s="1">
         <f t="shared" si="0"/>
-        <v>0.6076739468672171</v>
+        <v>0.42645975124239366</v>
       </c>
       <c r="K9" s="1">
         <f t="shared" si="1"/>
-        <v>0.32090451712893703</v>
+        <v>0.45654335710508342</v>
       </c>
       <c r="L9" s="1">
         <f t="shared" si="2"/>
-        <v>7.1421536003845945E-2</v>
+        <v>0.1169968916525229</v>
       </c>
       <c r="M9" s="1">
         <f t="shared" si="3"/>
-        <v>5.4614777553050761E-2</v>
+        <v>9.2004732249434978E-2</v>
       </c>
       <c r="N9" s="1">
         <f t="shared" si="4"/>
-        <v>0.38336558396544168</v>
+        <v>0.32763537035539414</v>
       </c>
       <c r="O9" s="1">
         <f t="shared" si="5"/>
-        <v>0.5620196384815076</v>
+        <v>0.5803598973951708</v>
       </c>
       <c r="P9" s="1">
         <f t="shared" si="6"/>
-        <v>0.61844561667419706</v>
+        <v>0.39892871278773712</v>
       </c>
       <c r="Q9" s="1">
         <f t="shared" si="7"/>
-        <v>0.29738539802643132</v>
+        <v>0.45361781332011319</v>
       </c>
       <c r="R9" s="1">
         <f t="shared" si="8"/>
-        <v>8.4168985299371668E-2</v>
+        <v>0.14745347389214972</v>
       </c>
       <c r="S9" s="1">
         <f t="shared" si="9"/>
-        <v>5.1792619899495872E-2</v>
+        <v>7.5294974361397135E-2</v>
       </c>
       <c r="T9" s="1">
         <f t="shared" si="10"/>
-        <v>0.33104249340457692</v>
+        <v>0.28479832503111707</v>
       </c>
       <c r="U9" s="1">
         <f t="shared" si="11"/>
-        <v>0.61716488669592717</v>
+        <v>0.63990670060748578</v>
       </c>
       <c r="V9" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="D10" s="1">
-        <v>0.30204013000000002</v>
-      </c>
-      <c r="E10" s="1">
-        <v>0.35333653999999998</v>
-      </c>
-      <c r="F10" s="1">
-        <v>0.34462333000000001</v>
-      </c>
-      <c r="G10" s="1">
-        <v>1.4726400000000001E-2</v>
-      </c>
-      <c r="H10" s="1">
-        <v>0.15850444</v>
-      </c>
-      <c r="I10" s="1">
-        <v>0.82676916</v>
-      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
       <c r="J10" s="1">
-        <f t="shared" si="0"/>
-        <v>0.52023117870878055</v>
+        <v>0.25</v>
       </c>
       <c r="K10" s="1">
-        <f t="shared" si="1"/>
-        <v>0.38756837593028998</v>
+        <v>0.5</v>
       </c>
       <c r="L10" s="1">
-        <f t="shared" si="2"/>
-        <v>9.2200445360929403E-2</v>
+        <v>0.25</v>
       </c>
       <c r="M10" s="1">
-        <f t="shared" si="3"/>
-        <v>6.033177865984491E-2</v>
+        <v>0.05</v>
       </c>
       <c r="N10" s="1">
-        <f t="shared" si="4"/>
-        <v>0.41354142623625306</v>
+        <v>0.32</v>
       </c>
       <c r="O10" s="1">
-        <f t="shared" si="5"/>
-        <v>0.52612679510390192</v>
-      </c>
-      <c r="P10" s="1">
-        <f t="shared" si="6"/>
-        <v>0.5309006819304124</v>
-      </c>
-      <c r="Q10" s="1">
-        <f t="shared" si="7"/>
-        <v>0.36014563092996288</v>
-      </c>
-      <c r="R10" s="1">
-        <f t="shared" si="8"/>
-        <v>0.10895368713962472</v>
-      </c>
-      <c r="S10" s="1">
-        <f t="shared" si="9"/>
-        <v>5.7671869367282906E-2</v>
-      </c>
-      <c r="T10" s="1">
-        <f t="shared" si="10"/>
-        <v>0.35995634404014998</v>
-      </c>
-      <c r="U10" s="1">
-        <f t="shared" si="11"/>
-        <v>0.58237178659256716</v>
-      </c>
+        <v>0.63</v>
+      </c>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
       <c r="V10" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="D11" s="1">
-        <v>0.22484456</v>
-      </c>
-      <c r="E11" s="1">
-        <v>0.37722371999999998</v>
-      </c>
-      <c r="F11" s="1">
-        <v>0.39793171999999999</v>
-      </c>
-      <c r="G11" s="1">
-        <v>1.691051E-2</v>
-      </c>
-      <c r="H11" s="1">
-        <v>0.17791449000000001</v>
-      </c>
-      <c r="I11" s="1">
-        <v>0.80517499000000003</v>
-      </c>
-      <c r="J11" s="1">
-        <f t="shared" ref="J11" si="12">(P11/$A$6)/((P11/$A$6)+(Q11/$B$6)+(R11/$C$6))</f>
-        <v>0.42674284368348075</v>
-      </c>
-      <c r="K11" s="1">
-        <f t="shared" ref="K11" si="13">(Q11/$B$6)/((P11/$A$6)+(Q11/$B$6)+(R11/$C$6))</f>
-        <v>0.45594337394650514</v>
-      </c>
-      <c r="L11" s="1">
-        <f t="shared" ref="L11" si="14">(R11/$C$6)/((P11/$A$6)+(Q11/$B$6)+(R11/$C$6))</f>
-        <v>0.11731378237001396</v>
-      </c>
-      <c r="M11" s="1">
-        <f t="shared" ref="M11" si="15">(S11/$A$6)/((S11/$A$6)+(T11/$B$6)+(U11/$C$6))</f>
-        <v>6.6242682751183279E-2</v>
-      </c>
-      <c r="N11" s="1">
-        <f t="shared" ref="N11" si="16">(T11/$B$6)/((S11/$A$6)+(T11/$B$6)+(U11/$C$6))</f>
-        <v>0.44383401156339886</v>
-      </c>
-      <c r="O11" s="1">
-        <f t="shared" ref="O11" si="17">(U11/$C$6)/((S11/$A$6)+(T11/$B$6)+(U11/$C$6))</f>
-        <v>0.48992330568541781</v>
-      </c>
-      <c r="P11" s="1">
-        <f t="shared" ref="P11" si="18">(D11*$A$4)/((D11*$A$4)+(E11*$B$4)+(F11*$C$4))</f>
-        <v>0.4364517225892155</v>
-      </c>
-      <c r="Q11" s="1">
-        <f t="shared" ref="Q11" si="19">(E11*$B$4)/((D11*$A$4)+(E11*$B$4)+(F11*$C$4))</f>
-        <v>0.4246134873425329</v>
-      </c>
-      <c r="R11" s="1">
-        <f t="shared" ref="R11" si="20">(F11*$C$4)/((D11*$A$4)+(E11*$B$4)+(F11*$C$4))</f>
-        <v>0.13893479006825166</v>
-      </c>
-      <c r="S11" s="1">
-        <f t="shared" ref="S11" si="21">(G11*$A$4)/((G11*$A$4)+(H11*$B$4)+(I11*$C$4))</f>
-        <v>6.3836445370912404E-2</v>
-      </c>
-      <c r="T11" s="1">
-        <f t="shared" ref="T11" si="22">(H11*$B$4)/((G11*$A$4)+(H11*$B$4)+(I11*$C$4))</f>
-        <v>0.38946126883792881</v>
-      </c>
-      <c r="U11" s="1">
-        <f t="shared" ref="U11" si="23">(I11*$C$4)/((G11*$A$4)+(H11*$B$4)+(I11*$C$4))</f>
-        <v>0.54670228579115887</v>
-      </c>
-      <c r="V11" t="s">
-        <v>37</v>
-      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="D12" s="1">
-        <v>0.15581490000000001</v>
-      </c>
-      <c r="E12" s="1">
-        <v>0.38922275000000001</v>
-      </c>
-      <c r="F12" s="1">
-        <v>0.45496236000000001</v>
-      </c>
-      <c r="G12" s="1">
-        <v>1.9652340000000001E-2</v>
-      </c>
-      <c r="H12" s="1">
-        <v>0.20190653</v>
-      </c>
-      <c r="I12" s="1">
-        <v>0.77844111999999999</v>
-      </c>
-      <c r="J12" s="1">
-        <f t="shared" ref="J12" si="24">(P12/$A$6)/((P12/$A$6)+(Q12/$B$6)+(R12/$C$6))</f>
-        <v>0.32847690421180842</v>
-      </c>
-      <c r="K12" s="1">
-        <f t="shared" ref="K12" si="25">(Q12/$B$6)/((P12/$A$6)+(Q12/$B$6)+(R12/$C$6))</f>
-        <v>0.5225431068996319</v>
-      </c>
-      <c r="L12" s="1">
-        <f t="shared" ref="L12" si="26">(R12/$C$6)/((P12/$A$6)+(Q12/$B$6)+(R12/$C$6))</f>
-        <v>0.14897998888855954</v>
-      </c>
-      <c r="M12" s="1">
-        <f t="shared" ref="M12" si="27">(S12/$A$6)/((S12/$A$6)+(T12/$B$6)+(U12/$C$6))</f>
-        <v>7.3016464428022093E-2</v>
-      </c>
-      <c r="N12" s="1">
-        <f t="shared" ref="N12" si="28">(T12/$B$6)/((S12/$A$6)+(T12/$B$6)+(U12/$C$6))</f>
-        <v>0.47773267735943864</v>
-      </c>
-      <c r="O12" s="1">
-        <f t="shared" ref="O12" si="29">(U12/$C$6)/((S12/$A$6)+(T12/$B$6)+(U12/$C$6))</f>
-        <v>0.44925085821253929</v>
-      </c>
-      <c r="P12" s="1">
-        <f t="shared" ref="P12" si="30">(D12*$A$4)/((D12*$A$4)+(E12*$B$4)+(F12*$C$4))</f>
-        <v>0.33627830336554781</v>
-      </c>
-      <c r="Q12" s="1">
-        <f t="shared" ref="Q12" si="31">(E12*$B$4)/((D12*$A$4)+(E12*$B$4)+(F12*$C$4))</f>
-        <v>0.48711224053901658</v>
-      </c>
-      <c r="R12" s="1">
-        <f t="shared" ref="R12" si="32">(F12*$C$4)/((D12*$A$4)+(E12*$B$4)+(F12*$C$4))</f>
-        <v>0.17660945609543571</v>
-      </c>
-      <c r="S12" s="1">
-        <f t="shared" ref="S12" si="33">(G12*$A$4)/((G12*$A$4)+(H12*$B$4)+(I12*$C$4))</f>
-        <v>7.1011266225757833E-2</v>
-      </c>
-      <c r="T12" s="1">
-        <f t="shared" ref="T12" si="34">(H12*$B$4)/((G12*$A$4)+(H12*$B$4)+(I12*$C$4))</f>
-        <v>0.42306229066045065</v>
-      </c>
-      <c r="U12" s="1">
-        <f t="shared" ref="U12" si="35">(I12*$C$4)/((G12*$A$4)+(H12*$B$4)+(I12*$C$4))</f>
-        <v>0.50592644311379154</v>
-      </c>
-      <c r="V12" t="s">
-        <v>40</v>
-      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="D13" s="1"/>
@@ -1635,6 +1504,1083 @@
   <dimension ref="A1:V23"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.28515625" customWidth="1"/>
+    <col min="22" max="22" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.92784104000000001</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>7.2158959999999994E-2</v>
+      </c>
+      <c r="G2" s="1">
+        <v>2.2430900000000001E-3</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0.99775691</v>
+      </c>
+      <c r="J2" s="1">
+        <f>(P2/$A$6)/((P2/$A$6)+(Q2/$B$6)+(R2/$C$6))</f>
+        <v>0.98806401170738245</v>
+      </c>
+      <c r="K2" s="1">
+        <f>(Q2/$B$6)/((P2/$A$6)+(Q2/$B$6)+(R2/$C$6))</f>
+        <v>0</v>
+      </c>
+      <c r="L2" s="1">
+        <f>(R2/$C$6)/((P2/$A$6)+(Q2/$B$6)+(R2/$C$6))</f>
+        <v>1.193598829261755E-2</v>
+      </c>
+      <c r="M2" s="1">
+        <f>(S2/$A$6)/((S2/$A$6)+(T2/$B$6)+(U2/$C$6))</f>
+        <v>1.4266740099013756E-2</v>
+      </c>
+      <c r="N2" s="1">
+        <f>(T2/$B$6)/((S2/$A$6)+(T2/$B$6)+(U2/$C$6))</f>
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <f>(U2/$C$6)/((S2/$A$6)+(T2/$B$6)+(U2/$C$6))</f>
+        <v>0.98573325990098615</v>
+      </c>
+      <c r="P2" s="1">
+        <f>(D2*$A$4)/((D2*$A$4)+(E2*$B$4)+(F2*$C$4))</f>
+        <v>0.9862046615192448</v>
+      </c>
+      <c r="Q2" s="1">
+        <f>(E2*$B$4)/((D2*$A$4)+(E2*$B$4)+(F2*$C$4))</f>
+        <v>0</v>
+      </c>
+      <c r="R2" s="1">
+        <f>(F2*$C$4)/((D2*$A$4)+(E2*$B$4)+(F2*$C$4))</f>
+        <v>1.3795338480755207E-2</v>
+      </c>
+      <c r="S2" s="1">
+        <f>(G2*$A$4)/((G2*$A$4)+(H2*$B$4)+(I2*$C$4))</f>
+        <v>1.2344649207526013E-2</v>
+      </c>
+      <c r="T2" s="1">
+        <f>(H2*$B$4)/((G2*$A$4)+(H2*$B$4)+(I2*$C$4))</f>
+        <v>0</v>
+      </c>
+      <c r="U2" s="1">
+        <f>(I2*$C$4)/((G2*$A$4)+(H2*$B$4)+(I2*$C$4))</f>
+        <v>0.98765535079247402</v>
+      </c>
+      <c r="V2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="1">
+        <v>0.86594227999999995</v>
+      </c>
+      <c r="E3" s="1">
+        <v>4.8194769999999998E-2</v>
+      </c>
+      <c r="F3" s="1">
+        <v>8.5862949999999993E-2</v>
+      </c>
+      <c r="G3" s="1">
+        <v>3.2285899999999999E-3</v>
+      </c>
+      <c r="H3" s="1">
+        <v>2.227258E-2</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0.97449883000000004</v>
+      </c>
+      <c r="J3" s="1">
+        <f t="shared" ref="J3:J10" si="0">(P3/$A$6)/((P3/$A$6)+(Q3/$B$6)+(R3/$C$6))</f>
+        <v>0.95161461422519067</v>
+      </c>
+      <c r="K3" s="1">
+        <f t="shared" ref="K3:K10" si="1">(Q3/$B$6)/((P3/$A$6)+(Q3/$B$6)+(R3/$C$6))</f>
+        <v>3.3728740414913097E-2</v>
+      </c>
+      <c r="L3" s="1">
+        <f t="shared" ref="L3:L10" si="2">(R3/$C$6)/((P3/$A$6)+(Q3/$B$6)+(R3/$C$6))</f>
+        <v>1.4656645359896166E-2</v>
+      </c>
+      <c r="M3" s="1">
+        <f t="shared" ref="M3:M10" si="3">(S3/$A$6)/((S3/$A$6)+(T3/$B$6)+(U3/$C$6))</f>
+        <v>1.912876545468413E-2</v>
+      </c>
+      <c r="N3" s="1">
+        <f t="shared" ref="N3:N10" si="4">(T3/$B$6)/((S3/$A$6)+(T3/$B$6)+(U3/$C$6))</f>
+        <v>8.403740340824814E-2</v>
+      </c>
+      <c r="O3" s="1">
+        <f t="shared" ref="O3:O10" si="5">(U3/$C$6)/((S3/$A$6)+(T3/$B$6)+(U3/$C$6))</f>
+        <v>0.89683383113706783</v>
+      </c>
+      <c r="P3" s="1">
+        <f t="shared" ref="P3:P10" si="6">(D3*$A$4)/((D3*$A$4)+(E3*$B$4)+(F3*$C$4))</f>
+        <v>0.95228243877627328</v>
+      </c>
+      <c r="Q3" s="1">
+        <f t="shared" ref="Q3:Q10" si="7">(E3*$B$4)/((D3*$A$4)+(E3*$B$4)+(F3*$C$4))</f>
+        <v>3.0733902322401481E-2</v>
+      </c>
+      <c r="R3" s="1">
+        <f t="shared" ref="R3:R10" si="8">(F3*$C$4)/((D3*$A$4)+(E3*$B$4)+(F3*$C$4))</f>
+        <v>1.6983658901325319E-2</v>
+      </c>
+      <c r="S3" s="1">
+        <f t="shared" ref="S3:S10" si="9">(G3*$A$4)/((G3*$A$4)+(H3*$B$4)+(I3*$C$4))</f>
+        <v>1.6866248850111478E-2</v>
+      </c>
+      <c r="T3" s="1">
+        <f t="shared" ref="T3:T10" si="10">(H3*$B$4)/((G3*$A$4)+(H3*$B$4)+(I3*$C$4))</f>
+        <v>6.7470992384577114E-2</v>
+      </c>
+      <c r="U3" s="1">
+        <f t="shared" ref="U3:U10" si="11">(I3*$C$4)/((G3*$A$4)+(H3*$B$4)+(I3*$C$4))</f>
+        <v>0.91566275876531134</v>
+      </c>
+      <c r="V3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>100.158</v>
+      </c>
+      <c r="B4" s="1">
+        <v>58.08</v>
+      </c>
+      <c r="C4" s="2">
+        <v>18.015000000000001</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.80124759999999995</v>
+      </c>
+      <c r="E4" s="1">
+        <v>9.5710970000000006E-2</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.10304143</v>
+      </c>
+      <c r="G4" s="1">
+        <v>4.4360299999999997E-3</v>
+      </c>
+      <c r="H4" s="1">
+        <v>4.429549E-2</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0.95126847999999997</v>
+      </c>
+      <c r="J4" s="1">
+        <f t="shared" si="0"/>
+        <v>0.91236932416524852</v>
+      </c>
+      <c r="K4" s="1">
+        <f t="shared" si="1"/>
+        <v>6.9405470657784823E-2</v>
+      </c>
+      <c r="L4" s="1">
+        <f t="shared" si="2"/>
+        <v>1.8225205176966675E-2</v>
+      </c>
+      <c r="M4" s="1">
+        <f t="shared" si="3"/>
+        <v>2.4589150554291717E-2</v>
+      </c>
+      <c r="N4" s="1">
+        <f t="shared" si="4"/>
+        <v>0.15636394337516177</v>
+      </c>
+      <c r="O4" s="1">
+        <f t="shared" si="5"/>
+        <v>0.81904690607054642</v>
+      </c>
+      <c r="P4" s="1">
+        <f t="shared" si="6"/>
+        <v>0.91541602574897274</v>
+      </c>
+      <c r="Q4" s="1">
+        <f t="shared" si="7"/>
+        <v>6.3409517871768323E-2</v>
+      </c>
+      <c r="R4" s="1">
+        <f t="shared" si="8"/>
+        <v>2.1174456379258917E-2</v>
+      </c>
+      <c r="S4" s="1">
+        <f t="shared" si="9"/>
+        <v>2.2045348870968092E-2</v>
+      </c>
+      <c r="T4" s="1">
+        <f t="shared" si="10"/>
+        <v>0.12765063384743683</v>
+      </c>
+      <c r="U4" s="1">
+        <f t="shared" si="11"/>
+        <v>0.8503040172815951</v>
+      </c>
+      <c r="V4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="1">
+        <v>0.73145291999999995</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.14314835000000001</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.12539873000000001</v>
+      </c>
+      <c r="G5" s="1">
+        <v>5.8562099999999997E-3</v>
+      </c>
+      <c r="H5" s="1">
+        <v>6.5718639999999995E-2</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0.92842515999999997</v>
+      </c>
+      <c r="J5" s="1">
+        <f t="shared" si="0"/>
+        <v>0.86861270464631224</v>
+      </c>
+      <c r="K5" s="1">
+        <f t="shared" si="1"/>
+        <v>0.10825655395677232</v>
+      </c>
+      <c r="L5" s="1">
+        <f t="shared" si="2"/>
+        <v>2.3130741396915389E-2</v>
+      </c>
+      <c r="M5" s="1">
+        <f t="shared" si="3"/>
+        <v>3.051365649312161E-2</v>
+      </c>
+      <c r="N5" s="1">
+        <f t="shared" si="4"/>
+        <v>0.21806915019000206</v>
+      </c>
+      <c r="O5" s="1">
+        <f t="shared" si="5"/>
+        <v>0.7514171933168764</v>
+      </c>
+      <c r="P5" s="1">
+        <f t="shared" si="6"/>
+        <v>0.87388031902687213</v>
+      </c>
+      <c r="Q5" s="1">
+        <f t="shared" si="7"/>
+        <v>9.9172872140111626E-2</v>
+      </c>
+      <c r="R5" s="1">
+        <f t="shared" si="8"/>
+        <v>2.6946808833016197E-2</v>
+      </c>
+      <c r="S5" s="1">
+        <f t="shared" si="9"/>
+        <v>2.7760163773562455E-2</v>
+      </c>
+      <c r="T5" s="1">
+        <f t="shared" si="10"/>
+        <v>0.18064873030544243</v>
+      </c>
+      <c r="U5" s="1">
+        <f t="shared" si="11"/>
+        <v>0.79159110592099513</v>
+      </c>
+      <c r="V5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>0.86099999999999999</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.78400000000000003</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.997</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.65427932</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.19056144999999999</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.15515923000000001</v>
+      </c>
+      <c r="G6" s="1">
+        <v>7.4547499999999996E-3</v>
+      </c>
+      <c r="H6" s="1">
+        <v>8.6217299999999997E-2</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0.90632794999999999</v>
+      </c>
+      <c r="J6" s="1">
+        <f t="shared" si="0"/>
+        <v>0.81811832084080205</v>
+      </c>
+      <c r="K6" s="1">
+        <f t="shared" si="1"/>
+        <v>0.1517455716734526</v>
+      </c>
+      <c r="L6" s="1">
+        <f t="shared" si="2"/>
+        <v>3.0136107485745276E-2</v>
+      </c>
+      <c r="M6" s="1">
+        <f t="shared" si="3"/>
+        <v>3.6697341142917783E-2</v>
+      </c>
+      <c r="N6" s="1">
+        <f t="shared" si="4"/>
+        <v>0.27028627091942903</v>
+      </c>
+      <c r="O6" s="1">
+        <f t="shared" si="5"/>
+        <v>0.6930163879376533</v>
+      </c>
+      <c r="P6" s="1">
+        <f t="shared" si="6"/>
+        <v>0.82539047916358732</v>
+      </c>
+      <c r="Q6" s="1">
+        <f t="shared" si="7"/>
+        <v>0.13940304943292212</v>
+      </c>
+      <c r="R6" s="1">
+        <f t="shared" si="8"/>
+        <v>3.5206471403490591E-2</v>
+      </c>
+      <c r="S6" s="1">
+        <f t="shared" si="9"/>
+        <v>3.3813270049172256E-2</v>
+      </c>
+      <c r="T6" s="1">
+        <f t="shared" si="10"/>
+        <v>0.22677202151903361</v>
+      </c>
+      <c r="U6" s="1">
+        <f t="shared" si="11"/>
+        <v>0.73941470843179413</v>
+      </c>
+      <c r="V6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="D7" s="1">
+        <v>0.56853924</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.23722424</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.19423652</v>
+      </c>
+      <c r="G7" s="1">
+        <v>9.1693799999999995E-3</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0.10547285000000001</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0.88535777000000004</v>
+      </c>
+      <c r="J7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.75827153259019775</v>
+      </c>
+      <c r="K7" s="1">
+        <f t="shared" si="1"/>
+        <v>0.20148903821583339</v>
+      </c>
+      <c r="L7" s="1">
+        <f t="shared" si="2"/>
+        <v>4.0239429193968848E-2</v>
+      </c>
+      <c r="M7" s="1">
+        <f t="shared" si="3"/>
+        <v>4.2875342352525658E-2</v>
+      </c>
+      <c r="N7" s="1">
+        <f t="shared" si="4"/>
+        <v>0.31407716604932523</v>
+      </c>
+      <c r="O7" s="1">
+        <f t="shared" si="5"/>
+        <v>0.64304749159814911</v>
+      </c>
+      <c r="P7" s="1">
+        <f t="shared" si="6"/>
+        <v>0.76721984087421335</v>
+      </c>
+      <c r="Q7" s="1">
+        <f t="shared" si="7"/>
+        <v>0.18563480610262537</v>
+      </c>
+      <c r="R7" s="1">
+        <f t="shared" si="8"/>
+        <v>4.7145353023161182E-2</v>
+      </c>
+      <c r="S7" s="1">
+        <f t="shared" si="9"/>
+        <v>3.9940330329358377E-2</v>
+      </c>
+      <c r="T7" s="1">
+        <f t="shared" si="10"/>
+        <v>0.26641171998306762</v>
+      </c>
+      <c r="U7" s="1">
+        <f t="shared" si="11"/>
+        <v>0.69364794968757393</v>
+      </c>
+      <c r="V7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="D8" s="1">
+        <v>0.47715423000000001</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.28133485000000003</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.24151091999999999</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1.0943029999999999E-2</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0.12347532999999999</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0.86558164000000004</v>
+      </c>
+      <c r="J8" s="1">
+        <f t="shared" si="0"/>
+        <v>0.68770802416101084</v>
+      </c>
+      <c r="K8" s="1">
+        <f t="shared" si="1"/>
+        <v>0.25822417546771781</v>
+      </c>
+      <c r="L8" s="1">
+        <f t="shared" si="2"/>
+        <v>5.4067800371271249E-2</v>
+      </c>
+      <c r="M8" s="1">
+        <f t="shared" si="3"/>
+        <v>4.8846742292356422E-2</v>
+      </c>
+      <c r="N8" s="1">
+        <f t="shared" si="4"/>
+        <v>0.35099931043773164</v>
+      </c>
+      <c r="O8" s="1">
+        <f t="shared" si="5"/>
+        <v>0.60015394726991178</v>
+      </c>
+      <c r="P8" s="1">
+        <f t="shared" si="6"/>
+        <v>0.6978639635793169</v>
+      </c>
+      <c r="Q8" s="1">
+        <f t="shared" si="7"/>
+        <v>0.23860332512454935</v>
+      </c>
+      <c r="R8" s="1">
+        <f t="shared" si="8"/>
+        <v>6.3532711296133762E-2</v>
+      </c>
+      <c r="S8" s="1">
+        <f t="shared" si="9"/>
+        <v>4.5934164680530305E-2</v>
+      </c>
+      <c r="T8" s="1">
+        <f t="shared" si="10"/>
+        <v>0.300551841112153</v>
+      </c>
+      <c r="U8" s="1">
+        <f t="shared" si="11"/>
+        <v>0.6535139942073166</v>
+      </c>
+      <c r="V8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="D9" s="1">
+        <v>0.38671313000000002</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.32067572</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.29261114999999999</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1.277593E-2</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0.140821</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0.84640307000000004</v>
+      </c>
+      <c r="J9" s="1">
+        <f t="shared" si="0"/>
+        <v>0.6076739468672171</v>
+      </c>
+      <c r="K9" s="1">
+        <f t="shared" si="1"/>
+        <v>0.32090451712893703</v>
+      </c>
+      <c r="L9" s="1">
+        <f t="shared" si="2"/>
+        <v>7.1421536003845945E-2</v>
+      </c>
+      <c r="M9" s="1">
+        <f t="shared" si="3"/>
+        <v>5.4614777553050761E-2</v>
+      </c>
+      <c r="N9" s="1">
+        <f t="shared" si="4"/>
+        <v>0.38336558396544168</v>
+      </c>
+      <c r="O9" s="1">
+        <f t="shared" si="5"/>
+        <v>0.5620196384815076</v>
+      </c>
+      <c r="P9" s="1">
+        <f t="shared" si="6"/>
+        <v>0.61844561667419706</v>
+      </c>
+      <c r="Q9" s="1">
+        <f t="shared" si="7"/>
+        <v>0.29738539802643132</v>
+      </c>
+      <c r="R9" s="1">
+        <f t="shared" si="8"/>
+        <v>8.4168985299371668E-2</v>
+      </c>
+      <c r="S9" s="1">
+        <f t="shared" si="9"/>
+        <v>5.1792619899495872E-2</v>
+      </c>
+      <c r="T9" s="1">
+        <f t="shared" si="10"/>
+        <v>0.33104249340457692</v>
+      </c>
+      <c r="U9" s="1">
+        <f t="shared" si="11"/>
+        <v>0.61716488669592717</v>
+      </c>
+      <c r="V9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="D10" s="1">
+        <v>0.30204013000000002</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.35333653999999998</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.34462333000000001</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1.4726400000000001E-2</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0.15850444</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0.82676916</v>
+      </c>
+      <c r="J10" s="1">
+        <f t="shared" si="0"/>
+        <v>0.52023117870878055</v>
+      </c>
+      <c r="K10" s="1">
+        <f t="shared" si="1"/>
+        <v>0.38756837593028998</v>
+      </c>
+      <c r="L10" s="1">
+        <f t="shared" si="2"/>
+        <v>9.2200445360929403E-2</v>
+      </c>
+      <c r="M10" s="1">
+        <f t="shared" si="3"/>
+        <v>6.033177865984491E-2</v>
+      </c>
+      <c r="N10" s="1">
+        <f t="shared" si="4"/>
+        <v>0.41354142623625306</v>
+      </c>
+      <c r="O10" s="1">
+        <f t="shared" si="5"/>
+        <v>0.52612679510390192</v>
+      </c>
+      <c r="P10" s="1">
+        <f t="shared" si="6"/>
+        <v>0.5309006819304124</v>
+      </c>
+      <c r="Q10" s="1">
+        <f t="shared" si="7"/>
+        <v>0.36014563092996288</v>
+      </c>
+      <c r="R10" s="1">
+        <f t="shared" si="8"/>
+        <v>0.10895368713962472</v>
+      </c>
+      <c r="S10" s="1">
+        <f t="shared" si="9"/>
+        <v>5.7671869367282906E-2</v>
+      </c>
+      <c r="T10" s="1">
+        <f t="shared" si="10"/>
+        <v>0.35995634404014998</v>
+      </c>
+      <c r="U10" s="1">
+        <f t="shared" si="11"/>
+        <v>0.58237178659256716</v>
+      </c>
+      <c r="V10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="D11" s="1">
+        <v>0.22484456</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.37722371999999998</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.39793171999999999</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1.691051E-2</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0.17791449000000001</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0.80517499000000003</v>
+      </c>
+      <c r="J11" s="1">
+        <f t="shared" ref="J11" si="12">(P11/$A$6)/((P11/$A$6)+(Q11/$B$6)+(R11/$C$6))</f>
+        <v>0.42674284368348075</v>
+      </c>
+      <c r="K11" s="1">
+        <f t="shared" ref="K11" si="13">(Q11/$B$6)/((P11/$A$6)+(Q11/$B$6)+(R11/$C$6))</f>
+        <v>0.45594337394650514</v>
+      </c>
+      <c r="L11" s="1">
+        <f t="shared" ref="L11" si="14">(R11/$C$6)/((P11/$A$6)+(Q11/$B$6)+(R11/$C$6))</f>
+        <v>0.11731378237001396</v>
+      </c>
+      <c r="M11" s="1">
+        <f t="shared" ref="M11" si="15">(S11/$A$6)/((S11/$A$6)+(T11/$B$6)+(U11/$C$6))</f>
+        <v>6.6242682751183279E-2</v>
+      </c>
+      <c r="N11" s="1">
+        <f t="shared" ref="N11" si="16">(T11/$B$6)/((S11/$A$6)+(T11/$B$6)+(U11/$C$6))</f>
+        <v>0.44383401156339886</v>
+      </c>
+      <c r="O11" s="1">
+        <f t="shared" ref="O11" si="17">(U11/$C$6)/((S11/$A$6)+(T11/$B$6)+(U11/$C$6))</f>
+        <v>0.48992330568541781</v>
+      </c>
+      <c r="P11" s="1">
+        <f t="shared" ref="P11" si="18">(D11*$A$4)/((D11*$A$4)+(E11*$B$4)+(F11*$C$4))</f>
+        <v>0.4364517225892155</v>
+      </c>
+      <c r="Q11" s="1">
+        <f t="shared" ref="Q11" si="19">(E11*$B$4)/((D11*$A$4)+(E11*$B$4)+(F11*$C$4))</f>
+        <v>0.4246134873425329</v>
+      </c>
+      <c r="R11" s="1">
+        <f t="shared" ref="R11" si="20">(F11*$C$4)/((D11*$A$4)+(E11*$B$4)+(F11*$C$4))</f>
+        <v>0.13893479006825166</v>
+      </c>
+      <c r="S11" s="1">
+        <f t="shared" ref="S11" si="21">(G11*$A$4)/((G11*$A$4)+(H11*$B$4)+(I11*$C$4))</f>
+        <v>6.3836445370912404E-2</v>
+      </c>
+      <c r="T11" s="1">
+        <f t="shared" ref="T11" si="22">(H11*$B$4)/((G11*$A$4)+(H11*$B$4)+(I11*$C$4))</f>
+        <v>0.38946126883792881</v>
+      </c>
+      <c r="U11" s="1">
+        <f t="shared" ref="U11" si="23">(I11*$C$4)/((G11*$A$4)+(H11*$B$4)+(I11*$C$4))</f>
+        <v>0.54670228579115887</v>
+      </c>
+      <c r="V11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="D12" s="1">
+        <v>0.15581490000000001</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.38922275000000001</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.45496236000000001</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1.9652340000000001E-2</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0.20190653</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0.77844111999999999</v>
+      </c>
+      <c r="J12" s="1">
+        <f t="shared" ref="J12" si="24">(P12/$A$6)/((P12/$A$6)+(Q12/$B$6)+(R12/$C$6))</f>
+        <v>0.32847690421180842</v>
+      </c>
+      <c r="K12" s="1">
+        <f t="shared" ref="K12" si="25">(Q12/$B$6)/((P12/$A$6)+(Q12/$B$6)+(R12/$C$6))</f>
+        <v>0.5225431068996319</v>
+      </c>
+      <c r="L12" s="1">
+        <f t="shared" ref="L12" si="26">(R12/$C$6)/((P12/$A$6)+(Q12/$B$6)+(R12/$C$6))</f>
+        <v>0.14897998888855954</v>
+      </c>
+      <c r="M12" s="1">
+        <f t="shared" ref="M12" si="27">(S12/$A$6)/((S12/$A$6)+(T12/$B$6)+(U12/$C$6))</f>
+        <v>7.3016464428022093E-2</v>
+      </c>
+      <c r="N12" s="1">
+        <f t="shared" ref="N12" si="28">(T12/$B$6)/((S12/$A$6)+(T12/$B$6)+(U12/$C$6))</f>
+        <v>0.47773267735943864</v>
+      </c>
+      <c r="O12" s="1">
+        <f t="shared" ref="O12" si="29">(U12/$C$6)/((S12/$A$6)+(T12/$B$6)+(U12/$C$6))</f>
+        <v>0.44925085821253929</v>
+      </c>
+      <c r="P12" s="1">
+        <f t="shared" ref="P12" si="30">(D12*$A$4)/((D12*$A$4)+(E12*$B$4)+(F12*$C$4))</f>
+        <v>0.33627830336554781</v>
+      </c>
+      <c r="Q12" s="1">
+        <f t="shared" ref="Q12" si="31">(E12*$B$4)/((D12*$A$4)+(E12*$B$4)+(F12*$C$4))</f>
+        <v>0.48711224053901658</v>
+      </c>
+      <c r="R12" s="1">
+        <f t="shared" ref="R12" si="32">(F12*$C$4)/((D12*$A$4)+(E12*$B$4)+(F12*$C$4))</f>
+        <v>0.17660945609543571</v>
+      </c>
+      <c r="S12" s="1">
+        <f t="shared" ref="S12" si="33">(G12*$A$4)/((G12*$A$4)+(H12*$B$4)+(I12*$C$4))</f>
+        <v>7.1011266225757833E-2</v>
+      </c>
+      <c r="T12" s="1">
+        <f t="shared" ref="T12" si="34">(H12*$B$4)/((G12*$A$4)+(H12*$B$4)+(I12*$C$4))</f>
+        <v>0.42306229066045065</v>
+      </c>
+      <c r="U12" s="1">
+        <f t="shared" ref="U12" si="35">(I12*$C$4)/((G12*$A$4)+(H12*$B$4)+(I12*$C$4))</f>
+        <v>0.50592644311379154</v>
+      </c>
+      <c r="V12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+    </row>
+    <row r="17" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+    </row>
+    <row r="18" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+    </row>
+    <row r="19" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+    </row>
+    <row r="20" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+    </row>
+    <row r="23" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A5:C5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V23"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="T17" sqref="T17"/>
     </sheetView>
   </sheetViews>
@@ -2554,7 +3500,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V23"/>
   <sheetViews>

--- a/DBDT.xlsx
+++ b/DBDT.xlsx
@@ -565,7 +565,7 @@
   <dimension ref="A1:V23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -747,51 +747,51 @@
         <v>0.96671874999999996</v>
       </c>
       <c r="J3" s="1">
-        <f t="shared" ref="J3:J12" si="0">(P3/$A$6)/((P3/$A$6)+(Q3/$B$6)+(R3/$C$6))</f>
+        <f t="shared" ref="J3:J9" si="0">(P3/$A$6)/((P3/$A$6)+(Q3/$B$6)+(R3/$C$6))</f>
         <v>0.96442915775549776</v>
       </c>
       <c r="K3" s="1">
-        <f t="shared" ref="K3:K12" si="1">(Q3/$B$6)/((P3/$A$6)+(Q3/$B$6)+(R3/$C$6))</f>
+        <f t="shared" ref="K3:K9" si="1">(Q3/$B$6)/((P3/$A$6)+(Q3/$B$6)+(R3/$C$6))</f>
         <v>3.0254370998327444E-2</v>
       </c>
       <c r="L3" s="1">
-        <f t="shared" ref="L3:L12" si="2">(R3/$C$6)/((P3/$A$6)+(Q3/$B$6)+(R3/$C$6))</f>
+        <f t="shared" ref="L3:L9" si="2">(R3/$C$6)/((P3/$A$6)+(Q3/$B$6)+(R3/$C$6))</f>
         <v>5.3164712461747652E-3</v>
       </c>
       <c r="M3" s="1">
-        <f t="shared" ref="M3:M12" si="3">(S3/$A$6)/((S3/$A$6)+(T3/$B$6)+(U3/$C$6))</f>
+        <f t="shared" ref="M3:M9" si="3">(S3/$A$6)/((S3/$A$6)+(T3/$B$6)+(U3/$C$6))</f>
         <v>5.1526974900546044E-2</v>
       </c>
       <c r="N3" s="1">
-        <f t="shared" ref="N3:N12" si="4">(T3/$B$6)/((S3/$A$6)+(T3/$B$6)+(U3/$C$6))</f>
+        <f t="shared" ref="N3:N9" si="4">(T3/$B$6)/((S3/$A$6)+(T3/$B$6)+(U3/$C$6))</f>
         <v>6.5291273776580325E-2</v>
       </c>
       <c r="O3" s="1">
-        <f t="shared" ref="O3:O12" si="5">(U3/$C$6)/((S3/$A$6)+(T3/$B$6)+(U3/$C$6))</f>
+        <f t="shared" ref="O3:O9" si="5">(U3/$C$6)/((S3/$A$6)+(T3/$B$6)+(U3/$C$6))</f>
         <v>0.88318175132287369</v>
       </c>
       <c r="P3" s="1">
-        <f t="shared" ref="P3:P12" si="6">(D3*$A$4)/((D3*$A$4)+(E3*$B$4)+(F3*$C$4))</f>
+        <f t="shared" ref="P3:P9" si="6">(D3*$A$4)/((D3*$A$4)+(E3*$B$4)+(F3*$C$4))</f>
         <v>0.96084800688911376</v>
       </c>
       <c r="Q3" s="1">
-        <f t="shared" ref="Q3:Q12" si="7">(E3*$B$4)/((D3*$A$4)+(E3*$B$4)+(F3*$C$4))</f>
+        <f t="shared" ref="Q3:Q9" si="7">(E3*$B$4)/((D3*$A$4)+(E3*$B$4)+(F3*$C$4))</f>
         <v>3.2015723170278794E-2</v>
       </c>
       <c r="R3" s="1">
-        <f t="shared" ref="R3:R12" si="8">(F3*$C$4)/((D3*$A$4)+(E3*$B$4)+(F3*$C$4))</f>
+        <f t="shared" ref="R3:R9" si="8">(F3*$C$4)/((D3*$A$4)+(E3*$B$4)+(F3*$C$4))</f>
         <v>7.1362699406074702E-3</v>
       </c>
       <c r="S3" s="1">
-        <f t="shared" ref="S3:S12" si="9">(G3*$A$4)/((G3*$A$4)+(H3*$B$4)+(I3*$C$4))</f>
+        <f t="shared" ref="S3:S9" si="9">(G3*$A$4)/((G3*$A$4)+(H3*$B$4)+(I3*$C$4))</f>
         <v>3.9310004169202613E-2</v>
       </c>
       <c r="T3" s="1">
-        <f t="shared" ref="T3:T12" si="10">(H3*$B$4)/((G3*$A$4)+(H3*$B$4)+(I3*$C$4))</f>
+        <f t="shared" ref="T3:T9" si="10">(H3*$B$4)/((G3*$A$4)+(H3*$B$4)+(I3*$C$4))</f>
         <v>5.290715533422477E-2</v>
       </c>
       <c r="U3" s="1">
-        <f t="shared" ref="U3:U12" si="11">(I3*$C$4)/((G3*$A$4)+(H3*$B$4)+(I3*$C$4))</f>
+        <f t="shared" ref="U3:U9" si="11">(I3*$C$4)/((G3*$A$4)+(H3*$B$4)+(I3*$C$4))</f>
         <v>0.90778284049657254</v>
       </c>
       <c r="V3" t="s">
@@ -1264,13 +1264,13 @@
         <v>0.25</v>
       </c>
       <c r="M10" s="1">
-        <v>0.05</v>
+        <v>0.11</v>
       </c>
       <c r="N10" s="1">
         <v>0.32</v>
       </c>
       <c r="O10" s="1">
-        <v>0.63</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>

--- a/DBDT.xlsx
+++ b/DBDT.xlsx
@@ -565,7 +565,7 @@
   <dimension ref="A1:V23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1264,10 +1264,10 @@
         <v>0.25</v>
       </c>
       <c r="M10" s="1">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="N10" s="1">
-        <v>0.32</v>
+        <v>0.34</v>
       </c>
       <c r="O10" s="1">
         <v>0.56999999999999995</v>

--- a/DBDT.xlsx
+++ b/DBDT.xlsx
@@ -12,10 +12,11 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9630"/>
   </bookViews>
   <sheets>
-    <sheet name="MtBE Acetonitrile Water" sheetId="7" r:id="rId1"/>
-    <sheet name="CPME Acetone Water" sheetId="5" r:id="rId2"/>
-    <sheet name="CPME Ethanol Water" sheetId="3" r:id="rId3"/>
-    <sheet name="ButylAcetate Ethanol Water" sheetId="2" r:id="rId4"/>
+    <sheet name="Heptane Acetonitrile Methanol" sheetId="8" r:id="rId1"/>
+    <sheet name="MtBE Acetonitrile Water" sheetId="7" r:id="rId2"/>
+    <sheet name="CPME Acetone Water" sheetId="5" r:id="rId3"/>
+    <sheet name="CPME Ethanol Water" sheetId="3" r:id="rId4"/>
+    <sheet name="ButylAcetate Ethanol Water" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="53">
   <si>
     <t>CPME</t>
   </si>
@@ -167,6 +168,36 @@
   </si>
   <si>
     <t>Acetonitrile</t>
+  </si>
+  <si>
+    <t>5 0 5</t>
+  </si>
+  <si>
+    <t>5 0,5 4,5</t>
+  </si>
+  <si>
+    <t>5 1 4</t>
+  </si>
+  <si>
+    <t>5 1,5 3,5</t>
+  </si>
+  <si>
+    <t>5 2,5 2,5</t>
+  </si>
+  <si>
+    <t>5 3 2</t>
+  </si>
+  <si>
+    <t>5 3,5 1,5</t>
+  </si>
+  <si>
+    <t>5 4 1</t>
+  </si>
+  <si>
+    <t>5 4,5 0,5</t>
+  </si>
+  <si>
+    <t>5 5 0</t>
   </si>
 </sst>
 </file>
@@ -564,7 +595,1084 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="V13" sqref="V13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.28515625" customWidth="1"/>
+    <col min="22" max="22" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.94550427000000004</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>5.4495729999999999E-2</v>
+      </c>
+      <c r="G2" s="1">
+        <v>3.3226859999999997E-2</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0.96677314000000003</v>
+      </c>
+      <c r="J2" s="1">
+        <f>(P2/$A$6)/((P2/$A$6)+(Q2/$B$6)+(R2/$C$6))</f>
+        <v>0.98431230728642938</v>
+      </c>
+      <c r="K2" s="1">
+        <f>(Q2/$B$6)/((P2/$A$6)+(Q2/$B$6)+(R2/$C$6))</f>
+        <v>0</v>
+      </c>
+      <c r="L2" s="1">
+        <f>(R2/$C$6)/((P2/$A$6)+(Q2/$B$6)+(R2/$C$6))</f>
+        <v>1.5687692713570719E-2</v>
+      </c>
+      <c r="M2" s="1">
+        <f>(S2/$A$6)/((S2/$A$6)+(T2/$B$6)+(U2/$C$6))</f>
+        <v>0.110550076925949</v>
+      </c>
+      <c r="N2" s="1">
+        <f>(T2/$B$6)/((S2/$A$6)+(T2/$B$6)+(U2/$C$6))</f>
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <f>(U2/$C$6)/((S2/$A$6)+(T2/$B$6)+(U2/$C$6))</f>
+        <v>0.88944992307405102</v>
+      </c>
+      <c r="P2" s="1">
+        <f>(D2*$A$4)/((D2*$A$4)+(E2*$B$4)+(F2*$C$4))</f>
+        <v>0.9819026505393178</v>
+      </c>
+      <c r="Q2" s="1">
+        <f>(E2*$B$4)/((D2*$A$4)+(E2*$B$4)+(F2*$C$4))</f>
+        <v>0</v>
+      </c>
+      <c r="R2" s="1">
+        <f>(F2*$C$4)/((D2*$A$4)+(E2*$B$4)+(F2*$C$4))</f>
+        <v>1.8097349460682199E-2</v>
+      </c>
+      <c r="S2" s="1">
+        <f>(G2*$A$4)/((G2*$A$4)+(H2*$B$4)+(I2*$C$4))</f>
+        <v>9.7047039557548717E-2</v>
+      </c>
+      <c r="T2" s="1">
+        <f>(H2*$B$4)/((G2*$A$4)+(H2*$B$4)+(I2*$C$4))</f>
+        <v>0</v>
+      </c>
+      <c r="U2" s="1">
+        <f>(I2*$C$4)/((G2*$A$4)+(H2*$B$4)+(I2*$C$4))</f>
+        <v>0.90295296044245132</v>
+      </c>
+      <c r="V2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="1">
+        <v>0.94202430999999998</v>
+      </c>
+      <c r="E3" s="1">
+        <v>7.9587200000000007E-3</v>
+      </c>
+      <c r="F3" s="1">
+        <v>5.0016959999999999E-2</v>
+      </c>
+      <c r="G3" s="1">
+        <v>3.069005E-2</v>
+      </c>
+      <c r="H3" s="1">
+        <v>7.5930929999999994E-2</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0.89337900999999997</v>
+      </c>
+      <c r="J3" s="1">
+        <f t="shared" ref="J3:J9" si="0">(P3/$A$6)/((P3/$A$6)+(Q3/$B$6)+(R3/$C$6))</f>
+        <v>0.98261372227417454</v>
+      </c>
+      <c r="K3" s="1">
+        <f t="shared" ref="K3:K9" si="1">(Q3/$B$6)/((P3/$A$6)+(Q3/$B$6)+(R3/$C$6))</f>
+        <v>2.9596380463670626E-3</v>
+      </c>
+      <c r="L3" s="1">
+        <f t="shared" ref="L3:L9" si="2">(R3/$C$6)/((P3/$A$6)+(Q3/$B$6)+(R3/$C$6))</f>
+        <v>1.4426639679458389E-2</v>
+      </c>
+      <c r="M3" s="1">
+        <f t="shared" ref="M3:M9" si="3">(S3/$A$6)/((S3/$A$6)+(T3/$B$6)+(U3/$C$6))</f>
+        <v>0.10068983685408472</v>
+      </c>
+      <c r="N3" s="1">
+        <f t="shared" ref="N3:N9" si="4">(T3/$B$6)/((S3/$A$6)+(T3/$B$6)+(U3/$C$6))</f>
+        <v>8.8813998251845022E-2</v>
+      </c>
+      <c r="O3" s="1">
+        <f t="shared" ref="O3:O9" si="5">(U3/$C$6)/((S3/$A$6)+(T3/$B$6)+(U3/$C$6))</f>
+        <v>0.81049616489407039</v>
+      </c>
+      <c r="P3" s="1">
+        <f t="shared" ref="P3:P9" si="6">(D3*$A$4)/((D3*$A$4)+(E3*$B$4)+(F3*$C$4))</f>
+        <v>0.97996961878535493</v>
+      </c>
+      <c r="Q3" s="1">
+        <f t="shared" ref="Q3:Q9" si="7">(E3*$B$4)/((D3*$A$4)+(E3*$B$4)+(F3*$C$4))</f>
+        <v>3.3918359028795222E-3</v>
+      </c>
+      <c r="R3" s="1">
+        <f t="shared" ref="R3:R9" si="8">(F3*$C$4)/((D3*$A$4)+(E3*$B$4)+(F3*$C$4))</f>
+        <v>1.6638545311765604E-2</v>
+      </c>
+      <c r="S3" s="1">
+        <f t="shared" ref="S3:S9" si="9">(G3*$A$4)/((G3*$A$4)+(H3*$B$4)+(I3*$C$4))</f>
+        <v>8.8321913090362691E-2</v>
+      </c>
+      <c r="T3" s="1">
+        <f t="shared" ref="T3:T9" si="10">(H3*$B$4)/((G3*$A$4)+(H3*$B$4)+(I3*$C$4))</f>
+        <v>8.952218967633839E-2</v>
+      </c>
+      <c r="U3" s="1">
+        <f t="shared" ref="U3:U9" si="11">(I3*$C$4)/((G3*$A$4)+(H3*$B$4)+(I3*$C$4))</f>
+        <v>0.82215589723329896</v>
+      </c>
+      <c r="V3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>100.20099999999999</v>
+      </c>
+      <c r="B4" s="1">
+        <v>41.05</v>
+      </c>
+      <c r="C4" s="2">
+        <v>32.042000000000002</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.93995297</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1.437305E-2</v>
+      </c>
+      <c r="F4" s="1">
+        <v>4.5673980000000003E-2</v>
+      </c>
+      <c r="G4" s="1">
+        <v>2.880334E-2</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0.15629641</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0.81490024000000005</v>
+      </c>
+      <c r="J4" s="1">
+        <f t="shared" si="0"/>
+        <v>0.98146201352003826</v>
+      </c>
+      <c r="K4" s="1">
+        <f t="shared" si="1"/>
+        <v>5.3504581146744641E-3</v>
+      </c>
+      <c r="L4" s="1">
+        <f t="shared" si="2"/>
+        <v>1.3187528365287233E-2</v>
+      </c>
+      <c r="M4" s="1">
+        <f t="shared" si="3"/>
+        <v>9.2955532409482622E-2</v>
+      </c>
+      <c r="N4" s="1">
+        <f t="shared" si="4"/>
+        <v>0.17982747894815249</v>
+      </c>
+      <c r="O4" s="1">
+        <f t="shared" si="5"/>
+        <v>0.72721698864236495</v>
+      </c>
+      <c r="P4" s="1">
+        <f t="shared" si="6"/>
+        <v>0.97866222077918641</v>
+      </c>
+      <c r="Q4" s="1">
+        <f t="shared" si="7"/>
+        <v>6.1307942467419699E-3</v>
+      </c>
+      <c r="R4" s="1">
+        <f t="shared" si="8"/>
+        <v>1.5206984974071618E-2</v>
+      </c>
+      <c r="S4" s="1">
+        <f t="shared" si="9"/>
+        <v>8.1498695881766642E-2</v>
+      </c>
+      <c r="T4" s="1">
+        <f t="shared" si="10"/>
+        <v>0.18117485266928102</v>
+      </c>
+      <c r="U4" s="1">
+        <f t="shared" si="11"/>
+        <v>0.73732645144895237</v>
+      </c>
+      <c r="V4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="1">
+        <v>0.93905417999999996</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1.9493400000000001E-2</v>
+      </c>
+      <c r="F5" s="1">
+        <v>4.1452419999999997E-2</v>
+      </c>
+      <c r="G5" s="1">
+        <v>2.7367679999999998E-2</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0.24119556</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0.73143676999999996</v>
+      </c>
+      <c r="J5" s="1">
+        <f t="shared" si="0"/>
+        <v>0.98076999705797852</v>
+      </c>
+      <c r="K5" s="1">
+        <f t="shared" si="1"/>
+        <v>7.2583645611833704E-3</v>
+      </c>
+      <c r="L5" s="1">
+        <f t="shared" si="2"/>
+        <v>1.1971638380838085E-2</v>
+      </c>
+      <c r="M5" s="1">
+        <f t="shared" si="3"/>
+        <v>8.6712480880130463E-2</v>
+      </c>
+      <c r="N5" s="1">
+        <f t="shared" si="4"/>
+        <v>0.27245049347277084</v>
+      </c>
+      <c r="O5" s="1">
+        <f t="shared" si="5"/>
+        <v>0.64083702564709866</v>
+      </c>
+      <c r="P5" s="1">
+        <f t="shared" si="6"/>
+        <v>0.97788022019827314</v>
+      </c>
+      <c r="Q5" s="1">
+        <f t="shared" si="7"/>
+        <v>8.3161767590998522E-3</v>
+      </c>
+      <c r="R5" s="1">
+        <f t="shared" si="8"/>
+        <v>1.3803603042626853E-2</v>
+      </c>
+      <c r="S5" s="1">
+        <f t="shared" si="9"/>
+        <v>7.6005143788195034E-2</v>
+      </c>
+      <c r="T5" s="1">
+        <f t="shared" si="10"/>
+        <v>0.27441978287575008</v>
+      </c>
+      <c r="U5" s="1">
+        <f t="shared" si="11"/>
+        <v>0.6495750733360548</v>
+      </c>
+      <c r="V5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>0.68400000000000005</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.78600000000000003</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.79100000000000004</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.93910581000000004</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2.3596599999999999E-2</v>
+      </c>
+      <c r="F6" s="1">
+        <v>3.7297589999999999E-2</v>
+      </c>
+      <c r="G6" s="1">
+        <v>2.6260639999999998E-2</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0.33076601999999999</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0.64297333000000001</v>
+      </c>
+      <c r="J6" s="1">
+        <f t="shared" si="0"/>
+        <v>0.98044956872728928</v>
+      </c>
+      <c r="K6" s="1">
+        <f t="shared" si="1"/>
+        <v>8.7828370318870537E-3</v>
+      </c>
+      <c r="L6" s="1">
+        <f t="shared" si="2"/>
+        <v>1.0767594240823554E-2</v>
+      </c>
+      <c r="M6" s="1">
+        <f t="shared" si="3"/>
+        <v>8.1560335619315985E-2</v>
+      </c>
+      <c r="N6" s="1">
+        <f t="shared" si="4"/>
+        <v>0.36624292769546096</v>
+      </c>
+      <c r="O6" s="1">
+        <f t="shared" si="5"/>
+        <v>0.55219673668522318</v>
+      </c>
+      <c r="P6" s="1">
+        <f t="shared" si="6"/>
+        <v>0.97752274278618789</v>
+      </c>
+      <c r="Q6" s="1">
+        <f t="shared" si="7"/>
+        <v>1.0062430163165255E-2</v>
+      </c>
+      <c r="R6" s="1">
+        <f t="shared" si="8"/>
+        <v>1.2414827050646957E-2</v>
+      </c>
+      <c r="S6" s="1">
+        <f t="shared" si="9"/>
+        <v>7.1481649827647945E-2</v>
+      </c>
+      <c r="T6" s="1">
+        <f t="shared" si="10"/>
+        <v>0.36885124593002155</v>
+      </c>
+      <c r="U6" s="1">
+        <f t="shared" si="11"/>
+        <v>0.55966710424233046</v>
+      </c>
+      <c r="V6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="D7" s="1">
+        <v>0.93993638000000002</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2.6966380000000002E-2</v>
+      </c>
+      <c r="F7" s="1">
+        <v>3.309724E-2</v>
+      </c>
+      <c r="G7" s="1">
+        <v>2.5416859999999999E-2</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0.42517465999999998</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0.54940847999999998</v>
+      </c>
+      <c r="J7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.98042571548509372</v>
+      </c>
+      <c r="K7" s="1">
+        <f t="shared" si="1"/>
+        <v>1.002798200837185E-2</v>
+      </c>
+      <c r="L7" s="1">
+        <f t="shared" si="2"/>
+        <v>9.546302506534373E-3</v>
+      </c>
+      <c r="M7" s="1">
+        <f t="shared" si="3"/>
+        <v>7.7273787092783403E-2</v>
+      </c>
+      <c r="N7" s="1">
+        <f t="shared" si="4"/>
+        <v>0.46084229915996583</v>
+      </c>
+      <c r="O7" s="1">
+        <f t="shared" si="5"/>
+        <v>0.46188391374725085</v>
+      </c>
+      <c r="P7" s="1">
+        <f t="shared" si="6"/>
+        <v>0.97750419477387818</v>
+      </c>
+      <c r="Q7" s="1">
+        <f t="shared" si="7"/>
+        <v>1.148904489191681E-2</v>
+      </c>
+      <c r="R7" s="1">
+        <f t="shared" si="8"/>
+        <v>1.1006760334204977E-2</v>
+      </c>
+      <c r="S7" s="1">
+        <f t="shared" si="9"/>
+        <v>6.7726048641578898E-2</v>
+      </c>
+      <c r="T7" s="1">
+        <f t="shared" si="10"/>
+        <v>0.46413286340660581</v>
+      </c>
+      <c r="U7" s="1">
+        <f t="shared" si="11"/>
+        <v>0.46814108795181525</v>
+      </c>
+      <c r="V7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="D8" s="1">
+        <v>0.94156686999999994</v>
+      </c>
+      <c r="E8" s="1">
+        <v>2.9824119999999999E-2</v>
+      </c>
+      <c r="F8" s="1">
+        <v>2.8609010000000001E-2</v>
+      </c>
+      <c r="G8" s="1">
+        <v>2.482585E-2</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0.52459438999999997</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0.45057976</v>
+      </c>
+      <c r="J8" s="1">
+        <f t="shared" ref="J8:J12" si="12">(P8/$A$6)/((P8/$A$6)+(Q8/$B$6)+(R8/$C$6))</f>
+        <v>0.98068592752447103</v>
+      </c>
+      <c r="K8" s="1">
+        <f t="shared" ref="K8:K12" si="13">(Q8/$B$6)/((P8/$A$6)+(Q8/$B$6)+(R8/$C$6))</f>
+        <v>1.1074422132216271E-2</v>
+      </c>
+      <c r="L8" s="1">
+        <f t="shared" ref="L8:L12" si="14">(R8/$C$6)/((P8/$A$6)+(Q8/$B$6)+(R8/$C$6))</f>
+        <v>8.2396503433128602E-3</v>
+      </c>
+      <c r="M8" s="1">
+        <f t="shared" ref="M8:M12" si="15">(S8/$A$6)/((S8/$A$6)+(T8/$B$6)+(U8/$C$6))</f>
+        <v>7.3788784746686112E-2</v>
+      </c>
+      <c r="N8" s="1">
+        <f t="shared" ref="N8:N12" si="16">(T8/$B$6)/((S8/$A$6)+(T8/$B$6)+(U8/$C$6))</f>
+        <v>0.55588446105457379</v>
+      </c>
+      <c r="O8" s="1">
+        <f t="shared" ref="O8:O12" si="17">(U8/$C$6)/((S8/$A$6)+(T8/$B$6)+(U8/$C$6))</f>
+        <v>0.37032675419874017</v>
+      </c>
+      <c r="P8" s="1">
+        <f t="shared" ref="P8:P12" si="18">(D8*$A$4)/((D8*$A$4)+(E8*$B$4)+(F8*$C$4))</f>
+        <v>0.97781077266531047</v>
+      </c>
+      <c r="Q8" s="1">
+        <f t="shared" ref="Q8:Q12" si="19">(E8*$B$4)/((D8*$A$4)+(E8*$B$4)+(F8*$C$4))</f>
+        <v>1.268856159932261E-2</v>
+      </c>
+      <c r="R8" s="1">
+        <f t="shared" ref="R8:R12" si="20">(F8*$C$4)/((D8*$A$4)+(E8*$B$4)+(F8*$C$4))</f>
+        <v>9.5006657353669706E-3</v>
+      </c>
+      <c r="S8" s="1">
+        <f t="shared" ref="S8:S12" si="21">(G8*$A$4)/((G8*$A$4)+(H8*$B$4)+(I8*$C$4))</f>
+        <v>6.4680123373389159E-2</v>
+      </c>
+      <c r="T8" s="1">
+        <f t="shared" ref="T8:T12" si="22">(H8*$B$4)/((G8*$A$4)+(H8*$B$4)+(I8*$C$4))</f>
+        <v>0.55992706484456056</v>
+      </c>
+      <c r="U8" s="1">
+        <f t="shared" ref="U8:U12" si="23">(I8*$C$4)/((G8*$A$4)+(H8*$B$4)+(I8*$C$4))</f>
+        <v>0.37539281178205025</v>
+      </c>
+      <c r="V8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="D9" s="1">
+        <v>0.94409776000000001</v>
+      </c>
+      <c r="E9" s="1">
+        <v>3.2340010000000002E-2</v>
+      </c>
+      <c r="F9" s="1">
+        <v>2.356223E-2</v>
+      </c>
+      <c r="G9" s="1">
+        <v>2.450316E-2</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0.62918991000000002</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0.34630693000000001</v>
+      </c>
+      <c r="J9" s="1">
+        <f t="shared" si="12"/>
+        <v>0.98124493348080599</v>
+      </c>
+      <c r="K9" s="1">
+        <f t="shared" si="13"/>
+        <v>1.1983267975949561E-2</v>
+      </c>
+      <c r="L9" s="1">
+        <f t="shared" si="14"/>
+        <v>6.7717985432444294E-3</v>
+      </c>
+      <c r="M9" s="1">
+        <f t="shared" si="15"/>
+        <v>7.1110611742417298E-2</v>
+      </c>
+      <c r="N9" s="1">
+        <f t="shared" si="16"/>
+        <v>0.65098162438899121</v>
+      </c>
+      <c r="O9" s="1">
+        <f t="shared" si="17"/>
+        <v>0.27790776386859162</v>
+      </c>
+      <c r="P9" s="1">
+        <f t="shared" si="18"/>
+        <v>0.97845993356256411</v>
+      </c>
+      <c r="Q9" s="1">
+        <f t="shared" si="19"/>
+        <v>1.373116339136028E-2</v>
+      </c>
+      <c r="R9" s="1">
+        <f t="shared" si="20"/>
+        <v>7.8089030460756345E-3</v>
+      </c>
+      <c r="S9" s="1">
+        <f t="shared" si="21"/>
+        <v>6.2347645083074617E-2</v>
+      </c>
+      <c r="T9" s="1">
+        <f t="shared" si="22"/>
+        <v>0.6558746021069678</v>
+      </c>
+      <c r="U9" s="1">
+        <f t="shared" si="23"/>
+        <v>0.28177775280995765</v>
+      </c>
+      <c r="V9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="D10" s="1">
+        <v>0.94783315999999995</v>
+      </c>
+      <c r="E10" s="1">
+        <v>3.4585030000000003E-2</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1.758181E-2</v>
+      </c>
+      <c r="G10" s="1">
+        <v>2.4493290000000001E-2</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0.73907387999999996</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0.23643283000000001</v>
+      </c>
+      <c r="J10" s="1">
+        <f t="shared" si="12"/>
+        <v>0.98218520357166383</v>
+      </c>
+      <c r="K10" s="1">
+        <f t="shared" si="13"/>
+        <v>1.2776865024872094E-2</v>
+      </c>
+      <c r="L10" s="1">
+        <f t="shared" si="14"/>
+        <v>5.0379314034640623E-3</v>
+      </c>
+      <c r="M10" s="1">
+        <f t="shared" si="15"/>
+        <v>6.9315242455045806E-2</v>
+      </c>
+      <c r="N10" s="1">
+        <f t="shared" si="16"/>
+        <v>0.74566565023800013</v>
+      </c>
+      <c r="O10" s="1">
+        <f t="shared" si="17"/>
+        <v>0.18501910730695412</v>
+      </c>
+      <c r="P10" s="1">
+        <f t="shared" si="18"/>
+        <v>0.97954687298765741</v>
+      </c>
+      <c r="Q10" s="1">
+        <f t="shared" si="19"/>
+        <v>1.4642747940398644E-2</v>
+      </c>
+      <c r="R10" s="1">
+        <f t="shared" si="20"/>
+        <v>5.8103790719438884E-3</v>
+      </c>
+      <c r="S10" s="1">
+        <f t="shared" si="21"/>
+        <v>6.0795442021875125E-2</v>
+      </c>
+      <c r="T10" s="1">
+        <f t="shared" si="22"/>
+        <v>0.75154130649122453</v>
+      </c>
+      <c r="U10" s="1">
+        <f t="shared" si="23"/>
+        <v>0.18766325148690036</v>
+      </c>
+      <c r="V10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="D11" s="1">
+        <v>0.95337875999999999</v>
+      </c>
+      <c r="E11" s="1">
+        <v>3.6484250000000003E-2</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1.013699E-2</v>
+      </c>
+      <c r="G11" s="1">
+        <v>2.4847310000000001E-2</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0.85425437000000004</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0.12089833</v>
+      </c>
+      <c r="J11" s="1">
+        <f t="shared" si="12"/>
+        <v>0.98368721290158578</v>
+      </c>
+      <c r="K11" s="1">
+        <f t="shared" si="13"/>
+        <v>1.3420590903833022E-2</v>
+      </c>
+      <c r="L11" s="1">
+        <f t="shared" si="14"/>
+        <v>2.8921961945811351E-3</v>
+      </c>
+      <c r="M11" s="1">
+        <f t="shared" si="15"/>
+        <v>6.8481875278476281E-2</v>
+      </c>
+      <c r="N11" s="1">
+        <f t="shared" si="16"/>
+        <v>0.83937907127242162</v>
+      </c>
+      <c r="O11" s="1">
+        <f t="shared" si="17"/>
+        <v>9.2139053449102157E-2</v>
+      </c>
+      <c r="P11" s="1">
+        <f t="shared" si="18"/>
+        <v>0.9812793981980672</v>
+      </c>
+      <c r="Q11" s="1">
+        <f t="shared" si="19"/>
+        <v>1.5384158207085594E-2</v>
+      </c>
+      <c r="R11" s="1">
+        <f t="shared" si="20"/>
+        <v>3.3364435948471018E-3</v>
+      </c>
+      <c r="S11" s="1">
+        <f t="shared" si="21"/>
+        <v>6.0093742583344434E-2</v>
+      </c>
+      <c r="T11" s="1">
+        <f t="shared" si="22"/>
+        <v>0.84640493868986422</v>
+      </c>
+      <c r="U11" s="1">
+        <f t="shared" si="23"/>
+        <v>9.3501318726791516E-2</v>
+      </c>
+      <c r="V11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="D12" s="1">
+        <v>0.96261976000000005</v>
+      </c>
+      <c r="E12" s="1">
+        <v>3.7380240000000002E-2</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1">
+        <v>2.5550739999999999E-2</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0.97444925999999998</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0</v>
+      </c>
+      <c r="J12" s="1">
+        <f t="shared" si="12"/>
+        <v>0.98634502737256546</v>
+      </c>
+      <c r="K12" s="1">
+        <f t="shared" si="13"/>
+        <v>1.3654972627434564E-2</v>
+      </c>
+      <c r="L12" s="1">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="M12" s="1">
+        <f t="shared" si="15"/>
+        <v>6.8509091983272596E-2</v>
+      </c>
+      <c r="N12" s="1">
+        <f t="shared" si="16"/>
+        <v>0.93149090801672729</v>
+      </c>
+      <c r="O12" s="1">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="P12" s="1">
+        <f t="shared" si="18"/>
+        <v>0.98434064616335193</v>
+      </c>
+      <c r="Q12" s="1">
+        <f t="shared" si="19"/>
+        <v>1.5659353836648082E-2</v>
+      </c>
+      <c r="R12" s="1">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="S12" s="1">
+        <f t="shared" si="21"/>
+        <v>6.0153392436004947E-2</v>
+      </c>
+      <c r="T12" s="1">
+        <f t="shared" si="22"/>
+        <v>0.93984660756399518</v>
+      </c>
+      <c r="U12" s="1">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="V12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+    </row>
+    <row r="17" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+    </row>
+    <row r="18" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+    </row>
+    <row r="19" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+    </row>
+    <row r="20" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+    </row>
+    <row r="23" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A5:C5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V23"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
@@ -1499,7 +2607,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V23"/>
   <sheetViews>
@@ -2576,7 +3684,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V23"/>
   <sheetViews>
@@ -3500,7 +4608,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V23"/>
   <sheetViews>

--- a/DBDT.xlsx
+++ b/DBDT.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="55">
   <si>
     <t>CPME</t>
   </si>
@@ -198,6 +198,12 @@
   </si>
   <si>
     <t>5 5 0</t>
+  </si>
+  <si>
+    <t>Heptane</t>
+  </si>
+  <si>
+    <t>Methanol</t>
   </si>
 </sst>
 </file>
@@ -595,8 +601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="V13" sqref="V13"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -675,13 +681,13 @@
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>42</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>2</v>
+        <v>54</v>
       </c>
       <c r="D2" s="1">
         <v>0.94550427000000004</v>
@@ -778,51 +784,51 @@
         <v>0.89337900999999997</v>
       </c>
       <c r="J3" s="1">
-        <f t="shared" ref="J3:J9" si="0">(P3/$A$6)/((P3/$A$6)+(Q3/$B$6)+(R3/$C$6))</f>
+        <f t="shared" ref="J3:J7" si="0">(P3/$A$6)/((P3/$A$6)+(Q3/$B$6)+(R3/$C$6))</f>
         <v>0.98261372227417454</v>
       </c>
       <c r="K3" s="1">
-        <f t="shared" ref="K3:K9" si="1">(Q3/$B$6)/((P3/$A$6)+(Q3/$B$6)+(R3/$C$6))</f>
+        <f t="shared" ref="K3:K7" si="1">(Q3/$B$6)/((P3/$A$6)+(Q3/$B$6)+(R3/$C$6))</f>
         <v>2.9596380463670626E-3</v>
       </c>
       <c r="L3" s="1">
-        <f t="shared" ref="L3:L9" si="2">(R3/$C$6)/((P3/$A$6)+(Q3/$B$6)+(R3/$C$6))</f>
+        <f t="shared" ref="L3:L7" si="2">(R3/$C$6)/((P3/$A$6)+(Q3/$B$6)+(R3/$C$6))</f>
         <v>1.4426639679458389E-2</v>
       </c>
       <c r="M3" s="1">
-        <f t="shared" ref="M3:M9" si="3">(S3/$A$6)/((S3/$A$6)+(T3/$B$6)+(U3/$C$6))</f>
+        <f t="shared" ref="M3:M7" si="3">(S3/$A$6)/((S3/$A$6)+(T3/$B$6)+(U3/$C$6))</f>
         <v>0.10068983685408472</v>
       </c>
       <c r="N3" s="1">
-        <f t="shared" ref="N3:N9" si="4">(T3/$B$6)/((S3/$A$6)+(T3/$B$6)+(U3/$C$6))</f>
+        <f t="shared" ref="N3:N7" si="4">(T3/$B$6)/((S3/$A$6)+(T3/$B$6)+(U3/$C$6))</f>
         <v>8.8813998251845022E-2</v>
       </c>
       <c r="O3" s="1">
-        <f t="shared" ref="O3:O9" si="5">(U3/$C$6)/((S3/$A$6)+(T3/$B$6)+(U3/$C$6))</f>
+        <f t="shared" ref="O3:O7" si="5">(U3/$C$6)/((S3/$A$6)+(T3/$B$6)+(U3/$C$6))</f>
         <v>0.81049616489407039</v>
       </c>
       <c r="P3" s="1">
-        <f t="shared" ref="P3:P9" si="6">(D3*$A$4)/((D3*$A$4)+(E3*$B$4)+(F3*$C$4))</f>
+        <f t="shared" ref="P3:P7" si="6">(D3*$A$4)/((D3*$A$4)+(E3*$B$4)+(F3*$C$4))</f>
         <v>0.97996961878535493</v>
       </c>
       <c r="Q3" s="1">
-        <f t="shared" ref="Q3:Q9" si="7">(E3*$B$4)/((D3*$A$4)+(E3*$B$4)+(F3*$C$4))</f>
+        <f t="shared" ref="Q3:Q7" si="7">(E3*$B$4)/((D3*$A$4)+(E3*$B$4)+(F3*$C$4))</f>
         <v>3.3918359028795222E-3</v>
       </c>
       <c r="R3" s="1">
-        <f t="shared" ref="R3:R9" si="8">(F3*$C$4)/((D3*$A$4)+(E3*$B$4)+(F3*$C$4))</f>
+        <f t="shared" ref="R3:R7" si="8">(F3*$C$4)/((D3*$A$4)+(E3*$B$4)+(F3*$C$4))</f>
         <v>1.6638545311765604E-2</v>
       </c>
       <c r="S3" s="1">
-        <f t="shared" ref="S3:S9" si="9">(G3*$A$4)/((G3*$A$4)+(H3*$B$4)+(I3*$C$4))</f>
+        <f t="shared" ref="S3:S7" si="9">(G3*$A$4)/((G3*$A$4)+(H3*$B$4)+(I3*$C$4))</f>
         <v>8.8321913090362691E-2</v>
       </c>
       <c r="T3" s="1">
-        <f t="shared" ref="T3:T9" si="10">(H3*$B$4)/((G3*$A$4)+(H3*$B$4)+(I3*$C$4))</f>
+        <f t="shared" ref="T3:T7" si="10">(H3*$B$4)/((G3*$A$4)+(H3*$B$4)+(I3*$C$4))</f>
         <v>8.952218967633839E-2</v>
       </c>
       <c r="U3" s="1">
-        <f t="shared" ref="U3:U9" si="11">(I3*$C$4)/((G3*$A$4)+(H3*$B$4)+(I3*$C$4))</f>
+        <f t="shared" ref="U3:U7" si="11">(I3*$C$4)/((G3*$A$4)+(H3*$B$4)+(I3*$C$4))</f>
         <v>0.82215589723329896</v>
       </c>
       <c r="V3" t="s">

--- a/DBDT.xlsx
+++ b/DBDT.xlsx
@@ -17,6 +17,8 @@
     <sheet name="CPME Acetone Water" sheetId="5" r:id="rId3"/>
     <sheet name="CPME Ethanol Water" sheetId="3" r:id="rId4"/>
     <sheet name="ButylAcetate Ethanol Water" sheetId="2" r:id="rId5"/>
+    <sheet name="1-Butanol AceticAcid Water" sheetId="9" r:id="rId6"/>
+    <sheet name="1-Butanol EthylAcetate Water" sheetId="10" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="74">
   <si>
     <t>CPME</t>
   </si>
@@ -204,6 +206,63 @@
   </si>
   <si>
     <t>Methanol</t>
+  </si>
+  <si>
+    <t>1-Butanol</t>
+  </si>
+  <si>
+    <t>AceticAcid</t>
+  </si>
+  <si>
+    <t>4,8 0,2 5</t>
+  </si>
+  <si>
+    <t>4,6 0,4 5</t>
+  </si>
+  <si>
+    <t>4,4 0,6 5</t>
+  </si>
+  <si>
+    <t>4,2 0,8 5</t>
+  </si>
+  <si>
+    <t>4 1 5</t>
+  </si>
+  <si>
+    <t>3,8 1,2 5</t>
+  </si>
+  <si>
+    <t>3,6 1,4 5</t>
+  </si>
+  <si>
+    <t>EthylAcetate</t>
+  </si>
+  <si>
+    <t>4,5 0,5 5</t>
+  </si>
+  <si>
+    <t>3,5 1,5 5</t>
+  </si>
+  <si>
+    <t>3 2 5</t>
+  </si>
+  <si>
+    <t>2,5 2,5 5</t>
+  </si>
+  <si>
+    <t>2 3 5</t>
+  </si>
+  <si>
+    <t>1,5 3,5 5</t>
+  </si>
+  <si>
+    <t>1 4 5</t>
+  </si>
+  <si>
+    <t>0,5 4,5 5</t>
+  </si>
+  <si>
+    <t>0 5 5</t>
   </si>
 </sst>
 </file>
@@ -602,7 +661,7 @@
   <dimension ref="A1:V23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4619,7 +4678,7 @@
   <dimension ref="A1:V23"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5689,4 +5748,2005 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V23"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="Q22" sqref="Q22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.28515625" customWidth="1"/>
+    <col min="22" max="22" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.53624512999999996</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0.46375486999999999</v>
+      </c>
+      <c r="G2" s="1">
+        <v>2.0341350000000001E-2</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0.97965864999999996</v>
+      </c>
+      <c r="J2" s="1">
+        <f>(P2/$A$6)/((P2/$A$6)+(Q2/$B$6)+(R2/$C$6))</f>
+        <v>0.85413976169832684</v>
+      </c>
+      <c r="K2" s="1">
+        <f>(Q2/$B$6)/((P2/$A$6)+(Q2/$B$6)+(R2/$C$6))</f>
+        <v>0</v>
+      </c>
+      <c r="L2" s="1">
+        <f>(R2/$C$6)/((P2/$A$6)+(Q2/$B$6)+(R2/$C$6))</f>
+        <v>0.14586023830167327</v>
+      </c>
+      <c r="M2" s="1">
+        <f>(S2/$A$6)/((S2/$A$6)+(T2/$B$6)+(U2/$C$6))</f>
+        <v>9.5148004892831151E-2</v>
+      </c>
+      <c r="N2" s="1">
+        <f>(T2/$B$6)/((S2/$A$6)+(T2/$B$6)+(U2/$C$6))</f>
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <f>(U2/$C$6)/((S2/$A$6)+(T2/$B$6)+(U2/$C$6))</f>
+        <v>0.90485199510716896</v>
+      </c>
+      <c r="P2" s="1">
+        <f>(D2*$A$4)/((D2*$A$4)+(E2*$B$4)+(F2*$C$4))</f>
+        <v>0.82631452339454359</v>
+      </c>
+      <c r="Q2" s="1">
+        <f>(E2*$B$4)/((D2*$A$4)+(E2*$B$4)+(F2*$C$4))</f>
+        <v>0</v>
+      </c>
+      <c r="R2" s="1">
+        <f>(F2*$C$4)/((D2*$A$4)+(E2*$B$4)+(F2*$C$4))</f>
+        <v>0.17368547660545638</v>
+      </c>
+      <c r="S2" s="1">
+        <f>(G2*$A$4)/((G2*$A$4)+(H2*$B$4)+(I2*$C$4))</f>
+        <v>7.870640072459914E-2</v>
+      </c>
+      <c r="T2" s="1">
+        <f>(H2*$B$4)/((G2*$A$4)+(H2*$B$4)+(I2*$C$4))</f>
+        <v>0</v>
+      </c>
+      <c r="U2" s="1">
+        <f>(I2*$C$4)/((G2*$A$4)+(H2*$B$4)+(I2*$C$4))</f>
+        <v>0.92129359927540078</v>
+      </c>
+      <c r="V2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="1">
+        <v>0.50643751000000004</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2.071388E-2</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.47284861</v>
+      </c>
+      <c r="G3" s="1">
+        <v>2.167208E-2</v>
+      </c>
+      <c r="H3" s="1">
+        <v>6.5336099999999996E-3</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0.97179431000000005</v>
+      </c>
+      <c r="J3" s="1">
+        <f t="shared" ref="J3:J12" si="0">(P3/$A$6)/((P3/$A$6)+(Q3/$B$6)+(R3/$C$6))</f>
+        <v>0.82649504878021418</v>
+      </c>
+      <c r="K3" s="1">
+        <f t="shared" ref="K3:K12" si="1">(Q3/$B$6)/((P3/$A$6)+(Q3/$B$6)+(R3/$C$6))</f>
+        <v>2.1127970077812901E-2</v>
+      </c>
+      <c r="L3" s="1">
+        <f t="shared" ref="L3:L12" si="2">(R3/$C$6)/((P3/$A$6)+(Q3/$B$6)+(R3/$C$6))</f>
+        <v>0.15237698114197273</v>
+      </c>
+      <c r="M3" s="1">
+        <f t="shared" ref="M3:M12" si="3">(S3/$A$6)/((S3/$A$6)+(T3/$B$6)+(U3/$C$6))</f>
+        <v>9.9574103458724805E-2</v>
+      </c>
+      <c r="N3" s="1">
+        <f t="shared" ref="N3:N12" si="4">(T3/$B$6)/((S3/$A$6)+(T3/$B$6)+(U3/$C$6))</f>
+        <v>1.8762078241158733E-2</v>
+      </c>
+      <c r="O3" s="1">
+        <f t="shared" ref="O3:O12" si="5">(U3/$C$6)/((S3/$A$6)+(T3/$B$6)+(U3/$C$6))</f>
+        <v>0.88166381830011642</v>
+      </c>
+      <c r="P3" s="1">
+        <f t="shared" ref="P3:P12" si="6">(D3*$A$4)/((D3*$A$4)+(E3*$B$4)+(F3*$C$4))</f>
+        <v>0.79360905704880857</v>
+      </c>
+      <c r="Q3" s="1">
+        <f t="shared" ref="Q3:Q12" si="7">(E3*$B$4)/((D3*$A$4)+(E3*$B$4)+(F3*$C$4))</f>
+        <v>2.6298344649153125E-2</v>
+      </c>
+      <c r="R3" s="1">
+        <f t="shared" ref="R3:R12" si="8">(F3*$C$4)/((D3*$A$4)+(E3*$B$4)+(F3*$C$4))</f>
+        <v>0.18009259830203839</v>
+      </c>
+      <c r="S3" s="1">
+        <f t="shared" ref="S3:S12" si="9">(G3*$A$4)/((G3*$A$4)+(H3*$B$4)+(I3*$C$4))</f>
+        <v>8.2353647432306221E-2</v>
+      </c>
+      <c r="T3" s="1">
+        <f t="shared" ref="T3:T12" si="10">(H3*$B$4)/((G3*$A$4)+(H3*$B$4)+(I3*$C$4))</f>
+        <v>2.0115075031032284E-2</v>
+      </c>
+      <c r="U3" s="1">
+        <f t="shared" ref="U3:U12" si="11">(I3*$C$4)/((G3*$A$4)+(H3*$B$4)+(I3*$C$4))</f>
+        <v>0.89753127753666151</v>
+      </c>
+      <c r="V3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>74.120999999999995</v>
+      </c>
+      <c r="B4" s="1">
+        <v>60.052</v>
+      </c>
+      <c r="C4" s="2">
+        <v>18.015000000000001</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.47734528999999998</v>
+      </c>
+      <c r="E4" s="1">
+        <v>4.0374279999999999E-2</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.48228043999999998</v>
+      </c>
+      <c r="G4" s="1">
+        <v>2.3148620000000002E-2</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1.336855E-2</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0.96348283000000001</v>
+      </c>
+      <c r="J4" s="1">
+        <f t="shared" si="0"/>
+        <v>0.79848831781287921</v>
+      </c>
+      <c r="K4" s="1">
+        <f t="shared" si="1"/>
+        <v>4.2210708451698623E-2</v>
+      </c>
+      <c r="L4" s="1">
+        <f t="shared" si="2"/>
+        <v>0.15930097373542218</v>
+      </c>
+      <c r="M4" s="1">
+        <f t="shared" si="3"/>
+        <v>0.10438828910690147</v>
+      </c>
+      <c r="N4" s="1">
+        <f t="shared" si="4"/>
+        <v>3.7678439221113837E-2</v>
+      </c>
+      <c r="O4" s="1">
+        <f t="shared" si="5"/>
+        <v>0.85793327167198463</v>
+      </c>
+      <c r="P4" s="1">
+        <f t="shared" si="6"/>
+        <v>0.76098415140848952</v>
+      </c>
+      <c r="Q4" s="1">
+        <f t="shared" si="7"/>
+        <v>5.214755693009257E-2</v>
+      </c>
+      <c r="R4" s="1">
+        <f t="shared" si="8"/>
+        <v>0.18686829166141783</v>
+      </c>
+      <c r="S4" s="1">
+        <f t="shared" si="9"/>
+        <v>8.6326244035341851E-2</v>
+      </c>
+      <c r="T4" s="1">
+        <f t="shared" si="10"/>
+        <v>4.0391338999282614E-2</v>
+      </c>
+      <c r="U4" s="1">
+        <f t="shared" si="11"/>
+        <v>0.87328241696537556</v>
+      </c>
+      <c r="V4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="1">
+        <v>0.44886122000000001</v>
+      </c>
+      <c r="E5" s="1">
+        <v>5.8969300000000002E-2</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.49216947999999999</v>
+      </c>
+      <c r="G5" s="1">
+        <v>2.4798690000000002E-2</v>
+      </c>
+      <c r="H5" s="1">
+        <v>2.0541210000000001E-2</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0.95466010000000001</v>
+      </c>
+      <c r="J5" s="1">
+        <f t="shared" si="0"/>
+        <v>0.77004601748944268</v>
+      </c>
+      <c r="K5" s="1">
+        <f t="shared" si="1"/>
+        <v>6.3228443641941995E-2</v>
+      </c>
+      <c r="L5" s="1">
+        <f t="shared" si="2"/>
+        <v>0.16672553886861527</v>
+      </c>
+      <c r="M5" s="1">
+        <f t="shared" si="3"/>
+        <v>0.10965797160074969</v>
+      </c>
+      <c r="N5" s="1">
+        <f t="shared" si="4"/>
+        <v>5.677006832698045E-2</v>
+      </c>
+      <c r="O5" s="1">
+        <f t="shared" si="5"/>
+        <v>0.83357196007226975</v>
+      </c>
+      <c r="P5" s="1">
+        <f t="shared" si="6"/>
+        <v>0.72836509793933224</v>
+      </c>
+      <c r="Q5" s="1">
+        <f t="shared" si="7"/>
+        <v>7.7526328994411225E-2</v>
+      </c>
+      <c r="R5" s="1">
+        <f t="shared" si="8"/>
+        <v>0.19410857306625662</v>
+      </c>
+      <c r="S5" s="1">
+        <f t="shared" si="9"/>
+        <v>9.0681679982109187E-2</v>
+      </c>
+      <c r="T5" s="1">
+        <f t="shared" si="10"/>
+        <v>6.0855949968268541E-2</v>
+      </c>
+      <c r="U5" s="1">
+        <f t="shared" si="11"/>
+        <v>0.84846237004962222</v>
+      </c>
+      <c r="V5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>0.81</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1.05</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.997</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.42089429</v>
+      </c>
+      <c r="E6" s="1">
+        <v>7.648017E-2</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.50262554000000004</v>
+      </c>
+      <c r="G6" s="1">
+        <v>2.665708E-2</v>
+      </c>
+      <c r="H6" s="1">
+        <v>2.8092590000000001E-2</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0.94525033999999997</v>
+      </c>
+      <c r="J6" s="1">
+        <f t="shared" si="0"/>
+        <v>0.74108427354870321</v>
+      </c>
+      <c r="K6" s="1">
+        <f t="shared" si="1"/>
+        <v>8.4163799611531365E-2</v>
+      </c>
+      <c r="L6" s="1">
+        <f t="shared" si="2"/>
+        <v>0.17475192683976537</v>
+      </c>
+      <c r="M6" s="1">
+        <f t="shared" si="3"/>
+        <v>0.11546571544294953</v>
+      </c>
+      <c r="N6" s="1">
+        <f t="shared" si="4"/>
+        <v>7.6052620380637995E-2</v>
+      </c>
+      <c r="O6" s="1">
+        <f t="shared" si="5"/>
+        <v>0.80848166417641254</v>
+      </c>
+      <c r="P6" s="1">
+        <f t="shared" si="6"/>
+        <v>0.69566997383132123</v>
+      </c>
+      <c r="Q6" s="1">
+        <f t="shared" si="7"/>
+        <v>0.10241540235975835</v>
+      </c>
+      <c r="R6" s="1">
+        <f t="shared" si="8"/>
+        <v>0.20191462380892047</v>
+      </c>
+      <c r="S6" s="1">
+        <f t="shared" si="9"/>
+        <v>9.5490641221315134E-2</v>
+      </c>
+      <c r="T6" s="1">
+        <f t="shared" si="10"/>
+        <v>8.1531648067552462E-2</v>
+      </c>
+      <c r="U6" s="1">
+        <f t="shared" si="11"/>
+        <v>0.82297771071113246</v>
+      </c>
+      <c r="V6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="D7" s="1">
+        <v>0.39333770000000001</v>
+      </c>
+      <c r="E7" s="1">
+        <v>9.2878409999999995E-2</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.51378389999999996</v>
+      </c>
+      <c r="G7" s="1">
+        <v>2.876782E-2</v>
+      </c>
+      <c r="H7" s="1">
+        <v>3.6069879999999999E-2</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0.93516228999999995</v>
+      </c>
+      <c r="J7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.71148611607223367</v>
+      </c>
+      <c r="K7" s="1">
+        <f t="shared" si="1"/>
+        <v>0.10500199571604778</v>
+      </c>
+      <c r="L7" s="1">
+        <f t="shared" si="2"/>
+        <v>0.18351188821171852</v>
+      </c>
+      <c r="M7" s="1">
+        <f t="shared" si="3"/>
+        <v>0.1219128726959037</v>
+      </c>
+      <c r="N7" s="1">
+        <f t="shared" si="4"/>
+        <v>9.5536479916510278E-2</v>
+      </c>
+      <c r="O7" s="1">
+        <f t="shared" si="5"/>
+        <v>0.78255064738758606</v>
+      </c>
+      <c r="P7" s="1">
+        <f t="shared" si="6"/>
+        <v>0.66278591458367619</v>
+      </c>
+      <c r="Q7" s="1">
+        <f t="shared" si="7"/>
+        <v>0.12679691125109982</v>
+      </c>
+      <c r="R7" s="1">
+        <f t="shared" si="8"/>
+        <v>0.21041717416522396</v>
+      </c>
+      <c r="S7" s="1">
+        <f t="shared" si="9"/>
+        <v>0.1008402767885037</v>
+      </c>
+      <c r="T7" s="1">
+        <f t="shared" si="10"/>
+        <v>0.10243726623349957</v>
+      </c>
+      <c r="U7" s="1">
+        <f t="shared" si="11"/>
+        <v>0.79672245697799671</v>
+      </c>
+      <c r="V7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="D8" s="1">
+        <v>0.36606931999999998</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.10812262</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.52580806000000002</v>
+      </c>
+      <c r="G8" s="1">
+        <v>3.1189189999999999E-2</v>
+      </c>
+      <c r="H8" s="1">
+        <v>4.4529340000000001E-2</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0.92428147000000005</v>
+      </c>
+      <c r="J8" s="1">
+        <f t="shared" si="0"/>
+        <v>0.68109315408027182</v>
+      </c>
+      <c r="K8" s="1">
+        <f t="shared" si="1"/>
+        <v>0.12573079719359653</v>
+      </c>
+      <c r="L8" s="1">
+        <f t="shared" si="2"/>
+        <v>0.1931760487261317</v>
+      </c>
+      <c r="M8" s="1">
+        <f t="shared" si="3"/>
+        <v>0.12913156488913283</v>
+      </c>
+      <c r="N8" s="1">
+        <f t="shared" si="4"/>
+        <v>0.11522759620149339</v>
+      </c>
+      <c r="O8" s="1">
+        <f t="shared" si="5"/>
+        <v>0.75564083890937372</v>
+      </c>
+      <c r="P8" s="1">
+        <f t="shared" si="6"/>
+        <v>0.62956280687929422</v>
+      </c>
+      <c r="Q8" s="1">
+        <f t="shared" si="7"/>
+        <v>0.15065324733160648</v>
+      </c>
+      <c r="R8" s="1">
+        <f t="shared" si="8"/>
+        <v>0.21978394578909932</v>
+      </c>
+      <c r="S8" s="1">
+        <f t="shared" si="9"/>
+        <v>0.10684463641017378</v>
+      </c>
+      <c r="T8" s="1">
+        <f t="shared" si="10"/>
+        <v>0.1235893629507053</v>
+      </c>
+      <c r="U8" s="1">
+        <f t="shared" si="11"/>
+        <v>0.76956600063912095</v>
+      </c>
+      <c r="V8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="D9" s="1">
+        <v>0.33893357000000002</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.12215299</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.53891343999999997</v>
+      </c>
+      <c r="G9" s="1">
+        <v>3.3998689999999998E-2</v>
+      </c>
+      <c r="H9" s="1">
+        <v>5.3539610000000001E-2</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0.91246168999999999</v>
+      </c>
+      <c r="J9" s="1">
+        <f t="shared" si="0"/>
+        <v>0.64967851853166181</v>
+      </c>
+      <c r="K9" s="1">
+        <f t="shared" si="1"/>
+        <v>0.14634232438695202</v>
+      </c>
+      <c r="L9" s="1">
+        <f t="shared" si="2"/>
+        <v>0.20397915708138611</v>
+      </c>
+      <c r="M9" s="1">
+        <f t="shared" si="3"/>
+        <v>0.1372922687356283</v>
+      </c>
+      <c r="N9" s="1">
+        <f t="shared" si="4"/>
+        <v>0.13512665534290208</v>
+      </c>
+      <c r="O9" s="1">
+        <f t="shared" si="5"/>
+        <v>0.7275810759214697</v>
+      </c>
+      <c r="P9" s="1">
+        <f t="shared" si="6"/>
+        <v>0.5957881826883662</v>
+      </c>
+      <c r="Q9" s="1">
+        <f t="shared" si="7"/>
+        <v>0.17396729335817018</v>
+      </c>
+      <c r="R9" s="1">
+        <f t="shared" si="8"/>
+        <v>0.23024452395346368</v>
+      </c>
+      <c r="S9" s="1">
+        <f t="shared" si="9"/>
+        <v>0.11365160434216595</v>
+      </c>
+      <c r="T9" s="1">
+        <f t="shared" si="10"/>
+        <v>0.14500226842881148</v>
+      </c>
+      <c r="U9" s="1">
+        <f t="shared" si="11"/>
+        <v>0.7413461272290226</v>
+      </c>
+      <c r="V9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+    </row>
+    <row r="17" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+    </row>
+    <row r="18" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+    </row>
+    <row r="19" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+    </row>
+    <row r="20" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+    </row>
+    <row r="23" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A5:C5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V23"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="V13" sqref="V13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.28515625" customWidth="1"/>
+    <col min="22" max="22" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.53624512999999996</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0.46375486999999999</v>
+      </c>
+      <c r="G2" s="1">
+        <v>2.0341350000000001E-2</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0.97965864999999996</v>
+      </c>
+      <c r="J2" s="1">
+        <f>(P2/$A$6)/((P2/$A$6)+(Q2/$B$6)+(R2/$C$6))</f>
+        <v>0.85413976169832684</v>
+      </c>
+      <c r="K2" s="1">
+        <f>(Q2/$B$6)/((P2/$A$6)+(Q2/$B$6)+(R2/$C$6))</f>
+        <v>0</v>
+      </c>
+      <c r="L2" s="1">
+        <f>(R2/$C$6)/((P2/$A$6)+(Q2/$B$6)+(R2/$C$6))</f>
+        <v>0.14586023830167327</v>
+      </c>
+      <c r="M2" s="1">
+        <f>(S2/$A$6)/((S2/$A$6)+(T2/$B$6)+(U2/$C$6))</f>
+        <v>9.5148004892831151E-2</v>
+      </c>
+      <c r="N2" s="1">
+        <f>(T2/$B$6)/((S2/$A$6)+(T2/$B$6)+(U2/$C$6))</f>
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <f>(U2/$C$6)/((S2/$A$6)+(T2/$B$6)+(U2/$C$6))</f>
+        <v>0.90485199510716896</v>
+      </c>
+      <c r="P2" s="1">
+        <f>(D2*$A$4)/((D2*$A$4)+(E2*$B$4)+(F2*$C$4))</f>
+        <v>0.82631452339454359</v>
+      </c>
+      <c r="Q2" s="1">
+        <f>(E2*$B$4)/((D2*$A$4)+(E2*$B$4)+(F2*$C$4))</f>
+        <v>0</v>
+      </c>
+      <c r="R2" s="1">
+        <f>(F2*$C$4)/((D2*$A$4)+(E2*$B$4)+(F2*$C$4))</f>
+        <v>0.17368547660545638</v>
+      </c>
+      <c r="S2" s="1">
+        <f>(G2*$A$4)/((G2*$A$4)+(H2*$B$4)+(I2*$C$4))</f>
+        <v>7.870640072459914E-2</v>
+      </c>
+      <c r="T2" s="1">
+        <f>(H2*$B$4)/((G2*$A$4)+(H2*$B$4)+(I2*$C$4))</f>
+        <v>0</v>
+      </c>
+      <c r="U2" s="1">
+        <f>(I2*$C$4)/((G2*$A$4)+(H2*$B$4)+(I2*$C$4))</f>
+        <v>0.92129359927540078</v>
+      </c>
+      <c r="V2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="1">
+        <v>0.49858616</v>
+      </c>
+      <c r="E3" s="1">
+        <v>5.0006299999999997E-2</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.45140754</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1.8995399999999999E-2</v>
+      </c>
+      <c r="H3" s="1">
+        <v>2.67812E-3</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0.97832649000000005</v>
+      </c>
+      <c r="J3" s="1">
+        <f t="shared" ref="J3:J12" si="0">(P3/$A$6)/((P3/$A$6)+(Q3/$B$6)+(R3/$C$6))</f>
+        <v>0.77770066584549213</v>
+      </c>
+      <c r="K3" s="1">
+        <f t="shared" ref="K3:K12" si="1">(Q3/$B$6)/((P3/$A$6)+(Q3/$B$6)+(R3/$C$6))</f>
+        <v>8.3264405664242286E-2</v>
+      </c>
+      <c r="L3" s="1">
+        <f t="shared" ref="L3:L12" si="2">(R3/$C$6)/((P3/$A$6)+(Q3/$B$6)+(R3/$C$6))</f>
+        <v>0.13903492849026575</v>
+      </c>
+      <c r="M3" s="1">
+        <f t="shared" ref="M3:M12" si="3">(S3/$A$6)/((S3/$A$6)+(T3/$B$6)+(U3/$C$6))</f>
+        <v>8.8335798723423412E-2</v>
+      </c>
+      <c r="N3" s="1">
+        <f t="shared" ref="N3:N12" si="4">(T3/$B$6)/((S3/$A$6)+(T3/$B$6)+(U3/$C$6))</f>
+        <v>1.3294767366985094E-2</v>
+      </c>
+      <c r="O3" s="1">
+        <f t="shared" ref="O3:O12" si="5">(U3/$C$6)/((S3/$A$6)+(T3/$B$6)+(U3/$C$6))</f>
+        <v>0.89836943390959156</v>
+      </c>
+      <c r="P3" s="1">
+        <f t="shared" ref="P3:P12" si="6">(D3*$A$4)/((D3*$A$4)+(E3*$B$4)+(F3*$C$4))</f>
+        <v>0.74667241086129521</v>
+      </c>
+      <c r="Q3" s="1">
+        <f t="shared" ref="Q3:Q12" si="7">(E3*$B$4)/((D3*$A$4)+(E3*$B$4)+(F3*$C$4))</f>
+        <v>8.9022244321037253E-2</v>
+      </c>
+      <c r="R3" s="1">
+        <f t="shared" ref="R3:R12" si="8">(F3*$C$4)/((D3*$A$4)+(E3*$B$4)+(F3*$C$4))</f>
+        <v>0.16430534481766743</v>
+      </c>
+      <c r="S3" s="1">
+        <f t="shared" ref="S3:S12" si="9">(G3*$A$4)/((G3*$A$4)+(H3*$B$4)+(I3*$C$4))</f>
+        <v>7.3070533989097908E-2</v>
+      </c>
+      <c r="T3" s="1">
+        <f t="shared" ref="T3:T12" si="10">(H3*$B$4)/((G3*$A$4)+(H3*$B$4)+(I3*$C$4))</f>
+        <v>1.2246381992776967E-2</v>
+      </c>
+      <c r="U3" s="1">
+        <f t="shared" ref="U3:U12" si="11">(I3*$C$4)/((G3*$A$4)+(H3*$B$4)+(I3*$C$4))</f>
+        <v>0.91468308401812515</v>
+      </c>
+      <c r="V3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>74.120999999999995</v>
+      </c>
+      <c r="B4" s="1">
+        <v>88.11</v>
+      </c>
+      <c r="C4" s="2">
+        <v>18.015000000000001</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.45994518000000001</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.10454181999999999</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.43551300999999998</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1.7474719999999999E-2</v>
+      </c>
+      <c r="H4" s="1">
+        <v>5.20653E-3</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0.97731875000000001</v>
+      </c>
+      <c r="J4" s="1">
+        <f t="shared" si="0"/>
+        <v>0.69949458169623568</v>
+      </c>
+      <c r="K4" s="1">
+        <f t="shared" si="1"/>
+        <v>0.16971911246255844</v>
+      </c>
+      <c r="L4" s="1">
+        <f t="shared" si="2"/>
+        <v>0.13078630584120599</v>
+      </c>
+      <c r="M4" s="1">
+        <f t="shared" si="3"/>
+        <v>8.0895625500016818E-2</v>
+      </c>
+      <c r="N4" s="1">
+        <f t="shared" si="4"/>
+        <v>2.5729159512361037E-2</v>
+      </c>
+      <c r="O4" s="1">
+        <f t="shared" si="5"/>
+        <v>0.89337521498762218</v>
+      </c>
+      <c r="P4" s="1">
+        <f t="shared" si="6"/>
+        <v>0.66652136058056388</v>
+      </c>
+      <c r="Q4" s="1">
+        <f t="shared" si="7"/>
+        <v>0.18008684435426878</v>
+      </c>
+      <c r="R4" s="1">
+        <f t="shared" si="8"/>
+        <v>0.15339179506516737</v>
+      </c>
+      <c r="S4" s="1">
+        <f t="shared" si="9"/>
+        <v>6.690174272284978E-2</v>
+      </c>
+      <c r="T4" s="1">
+        <f t="shared" si="10"/>
+        <v>2.3695152687738967E-2</v>
+      </c>
+      <c r="U4" s="1">
+        <f t="shared" si="11"/>
+        <v>0.9094031045894112</v>
+      </c>
+      <c r="V4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="1">
+        <v>0.41862020999999999</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.16436563000000001</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.41701414999999997</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1.5795440000000001E-2</v>
+      </c>
+      <c r="H5" s="1">
+        <v>7.5675200000000003E-3</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0.97663703000000002</v>
+      </c>
+      <c r="J5" s="1">
+        <f t="shared" si="0"/>
+        <v>0.61887375068211359</v>
+      </c>
+      <c r="K5" s="1">
+        <f t="shared" si="1"/>
+        <v>0.25939123250707846</v>
+      </c>
+      <c r="L5" s="1">
+        <f t="shared" si="2"/>
+        <v>0.12173501681080796</v>
+      </c>
+      <c r="M5" s="1">
+        <f t="shared" si="3"/>
+        <v>7.2883394735918455E-2</v>
+      </c>
+      <c r="N5" s="1">
+        <f t="shared" si="4"/>
+        <v>3.7274588245729087E-2</v>
+      </c>
+      <c r="O5" s="1">
+        <f t="shared" si="5"/>
+        <v>0.88984201701835253</v>
+      </c>
+      <c r="P5" s="1">
+        <f t="shared" si="6"/>
+        <v>0.58518689521290701</v>
+      </c>
+      <c r="Q5" s="1">
+        <f t="shared" si="7"/>
+        <v>0.27312995970846943</v>
+      </c>
+      <c r="R5" s="1">
+        <f t="shared" si="8"/>
+        <v>0.14168314507862359</v>
+      </c>
+      <c r="S5" s="1">
+        <f t="shared" si="9"/>
+        <v>6.0250825804923455E-2</v>
+      </c>
+      <c r="T5" s="1">
+        <f t="shared" si="10"/>
+        <v>3.4313797525586019E-2</v>
+      </c>
+      <c r="U5" s="1">
+        <f t="shared" si="11"/>
+        <v>0.90543537666949048</v>
+      </c>
+      <c r="V5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>0.81</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.90200000000000002</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.997</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.37345696</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.22996074999999999</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.3965823</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1.397381E-2</v>
+      </c>
+      <c r="H6" s="1">
+        <v>9.7509099999999998E-3</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0.97627527999999997</v>
+      </c>
+      <c r="J6" s="1">
+        <f t="shared" si="0"/>
+        <v>0.53561661431117236</v>
+      </c>
+      <c r="K6" s="1">
+        <f t="shared" si="1"/>
+        <v>0.35207047913798112</v>
+      </c>
+      <c r="L6" s="1">
+        <f t="shared" si="2"/>
+        <v>0.11231290655084647</v>
+      </c>
+      <c r="M6" s="1">
+        <f t="shared" si="3"/>
+        <v>6.4348067740440981E-2</v>
+      </c>
+      <c r="N6" s="1">
+        <f t="shared" si="4"/>
+        <v>4.7932296488049135E-2</v>
+      </c>
+      <c r="O6" s="1">
+        <f t="shared" si="5"/>
+        <v>0.88771963577150992</v>
+      </c>
+      <c r="P6" s="1">
+        <f t="shared" si="6"/>
+        <v>0.50249360232845164</v>
+      </c>
+      <c r="Q6" s="1">
+        <f t="shared" si="7"/>
+        <v>0.36781346740489423</v>
+      </c>
+      <c r="R6" s="1">
+        <f t="shared" si="8"/>
+        <v>0.12969293026665421</v>
+      </c>
+      <c r="S6" s="1">
+        <f t="shared" si="9"/>
+        <v>5.3163224708298276E-2</v>
+      </c>
+      <c r="T6" s="1">
+        <f t="shared" si="10"/>
+        <v>4.4098677087152129E-2</v>
+      </c>
+      <c r="U6" s="1">
+        <f t="shared" si="11"/>
+        <v>0.90273809820454964</v>
+      </c>
+      <c r="V6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="D7" s="1">
+        <v>0.32389046999999999</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.30179077999999998</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.37431874999999998</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1.20257E-2</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1.174914E-2</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0.97622516000000004</v>
+      </c>
+      <c r="J7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.4498718160231176</v>
+      </c>
+      <c r="K7" s="1">
+        <f t="shared" si="1"/>
+        <v>0.4474649229511603</v>
+      </c>
+      <c r="L7" s="1">
+        <f t="shared" si="2"/>
+        <v>0.10266326102572201</v>
+      </c>
+      <c r="M7" s="1">
+        <f t="shared" si="3"/>
+        <v>5.5332596408957768E-2</v>
+      </c>
+      <c r="N7" s="1">
+        <f t="shared" si="4"/>
+        <v>5.7708418857343916E-2</v>
+      </c>
+      <c r="O7" s="1">
+        <f t="shared" si="5"/>
+        <v>0.88695898473369839</v>
+      </c>
+      <c r="P7" s="1">
+        <f t="shared" si="6"/>
+        <v>0.41867061930647076</v>
+      </c>
+      <c r="Q7" s="1">
+        <f t="shared" si="7"/>
+        <v>0.46372895507615408</v>
+      </c>
+      <c r="R7" s="1">
+        <f t="shared" si="8"/>
+        <v>0.1176004256173752</v>
+      </c>
+      <c r="S7" s="1">
+        <f t="shared" si="9"/>
+        <v>4.5679525502929495E-2</v>
+      </c>
+      <c r="T7" s="1">
+        <f t="shared" si="10"/>
+        <v>5.3051934970565318E-2</v>
+      </c>
+      <c r="U7" s="1">
+        <f t="shared" si="11"/>
+        <v>0.90126853952650521</v>
+      </c>
+      <c r="V7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="D8" s="1">
+        <v>0.26966377000000002</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.38054895999999999</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.34978725999999999</v>
+      </c>
+      <c r="G8" s="1">
+        <v>9.9628400000000006E-3</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1.355605E-2</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0.97648111999999998</v>
+      </c>
+      <c r="J8" s="1">
+        <f t="shared" si="0"/>
+        <v>0.36198216130142724</v>
+      </c>
+      <c r="K8" s="1">
+        <f t="shared" si="1"/>
+        <v>0.54530253792730932</v>
+      </c>
+      <c r="L8" s="1">
+        <f t="shared" si="2"/>
+        <v>9.2715300771263595E-2</v>
+      </c>
+      <c r="M8" s="1">
+        <f t="shared" si="3"/>
+        <v>4.5858585911501909E-2</v>
+      </c>
+      <c r="N8" s="1">
+        <f t="shared" si="4"/>
+        <v>6.6609025155031226E-2</v>
+      </c>
+      <c r="O8" s="1">
+        <f t="shared" si="5"/>
+        <v>0.88753238893346686</v>
+      </c>
+      <c r="P8" s="1">
+        <f t="shared" si="6"/>
+        <v>0.33413524929512284</v>
+      </c>
+      <c r="Q8" s="1">
+        <f t="shared" si="7"/>
+        <v>0.56052393530298894</v>
+      </c>
+      <c r="R8" s="1">
+        <f t="shared" si="8"/>
+        <v>0.10534081540188815</v>
+      </c>
+      <c r="S8" s="1">
+        <f t="shared" si="9"/>
+        <v>3.782260836491564E-2</v>
+      </c>
+      <c r="T8" s="1">
+        <f t="shared" si="10"/>
+        <v>6.1176610816483949E-2</v>
+      </c>
+      <c r="U8" s="1">
+        <f t="shared" si="11"/>
+        <v>0.90100078081860047</v>
+      </c>
+      <c r="V8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="D9" s="1">
+        <v>0.21053039000000001</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.46726876000000001</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.32220084999999998</v>
+      </c>
+      <c r="G9" s="1">
+        <v>7.7833900000000003E-3</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1.516736E-2</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0.97704924000000004</v>
+      </c>
+      <c r="J9" s="1">
+        <f t="shared" si="0"/>
+        <v>0.27237053013332313</v>
+      </c>
+      <c r="K9" s="1">
+        <f t="shared" si="1"/>
+        <v>0.64531904185482636</v>
+      </c>
+      <c r="L9" s="1">
+        <f t="shared" si="2"/>
+        <v>8.2310428011850761E-2</v>
+      </c>
+      <c r="M9" s="1">
+        <f t="shared" si="3"/>
+        <v>3.5884008439268499E-2</v>
+      </c>
+      <c r="N9" s="1">
+        <f t="shared" si="4"/>
+        <v>7.4645660573102832E-2</v>
+      </c>
+      <c r="O9" s="1">
+        <f t="shared" si="5"/>
+        <v>0.88947033098762862</v>
+      </c>
+      <c r="P9" s="1">
+        <f t="shared" si="6"/>
+        <v>0.24935550865690345</v>
+      </c>
+      <c r="Q9" s="1">
+        <f t="shared" si="7"/>
+        <v>0.65789237020329616</v>
+      </c>
+      <c r="R9" s="1">
+        <f t="shared" si="8"/>
+        <v>9.2752121139800414E-2</v>
+      </c>
+      <c r="S9" s="1">
+        <f t="shared" si="9"/>
+        <v>2.9562749730968785E-2</v>
+      </c>
+      <c r="T9" s="1">
+        <f t="shared" si="10"/>
+        <v>6.8480979096712052E-2</v>
+      </c>
+      <c r="U9" s="1">
+        <f t="shared" si="11"/>
+        <v>0.90195627117231914</v>
+      </c>
+      <c r="V9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="D10" s="1">
+        <v>0.14611568999999999</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.56327987999999996</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.29060441999999997</v>
+      </c>
+      <c r="G10" s="1">
+        <v>5.4592599999999996E-3</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1.6582949999999999E-2</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0.97795779000000005</v>
+      </c>
+      <c r="J10" s="1">
+        <f>(P10/$A$6)/((P10/$A$6)+(Q10/$B$6)+(R10/$C$6))</f>
+        <v>0.1815569439132402</v>
+      </c>
+      <c r="K10" s="1">
+        <f>(Q10/$B$6)/((P10/$A$6)+(Q10/$B$6)+(R10/$C$6))</f>
+        <v>0.74714115931511971</v>
+      </c>
+      <c r="L10" s="1">
+        <f>(R10/$C$6)/((P10/$A$6)+(Q10/$B$6)+(R10/$C$6))</f>
+        <v>7.1301896771640033E-2</v>
+      </c>
+      <c r="M10" s="1">
+        <f>(S10/$A$6)/((S10/$A$6)+(T10/$B$6)+(U10/$C$6))</f>
+        <v>2.5242735631546599E-2</v>
+      </c>
+      <c r="N10" s="1">
+        <f>(T10/$B$6)/((S10/$A$6)+(T10/$B$6)+(U10/$C$6))</f>
+        <v>8.1851538051845654E-2</v>
+      </c>
+      <c r="O10" s="1">
+        <f>(U10/$C$6)/((S10/$A$6)+(T10/$B$6)+(U10/$C$6))</f>
+        <v>0.89290572631660781</v>
+      </c>
+      <c r="P10" s="1">
+        <f>(D10*$A$4)/((D10*$A$4)+(E10*$B$4)+(F10*$C$4))</f>
+        <v>0.16485371306175112</v>
+      </c>
+      <c r="Q10" s="1">
+        <f>(E10*$B$4)/((D10*$A$4)+(E10*$B$4)+(F10*$C$4))</f>
+        <v>0.75545752270402167</v>
+      </c>
+      <c r="R10" s="1">
+        <f>(F10*$C$4)/((D10*$A$4)+(E10*$B$4)+(F10*$C$4))</f>
+        <v>7.9688764234227161E-2</v>
+      </c>
+      <c r="S10" s="1">
+        <f>(G10*$A$4)/((G10*$A$4)+(H10*$B$4)+(I10*$C$4))</f>
+        <v>2.0768449733245712E-2</v>
+      </c>
+      <c r="T10" s="1">
+        <f>(H10*$B$4)/((G10*$A$4)+(H10*$B$4)+(I10*$C$4))</f>
+        <v>7.49921878391243E-2</v>
+      </c>
+      <c r="U10" s="1">
+        <f>(I10*$C$4)/((G10*$A$4)+(H10*$B$4)+(I10*$C$4))</f>
+        <v>0.90423936242763003</v>
+      </c>
+      <c r="V10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="D11" s="1">
+        <v>7.5976600000000005E-2</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.669879</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.25414439999999999</v>
+      </c>
+      <c r="G11" s="1">
+        <v>2.91508E-3</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1.7802809999999999E-2</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0.97928210999999998</v>
+      </c>
+      <c r="J11" s="1">
+        <f t="shared" ref="J11:J12" si="12">(P11/$A$6)/((P11/$A$6)+(Q11/$B$6)+(R11/$C$6))</f>
+        <v>9.0314237371592457E-2</v>
+      </c>
+      <c r="K11" s="1">
+        <f t="shared" ref="K11:K12" si="13">(Q11/$B$6)/((P11/$A$6)+(Q11/$B$6)+(R11/$C$6))</f>
+        <v>0.8500317356920678</v>
+      </c>
+      <c r="L11" s="1">
+        <f t="shared" ref="L11:L12" si="14">(R11/$C$6)/((P11/$A$6)+(Q11/$B$6)+(R11/$C$6))</f>
+        <v>5.9654026936339768E-2</v>
+      </c>
+      <c r="M11" s="1">
+        <f t="shared" ref="M11:M12" si="15">(S11/$A$6)/((S11/$A$6)+(T11/$B$6)+(U11/$C$6))</f>
+        <v>1.3540245270473759E-2</v>
+      </c>
+      <c r="N11" s="1">
+        <f t="shared" ref="N11:N12" si="16">(T11/$B$6)/((S11/$A$6)+(T11/$B$6)+(U11/$C$6))</f>
+        <v>8.8272824477502926E-2</v>
+      </c>
+      <c r="O11" s="1">
+        <f t="shared" ref="O11:O12" si="17">(U11/$C$6)/((S11/$A$6)+(T11/$B$6)+(U11/$C$6))</f>
+        <v>0.89818693025202323</v>
+      </c>
+      <c r="P11" s="1">
+        <f t="shared" ref="P11:P12" si="18">(D11*$A$4)/((D11*$A$4)+(E11*$B$4)+(F11*$C$4))</f>
+        <v>8.1340816621079629E-2</v>
+      </c>
+      <c r="Q11" s="1">
+        <f t="shared" ref="Q11:Q12" si="19">(E11*$B$4)/((D11*$A$4)+(E11*$B$4)+(F11*$C$4))</f>
+        <v>0.85252862121470852</v>
+      </c>
+      <c r="R11" s="1">
+        <f t="shared" ref="R11:R12" si="20">(F11*$C$4)/((D11*$A$4)+(E11*$B$4)+(F11*$C$4))</f>
+        <v>6.6130562164211926E-2</v>
+      </c>
+      <c r="S11" s="1">
+        <f t="shared" ref="S11:S12" si="21">(G11*$A$4)/((G11*$A$4)+(H11*$B$4)+(I11*$C$4))</f>
+        <v>1.1122399606070383E-2</v>
+      </c>
+      <c r="T11" s="1">
+        <f t="shared" ref="T11:T12" si="22">(H11*$B$4)/((G11*$A$4)+(H11*$B$4)+(I11*$C$4))</f>
+        <v>8.0745904673601918E-2</v>
+      </c>
+      <c r="U11" s="1">
+        <f t="shared" ref="U11:U12" si="23">(I11*$C$4)/((G11*$A$4)+(H11*$B$4)+(I11*$C$4))</f>
+        <v>0.90813169572032781</v>
+      </c>
+      <c r="V11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.78745783999999996</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.21254216000000001</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <v>1.881524E-2</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0.98118475999999999</v>
+      </c>
+      <c r="J12" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="1">
+        <f t="shared" si="13"/>
+        <v>0.95244688313485804</v>
+      </c>
+      <c r="L12" s="1">
+        <f t="shared" si="14"/>
+        <v>4.7553116865141888E-2</v>
+      </c>
+      <c r="M12" s="1">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="N12" s="1">
+        <f t="shared" si="16"/>
+        <v>9.3929206872812518E-2</v>
+      </c>
+      <c r="O12" s="1">
+        <f t="shared" si="17"/>
+        <v>0.90607079312718741</v>
+      </c>
+      <c r="P12" s="1">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="1">
+        <f t="shared" si="19"/>
+        <v>0.94770045244198509</v>
+      </c>
+      <c r="R12" s="1">
+        <f t="shared" si="20"/>
+        <v>5.2299547558015018E-2</v>
+      </c>
+      <c r="S12" s="1">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="T12" s="1">
+        <f t="shared" si="22"/>
+        <v>8.5746523954924408E-2</v>
+      </c>
+      <c r="U12" s="1">
+        <f t="shared" si="23"/>
+        <v>0.91425347604507556</v>
+      </c>
+      <c r="V12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+    </row>
+    <row r="17" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+    </row>
+    <row r="18" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+    </row>
+    <row r="19" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+    </row>
+    <row r="20" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+    </row>
+    <row r="23" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A5:C5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>